--- a/posts/RaceTraining/training_data.xlsx
+++ b/posts/RaceTraining/training_data.xlsx
@@ -516,7 +516,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>6513064739</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -565,7 +565,7 @@
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>6503772114</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -614,7 +614,7 @@
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>6486639969</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -663,7 +663,7 @@
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>6486639144</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -712,7 +712,7 @@
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>6468165788</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -741,7 +741,7 @@
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6463544270</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -770,7 +770,7 @@
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6463285164</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -813,7 +813,7 @@
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>6439599580</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -856,7 +856,7 @@
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>6430513982</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -899,7 +899,7 @@
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>6412299490</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -948,7 +948,7 @@
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>6400052623</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -997,7 +997,7 @@
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>6391994298</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -1040,7 +1040,7 @@
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>6388470186</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -1083,7 +1083,7 @@
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>6387423073</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -1112,7 +1112,7 @@
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>6371787089</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -1147,7 +1147,7 @@
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>6359220166</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -1190,7 +1190,7 @@
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>6351067288</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -1233,7 +1233,7 @@
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>6350970833</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -1262,7 +1262,7 @@
       <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>6334260177</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -1305,7 +1305,7 @@
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>6334159955</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -1334,7 +1334,7 @@
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>6296923970</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -1383,7 +1383,7 @@
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>6293806721</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -1418,7 +1418,7 @@
       <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>6284512884</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -1449,7 +1449,7 @@
       <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>6210595348</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -1492,7 +1492,7 @@
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>6201664379</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -1541,7 +1541,7 @@
       <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>6145723761</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -1584,7 +1584,7 @@
       <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>6120821523</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -1627,7 +1627,7 @@
       <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>6120820648</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -1670,7 +1670,7 @@
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>6098956975</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -1701,7 +1701,7 @@
       <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>6082371621</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -1744,7 +1744,7 @@
       <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>6067080005</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -1787,7 +1787,7 @@
       <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>6048661494</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -1818,7 +1818,7 @@
       <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>6047122386</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -1861,7 +1861,7 @@
       <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>5953893556</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -1904,7 +1904,7 @@
       <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>5953745054</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -1933,7 +1933,7 @@
       <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>5933523020</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -1964,7 +1964,7 @@
       <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>5927430993</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -2007,7 +2007,7 @@
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>5927297655</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -2036,7 +2036,7 @@
       <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>5925956945</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -2071,7 +2071,7 @@
       <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>5925952173</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -2106,7 +2106,7 @@
       <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>5906087121</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -2141,7 +2141,7 @@
       <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>5893867179</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -2176,7 +2176,7 @@
       <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>5893850403</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -2207,7 +2207,7 @@
       <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>5879506020</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -2238,7 +2238,7 @@
       <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>5879505706</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -2269,7 +2269,7 @@
       <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>5868742610</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -2318,7 +2318,7 @@
       <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>5857776175</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -2349,7 +2349,7 @@
       <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>5850932835</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -2392,7 +2392,7 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>5847608446</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -2423,7 +2423,7 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>5836219759</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -2456,7 +2456,7 @@
       <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>5835512939</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -2499,7 +2499,7 @@
       <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>5830961201</v>
       </c>
       <c r="B53" s="2" t="n">
@@ -2532,7 +2532,7 @@
       <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>5818710684</v>
       </c>
       <c r="B54" s="2" t="n">
@@ -2575,7 +2575,7 @@
       <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>5818548590</v>
       </c>
       <c r="B55" s="2" t="n">
@@ -2604,7 +2604,7 @@
       <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>5814087266</v>
       </c>
       <c r="B56" s="2" t="n">
@@ -2647,7 +2647,7 @@
       <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>5813925722</v>
       </c>
       <c r="B57" s="2" t="n">
@@ -2676,7 +2676,7 @@
       <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>5808535844</v>
       </c>
       <c r="B58" s="2" t="n">
@@ -2707,7 +2707,7 @@
       <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>5802034797</v>
       </c>
       <c r="B59" s="2" t="n">
@@ -2750,7 +2750,7 @@
       <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>5802033672</v>
       </c>
       <c r="B60" s="2" t="n">
@@ -2779,7 +2779,7 @@
       <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>5797202641</v>
       </c>
       <c r="B61" s="2" t="n">
@@ -2822,7 +2822,7 @@
       <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>5786749922</v>
       </c>
       <c r="B62" s="2" t="n">
@@ -2869,7 +2869,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>5783002428</v>
       </c>
       <c r="B63" s="2" t="n">
@@ -2912,7 +2912,7 @@
       <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>5765942495</v>
       </c>
       <c r="B64" s="2" t="n">
@@ -2955,7 +2955,7 @@
       <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>5765836259</v>
       </c>
       <c r="B65" s="2" t="n">
@@ -2984,7 +2984,7 @@
       <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>5759306535</v>
       </c>
       <c r="B66" s="2" t="n">
@@ -3027,7 +3027,7 @@
       <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>5759304964</v>
       </c>
       <c r="B67" s="2" t="n">
@@ -3056,7 +3056,7 @@
       <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>5739821124</v>
       </c>
       <c r="B68" s="2" t="n">
@@ -3099,7 +3099,7 @@
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>5722756144</v>
       </c>
       <c r="B69" s="2" t="n">
@@ -3142,7 +3142,7 @@
       <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>5711377414</v>
       </c>
       <c r="B70" s="2" t="n">
@@ -3177,7 +3177,7 @@
       <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>5711021320</v>
       </c>
       <c r="B71" s="2" t="n">
@@ -3220,7 +3220,7 @@
       <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>5671513107</v>
       </c>
       <c r="B72" s="2" t="n">
@@ -3255,7 +3255,7 @@
       <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>5669382276</v>
       </c>
       <c r="B73" s="2" t="n">
@@ -3290,7 +3290,7 @@
       <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>5658212417</v>
       </c>
       <c r="B74" s="2" t="n">
@@ -3333,7 +3333,7 @@
       <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>5653889550</v>
       </c>
       <c r="B75" s="2" t="n">
@@ -3376,7 +3376,7 @@
       <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>5636309313</v>
       </c>
       <c r="B76" s="2" t="n">
@@ -3419,7 +3419,7 @@
       <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>5626543307</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -3462,7 +3462,7 @@
       <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>5615194902</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -3505,7 +3505,7 @@
       <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>5595039264</v>
       </c>
       <c r="B79" s="2" t="n">
@@ -3548,7 +3548,7 @@
       <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>5585051132</v>
       </c>
       <c r="B80" s="2" t="n">
@@ -3591,7 +3591,7 @@
       <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>5580835035</v>
       </c>
       <c r="B81" s="2" t="n">
@@ -3626,7 +3626,7 @@
       <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>5578466241</v>
       </c>
       <c r="B82" s="2" t="n">
@@ -3669,7 +3669,7 @@
       <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>5574513838</v>
       </c>
       <c r="B83" s="2" t="n">
@@ -3712,7 +3712,7 @@
       <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>5570324226</v>
       </c>
       <c r="B84" s="2" t="n">
@@ -3747,7 +3747,7 @@
       <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>5564114334</v>
       </c>
       <c r="B85" s="2" t="n">
@@ -3790,7 +3790,7 @@
       <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>5527378195</v>
       </c>
       <c r="B86" s="2" t="n">
@@ -3833,7 +3833,7 @@
       <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>5522153541</v>
       </c>
       <c r="B87" s="2" t="n">
@@ -3876,7 +3876,7 @@
       <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>5515599237</v>
       </c>
       <c r="B88" s="2" t="n">
@@ -3919,7 +3919,7 @@
       <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>5515598004</v>
       </c>
       <c r="B89" s="2" t="n">
@@ -3962,7 +3962,7 @@
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>5515550969</v>
       </c>
       <c r="B90" s="2" t="n">
@@ -4005,7 +4005,7 @@
       <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>5515549319</v>
       </c>
       <c r="B91" s="2" t="n">
@@ -4046,7 +4046,7 @@
       <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>5515547681</v>
       </c>
       <c r="B92" s="2" t="n">
@@ -4087,7 +4087,7 @@
       <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>5515546600</v>
       </c>
       <c r="B93" s="2" t="n">
@@ -4120,7 +4120,7 @@
       <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>5515542896</v>
       </c>
       <c r="B94" s="2" t="n">
@@ -4153,7 +4153,7 @@
       <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>5515539398</v>
       </c>
       <c r="B95" s="2" t="n">
@@ -4186,7 +4186,7 @@
       <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>5459050413</v>
       </c>
       <c r="B96" s="2" t="n">
@@ -4229,7 +4229,7 @@
       <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>5426737921</v>
       </c>
       <c r="B97" s="2" t="n">
@@ -4264,7 +4264,7 @@
       <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>5394936802</v>
       </c>
       <c r="B98" s="2" t="n">
@@ -4307,7 +4307,7 @@
       <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>5390454357</v>
       </c>
       <c r="B99" s="2" t="n">
@@ -4350,7 +4350,7 @@
       <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>5386256145</v>
       </c>
       <c r="B100" s="2" t="n">
@@ -4393,7 +4393,7 @@
       <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>5373927094</v>
       </c>
       <c r="B101" s="2" t="n">
@@ -4428,7 +4428,7 @@
       <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>5373921942</v>
       </c>
       <c r="B102" s="2" t="n">
@@ -4463,7 +4463,7 @@
       <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>5363708333</v>
       </c>
       <c r="B103" s="2" t="n">
@@ -4498,7 +4498,7 @@
       <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>5363022839</v>
       </c>
       <c r="B104" s="2" t="n">
@@ -4533,7 +4533,7 @@
       <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>5360978085</v>
       </c>
       <c r="B105" s="2" t="n">
@@ -4576,7 +4576,7 @@
       <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>5358270991</v>
       </c>
       <c r="B106" s="2" t="n">
@@ -4611,7 +4611,7 @@
       <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>5335606171</v>
       </c>
       <c r="B107" s="2" t="n">
@@ -4646,7 +4646,7 @@
       <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>5335604340</v>
       </c>
       <c r="B108" s="2" t="n">
@@ -4681,7 +4681,7 @@
       <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>5329619142</v>
       </c>
       <c r="B109" s="2" t="n">
@@ -4716,7 +4716,7 @@
       <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>5320085657</v>
       </c>
       <c r="B110" s="2" t="n">
@@ -4751,7 +4751,7 @@
       <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>5319380914</v>
       </c>
       <c r="B111" s="2" t="n">
@@ -4786,7 +4786,7 @@
       <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>5308930145</v>
       </c>
       <c r="B112" s="2" t="n">
@@ -4821,7 +4821,7 @@
       <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>5114623203</v>
       </c>
       <c r="B113" s="2" t="n">
@@ -4856,7 +4856,7 @@
       <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>5114619535</v>
       </c>
       <c r="B114" s="2" t="n">
@@ -4891,7 +4891,7 @@
       <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>5111362133</v>
       </c>
       <c r="B115" s="2" t="n">
@@ -4926,7 +4926,7 @@
       <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>5101911125</v>
       </c>
       <c r="B116" s="2" t="n">
@@ -4967,7 +4967,7 @@
       <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>5015110383</v>
       </c>
       <c r="B117" s="2" t="n">
@@ -5016,7 +5016,7 @@
       <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>5008155412</v>
       </c>
       <c r="B118" s="2" t="n">
@@ -5059,7 +5059,7 @@
       <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>4998660850</v>
       </c>
       <c r="B119" s="2" t="n">
@@ -5102,7 +5102,7 @@
       <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>4990603463</v>
       </c>
       <c r="B120" s="2" t="n">
@@ -5145,7 +5145,7 @@
       <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>4990601550</v>
       </c>
       <c r="B121" s="2" t="n">
@@ -5180,7 +5180,7 @@
       <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>4972869977</v>
       </c>
       <c r="B122" s="2" t="n">
@@ -5223,7 +5223,7 @@
       <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>4969485359</v>
       </c>
       <c r="B123" s="2" t="n">
@@ -5270,7 +5270,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>4956068298</v>
       </c>
       <c r="B124" s="2" t="n">
@@ -5313,7 +5313,7 @@
       <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>4952756629</v>
       </c>
       <c r="B125" s="2" t="n">
@@ -5356,7 +5356,7 @@
       <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>4946478800</v>
       </c>
       <c r="B126" s="2" t="n">
@@ -5405,7 +5405,7 @@
       <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>4931184089</v>
       </c>
       <c r="B127" s="2" t="n">
@@ -5440,7 +5440,7 @@
       <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>4929087605</v>
       </c>
       <c r="B128" s="2" t="n">
@@ -5483,7 +5483,7 @@
       <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>4928919996</v>
       </c>
       <c r="B129" s="2" t="n">
@@ -5518,7 +5518,7 @@
       <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>4917863111</v>
       </c>
       <c r="B130" s="2" t="n">
@@ -5561,7 +5561,7 @@
       <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>4894434859</v>
       </c>
       <c r="B131" s="2" t="n">
@@ -5610,7 +5610,7 @@
       <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>4885096301</v>
       </c>
       <c r="B132" s="2" t="n">
@@ -5659,7 +5659,7 @@
       <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>4859349436</v>
       </c>
       <c r="B133" s="2" t="n">
@@ -5708,7 +5708,7 @@
       <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>4850273751</v>
       </c>
       <c r="B134" s="2" t="n">
@@ -5757,7 +5757,7 @@
       <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>4825908348</v>
       </c>
       <c r="B135" s="2" t="n">
@@ -5806,7 +5806,7 @@
       <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>4812611001</v>
       </c>
       <c r="B136" s="2" t="n">
@@ -5855,7 +5855,7 @@
       <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>4798069854</v>
       </c>
       <c r="B137" s="2" t="n">
@@ -5904,7 +5904,7 @@
       <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>4775229252</v>
       </c>
       <c r="B138" s="2" t="n">
@@ -5953,7 +5953,7 @@
       <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>4761457597</v>
       </c>
       <c r="B139" s="2" t="n">
@@ -6002,7 +6002,7 @@
       <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>4739172623</v>
       </c>
       <c r="B140" s="2" t="n">
@@ -6045,7 +6045,7 @@
       <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>4713695718</v>
       </c>
       <c r="B141" s="2" t="n">
@@ -6088,7 +6088,7 @@
       <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>4516805894</v>
       </c>
       <c r="B142" s="2" t="n">
@@ -6131,7 +6131,7 @@
       <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>4509438226</v>
       </c>
       <c r="B143" s="2" t="n">
@@ -6174,7 +6174,7 @@
       <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>4490531190</v>
       </c>
       <c r="B144" s="2" t="n">
@@ -6217,7 +6217,7 @@
       <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>4467927370</v>
       </c>
       <c r="B145" s="2" t="n">
@@ -6266,7 +6266,7 @@
       <c r="O145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>4463814909</v>
       </c>
       <c r="B146" s="2" t="n">
@@ -6309,7 +6309,7 @@
       <c r="O146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>4459604549</v>
       </c>
       <c r="B147" s="2" t="n">
@@ -6358,7 +6358,7 @@
       <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>4447871801</v>
       </c>
       <c r="B148" s="2" t="n">
@@ -6407,7 +6407,7 @@
       <c r="O148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>4438531505</v>
       </c>
       <c r="B149" s="2" t="n">
@@ -6450,7 +6450,7 @@
       <c r="O149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>4426222657</v>
       </c>
       <c r="B150" s="2" t="n">
@@ -6499,7 +6499,7 @@
       <c r="O150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>4416064833</v>
       </c>
       <c r="B151" s="2" t="n">
@@ -6542,7 +6542,7 @@
       <c r="O151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>4399129138</v>
       </c>
       <c r="B152" s="2" t="n">
@@ -6585,7 +6585,7 @@
       <c r="O152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>4381204932</v>
       </c>
       <c r="B153" s="2" t="n">
@@ -6634,7 +6634,7 @@
       <c r="O153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>4364390790</v>
       </c>
       <c r="B154" s="2" t="n">
@@ -6683,7 +6683,7 @@
       <c r="O154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>4338947196</v>
       </c>
       <c r="B155" s="2" t="n">
@@ -6722,7 +6722,7 @@
       <c r="O155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>4309954143</v>
       </c>
       <c r="B156" s="2" t="n">
@@ -6771,7 +6771,7 @@
       <c r="O156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>4285830591</v>
       </c>
       <c r="B157" s="2" t="n">
@@ -6820,7 +6820,7 @@
       <c r="O157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>4277880072</v>
       </c>
       <c r="B158" s="2" t="n">
@@ -6869,7 +6869,7 @@
       <c r="O158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>4268700228</v>
       </c>
       <c r="B159" s="2" t="n">
@@ -6916,7 +6916,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>4262255357</v>
       </c>
       <c r="B160" s="2" t="n">
@@ -6965,7 +6965,7 @@
       <c r="O160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>4250252563</v>
       </c>
       <c r="B161" s="2" t="n">
@@ -7014,7 +7014,7 @@
       <c r="O161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>4238303832</v>
       </c>
       <c r="B162" s="2" t="n">
@@ -7061,7 +7061,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>4233000597</v>
       </c>
       <c r="B163" s="2" t="n">
@@ -7110,7 +7110,7 @@
       <c r="O163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>4224615138</v>
       </c>
       <c r="B164" s="2" t="n">
@@ -7159,7 +7159,7 @@
       <c r="O164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>4221355067</v>
       </c>
       <c r="B165" s="2" t="n">
@@ -7208,7 +7208,7 @@
       <c r="O165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>4211890017</v>
       </c>
       <c r="B166" s="2" t="n">
@@ -7257,7 +7257,7 @@
       <c r="O166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>4194231898</v>
       </c>
       <c r="B167" s="2" t="n">
@@ -7306,7 +7306,7 @@
       <c r="O167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>4191141023</v>
       </c>
       <c r="B168" s="2" t="n">
@@ -7355,7 +7355,7 @@
       <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>4182005655</v>
       </c>
       <c r="B169" s="2" t="n">
@@ -7402,7 +7402,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>4165834848</v>
       </c>
       <c r="B170" s="2" t="n">
@@ -7451,7 +7451,7 @@
       <c r="O170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>4158971673</v>
       </c>
       <c r="B171" s="2" t="n">
@@ -7500,7 +7500,7 @@
       <c r="O171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>4154555208</v>
       </c>
       <c r="B172" s="2" t="n">
@@ -7549,7 +7549,7 @@
       <c r="O172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>4146206414</v>
       </c>
       <c r="B173" s="2" t="n">
@@ -7602,7 +7602,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>4141677825</v>
       </c>
       <c r="B174" s="2" t="n">
@@ -7651,7 +7651,7 @@
       <c r="O174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>4132730276</v>
       </c>
       <c r="B175" s="2" t="n">
@@ -7700,7 +7700,7 @@
       <c r="O175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>4129297143</v>
       </c>
       <c r="B176" s="2" t="n">
@@ -7749,7 +7749,7 @@
       <c r="O176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>4123736294</v>
       </c>
       <c r="B177" s="2" t="n">
@@ -7798,7 +7798,7 @@
       <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>4115824660</v>
       </c>
       <c r="B178" s="2" t="n">
@@ -7845,7 +7845,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>4106679501</v>
       </c>
       <c r="B179" s="2" t="n">
@@ -7888,7 +7888,7 @@
       <c r="O179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>4097161171</v>
       </c>
       <c r="B180" s="2" t="n">
@@ -7937,7 +7937,7 @@
       <c r="O180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>4092388190</v>
       </c>
       <c r="B181" s="2" t="n">
@@ -7980,7 +7980,7 @@
       <c r="O181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>4079716155</v>
       </c>
       <c r="B182" s="2" t="n">
@@ -8021,7 +8021,7 @@
       <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>4054625929</v>
       </c>
       <c r="B183" s="2" t="n">
@@ -8060,7 +8060,7 @@
       <c r="O183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>4050777731</v>
       </c>
       <c r="B184" s="2" t="n">
@@ -8109,7 +8109,7 @@
       <c r="O184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>4041185379</v>
       </c>
       <c r="B185" s="2" t="n">
@@ -8150,7 +8150,7 @@
       <c r="O185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>4039736053</v>
       </c>
       <c r="B186" s="2" t="n">
@@ -8191,7 +8191,7 @@
       <c r="O186" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>4010108846</v>
       </c>
       <c r="B187" s="2" t="n">
@@ -8232,7 +8232,7 @@
       <c r="O187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>4005602761</v>
       </c>
       <c r="B188" s="2" t="n">
@@ -8273,7 +8273,7 @@
       <c r="O188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>3996262388</v>
       </c>
       <c r="B189" s="2" t="n">
@@ -8314,7 +8314,7 @@
       <c r="O189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>3987478134</v>
       </c>
       <c r="B190" s="2" t="n">
@@ -8347,7 +8347,7 @@
       <c r="O190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>3982008888</v>
       </c>
       <c r="B191" s="2" t="n">
@@ -8388,7 +8388,7 @@
       <c r="O191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>3979009373</v>
       </c>
       <c r="B192" s="2" t="n">
@@ -8421,7 +8421,7 @@
       <c r="O192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>3968630077</v>
       </c>
       <c r="B193" s="2" t="n">
@@ -8462,7 +8462,7 @@
       <c r="O193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>3963525722</v>
       </c>
       <c r="B194" s="2" t="n">
@@ -8503,7 +8503,7 @@
       <c r="O194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>3954687367</v>
       </c>
       <c r="B195" s="2" t="n">
@@ -8544,7 +8544,7 @@
       <c r="O195" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>3945033413</v>
       </c>
       <c r="B196" s="2" t="n">
@@ -8585,7 +8585,7 @@
       <c r="O196" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>3944746069</v>
       </c>
       <c r="B197" s="2" t="n">
@@ -8624,7 +8624,7 @@
       <c r="O197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>3944604534</v>
       </c>
       <c r="B198" s="2" t="n">
@@ -8665,7 +8665,7 @@
       <c r="O198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>3938134146</v>
       </c>
       <c r="B199" s="2" t="n">
@@ -8698,7 +8698,7 @@
       <c r="O199" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>3932378655</v>
       </c>
       <c r="B200" s="2" t="n">
@@ -8739,7 +8739,7 @@
       <c r="O200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>3926221553</v>
       </c>
       <c r="B201" s="2" t="n">
@@ -8780,7 +8780,7 @@
       <c r="O201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>3916469810</v>
       </c>
       <c r="B202" s="2" t="n">
@@ -8821,7 +8821,7 @@
       <c r="O202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>3912522009</v>
       </c>
       <c r="B203" s="2" t="n">
@@ -8862,7 +8862,7 @@
       <c r="O203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>3897202017</v>
       </c>
       <c r="B204" s="2" t="n">
@@ -8903,7 +8903,7 @@
       <c r="O204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>3885182983</v>
       </c>
       <c r="B205" s="2" t="n">
@@ -8944,7 +8944,7 @@
       <c r="O205" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>3870561570</v>
       </c>
       <c r="B206" s="2" t="n">
@@ -8977,7 +8977,7 @@
       <c r="O206" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>3870559779</v>
       </c>
       <c r="B207" s="2" t="n">
@@ -9010,7 +9010,7 @@
       <c r="O207" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>3858002101</v>
       </c>
       <c r="B208" s="2" t="n">
@@ -9051,7 +9051,7 @@
       <c r="O208" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>3848309760</v>
       </c>
       <c r="B209" s="2" t="n">
@@ -9092,7 +9092,7 @@
       <c r="O209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>3838353038</v>
       </c>
       <c r="B210" s="2" t="n">
@@ -9133,7 +9133,7 @@
       <c r="O210" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>3832606516</v>
       </c>
       <c r="B211" s="2" t="n">
@@ -9174,7 +9174,7 @@
       <c r="O211" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>3828581323</v>
       </c>
       <c r="B212" s="2" t="n">
@@ -9215,7 +9215,7 @@
       <c r="O212" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>3828136765</v>
       </c>
       <c r="B213" s="2" t="n">
@@ -9256,7 +9256,7 @@
       <c r="O213" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>3828127682</v>
       </c>
       <c r="B214" s="2" t="n">
@@ -9287,7 +9287,7 @@
       <c r="O214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>3793249284</v>
       </c>
       <c r="B215" s="2" t="n">
@@ -9318,7 +9318,7 @@
       <c r="O215" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>3793249091</v>
       </c>
       <c r="B216" s="2" t="n">
@@ -9359,7 +9359,7 @@
       <c r="O216" t="inlineStr"/>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>3793248304</v>
       </c>
       <c r="B217" s="2" t="n">
@@ -9390,7 +9390,7 @@
       <c r="O217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>3793248125</v>
       </c>
       <c r="B218" s="2" t="n">
@@ -9421,7 +9421,7 @@
       <c r="O218" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>3772010175</v>
       </c>
       <c r="B219" s="2" t="n">
@@ -9462,7 +9462,7 @@
       <c r="O219" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>3760960545</v>
       </c>
       <c r="B220" s="2" t="n">
@@ -9503,7 +9503,7 @@
       <c r="O220" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>3757533512</v>
       </c>
       <c r="B221" s="2" t="n">
@@ -9536,7 +9536,7 @@
       <c r="O221" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>3756281164</v>
       </c>
       <c r="B222" s="2" t="n">
@@ -9569,7 +9569,7 @@
       <c r="O222" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>3736353474</v>
       </c>
       <c r="B223" s="2" t="n">
@@ -9610,7 +9610,7 @@
       <c r="O223" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>3722719304</v>
       </c>
       <c r="B224" s="2" t="n">
@@ -9643,7 +9643,7 @@
       <c r="O224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>3721902856</v>
       </c>
       <c r="B225" s="2" t="n">
@@ -9676,7 +9676,7 @@
       <c r="O225" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>3704480970</v>
       </c>
       <c r="B226" s="2" t="n">
@@ -9709,7 +9709,7 @@
       <c r="O226" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>3702802053</v>
       </c>
       <c r="B227" s="2" t="n">
@@ -9742,7 +9742,7 @@
       <c r="O227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>3692911736</v>
       </c>
       <c r="B228" s="2" t="n">
@@ -9783,7 +9783,7 @@
       <c r="O228" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>3683472086</v>
       </c>
       <c r="B229" s="2" t="n">
@@ -9824,7 +9824,7 @@
       <c r="O229" t="inlineStr"/>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>3674538806</v>
       </c>
       <c r="B230" s="2" t="n">
@@ -9865,7 +9865,7 @@
       <c r="O230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>3670373012</v>
       </c>
       <c r="B231" s="2" t="n">
@@ -9906,7 +9906,7 @@
       <c r="O231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>3646049797</v>
       </c>
       <c r="B232" s="2" t="n">
@@ -9947,7 +9947,7 @@
       <c r="O232" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>3646049068</v>
       </c>
       <c r="B233" s="2" t="n">
@@ -9980,7 +9980,7 @@
       <c r="O233" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>3631096088</v>
       </c>
       <c r="B234" s="2" t="n">
@@ -10013,7 +10013,7 @@
       <c r="O234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>3615566176</v>
       </c>
       <c r="B235" s="2" t="n">
@@ -10046,7 +10046,7 @@
       <c r="O235" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>3608669980</v>
       </c>
       <c r="B236" s="2" t="n">
@@ -10087,7 +10087,7 @@
       <c r="O236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>3587913272</v>
       </c>
       <c r="B237" s="2" t="n">
@@ -10128,7 +10128,7 @@
       <c r="O237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>3587757398</v>
       </c>
       <c r="B238" s="2" t="n">
@@ -10169,7 +10169,7 @@
       <c r="O238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>3578431977</v>
       </c>
       <c r="B239" s="2" t="n">
@@ -10210,7 +10210,7 @@
       <c r="O239" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>3563600682</v>
       </c>
       <c r="B240" s="2" t="n">
@@ -10251,7 +10251,7 @@
       <c r="O240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>3559427664</v>
       </c>
       <c r="B241" s="2" t="n">
@@ -10292,7 +10292,7 @@
       <c r="O241" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>3557745043</v>
       </c>
       <c r="B242" s="2" t="n">
@@ -10333,7 +10333,7 @@
       <c r="O242" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>3552894627</v>
       </c>
       <c r="B243" s="2" t="n">
@@ -10374,7 +10374,7 @@
       <c r="O243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>3543567505</v>
       </c>
       <c r="B244" s="2" t="n">
@@ -10407,7 +10407,7 @@
       <c r="O244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>3537196476</v>
       </c>
       <c r="B245" s="2" t="n">
@@ -10448,7 +10448,7 @@
       <c r="O245" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>3531938754</v>
       </c>
       <c r="B246" s="2" t="n">
@@ -10489,7 +10489,7 @@
       <c r="O246" t="inlineStr"/>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>3520972043</v>
       </c>
       <c r="B247" s="2" t="n">
@@ -10530,7 +10530,7 @@
       <c r="O247" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>3515043389</v>
       </c>
       <c r="B248" s="2" t="n">
@@ -10571,7 +10571,7 @@
       <c r="O248" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>3506079077</v>
       </c>
       <c r="B249" s="2" t="n">
@@ -10612,7 +10612,7 @@
       <c r="O249" t="inlineStr"/>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>3490405586</v>
       </c>
       <c r="B250" s="2" t="n">
@@ -10653,7 +10653,7 @@
       <c r="O250" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>3483327180</v>
       </c>
       <c r="B251" s="2" t="n">
@@ -10694,7 +10694,7 @@
       <c r="O251" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>3467384947</v>
       </c>
       <c r="B252" s="2" t="n">
@@ -10735,7 +10735,7 @@
       <c r="O252" t="inlineStr"/>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>3461970630</v>
       </c>
       <c r="B253" s="2" t="n">
@@ -10776,7 +10776,7 @@
       <c r="O253" t="inlineStr"/>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>3455146667</v>
       </c>
       <c r="B254" s="2" t="n">
@@ -10817,7 +10817,7 @@
       <c r="O254" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>3449650369</v>
       </c>
       <c r="B255" s="2" t="n">
@@ -10858,7 +10858,7 @@
       <c r="O255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>3444806613</v>
       </c>
       <c r="B256" s="2" t="n">
@@ -10899,7 +10899,7 @@
       <c r="O256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>3440377455</v>
       </c>
       <c r="B257" s="2" t="n">
@@ -10940,7 +10940,7 @@
       <c r="O257" t="inlineStr"/>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="A258" t="n">
         <v>3434832521</v>
       </c>
       <c r="B258" s="2" t="n">
@@ -10981,7 +10981,7 @@
       <c r="O258" t="inlineStr"/>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="A259" t="n">
         <v>3431725525</v>
       </c>
       <c r="B259" s="2" t="n">
@@ -11014,7 +11014,7 @@
       <c r="O259" t="inlineStr"/>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="A260" t="n">
         <v>3415980044</v>
       </c>
       <c r="B260" s="2" t="n">
@@ -11047,7 +11047,7 @@
       <c r="O260" t="inlineStr"/>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="A261" t="n">
         <v>3415976473</v>
       </c>
       <c r="B261" s="2" t="n">
@@ -11080,7 +11080,7 @@
       <c r="O261" t="inlineStr"/>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="A262" t="n">
         <v>3403588672</v>
       </c>
       <c r="B262" s="2" t="n">
@@ -11113,7 +11113,7 @@
       <c r="O262" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="A263" t="n">
         <v>3396828609</v>
       </c>
       <c r="B263" s="2" t="n">
@@ -11154,7 +11154,7 @@
       <c r="O263" t="inlineStr"/>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="A264" t="n">
         <v>3380454039</v>
       </c>
       <c r="B264" s="2" t="n">
@@ -11195,7 +11195,7 @@
       <c r="O264" t="inlineStr"/>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="A265" t="n">
         <v>3372844428</v>
       </c>
       <c r="B265" s="2" t="n">
@@ -11228,7 +11228,7 @@
       <c r="O265" t="inlineStr"/>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="A266" t="n">
         <v>3367235142</v>
       </c>
       <c r="B266" s="2" t="n">
@@ -11261,7 +11261,7 @@
       <c r="O266" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="A267" t="n">
         <v>3357273015</v>
       </c>
       <c r="B267" s="2" t="n">
@@ -11302,7 +11302,7 @@
       <c r="O267" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="A268" t="n">
         <v>3342293082</v>
       </c>
       <c r="B268" s="2" t="n">
@@ -11343,7 +11343,7 @@
       <c r="O268" t="inlineStr"/>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="A269" t="n">
         <v>3333213114</v>
       </c>
       <c r="B269" s="2" t="n">
@@ -11384,7 +11384,7 @@
       <c r="O269" t="inlineStr"/>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="A270" t="n">
         <v>3318149101</v>
       </c>
       <c r="B270" s="2" t="n">
@@ -11425,7 +11425,7 @@
       <c r="O270" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n">
+      <c r="A271" t="n">
         <v>3302573941</v>
       </c>
       <c r="B271" s="2" t="n">
@@ -11466,7 +11466,7 @@
       <c r="O271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="n">
+      <c r="A272" t="n">
         <v>3299490809</v>
       </c>
       <c r="B272" s="2" t="n">
@@ -11507,7 +11507,7 @@
       <c r="O272" t="inlineStr"/>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="n">
+      <c r="A273" t="n">
         <v>3289722616</v>
       </c>
       <c r="B273" s="2" t="n">
@@ -11548,7 +11548,7 @@
       <c r="O273" t="inlineStr"/>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="n">
+      <c r="A274" t="n">
         <v>3285555921</v>
       </c>
       <c r="B274" s="2" t="n">
@@ -11589,7 +11589,7 @@
       <c r="O274" t="inlineStr"/>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="n">
+      <c r="A275" t="n">
         <v>3276503074</v>
       </c>
       <c r="B275" s="2" t="n">
@@ -11630,7 +11630,7 @@
       <c r="O275" t="inlineStr"/>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="n">
+      <c r="A276" t="n">
         <v>3271364770</v>
       </c>
       <c r="B276" s="2" t="n">
@@ -11671,7 +11671,7 @@
       <c r="O276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="n">
+      <c r="A277" t="n">
         <v>3264059674</v>
       </c>
       <c r="B277" s="2" t="n">
@@ -11712,7 +11712,7 @@
       <c r="O277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="A278" t="n">
         <v>3247062459</v>
       </c>
       <c r="B278" s="2" t="n">
@@ -11753,7 +11753,7 @@
       <c r="O278" t="inlineStr"/>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="A279" t="n">
         <v>3232302888</v>
       </c>
       <c r="B279" s="2" t="n">
@@ -11794,7 +11794,7 @@
       <c r="O279" t="inlineStr"/>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="A280" t="n">
         <v>3224763540</v>
       </c>
       <c r="B280" s="2" t="n">
@@ -11835,7 +11835,7 @@
       <c r="O280" t="inlineStr"/>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="A281" t="n">
         <v>3220734408</v>
       </c>
       <c r="B281" s="2" t="n">
@@ -11876,7 +11876,7 @@
       <c r="O281" t="inlineStr"/>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="A282" t="n">
         <v>3212961860</v>
       </c>
       <c r="B282" s="2" t="n">
@@ -11917,7 +11917,7 @@
       <c r="O282" t="inlineStr"/>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="A283" t="n">
         <v>3203759645</v>
       </c>
       <c r="B283" s="2" t="n">
@@ -11958,7 +11958,7 @@
       <c r="O283" t="inlineStr"/>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="A284" t="n">
         <v>3201420219</v>
       </c>
       <c r="B284" s="2" t="n">
@@ -11999,7 +11999,7 @@
       <c r="O284" t="inlineStr"/>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="A285" t="n">
         <v>3195422986</v>
       </c>
       <c r="B285" s="2" t="n">
@@ -12040,7 +12040,7 @@
       <c r="O285" t="inlineStr"/>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="A286" t="n">
         <v>3191732480</v>
       </c>
       <c r="B286" s="2" t="n">
@@ -12081,7 +12081,7 @@
       <c r="O286" t="inlineStr"/>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="A287" t="n">
         <v>3188921544</v>
       </c>
       <c r="B287" s="2" t="n">
@@ -12122,7 +12122,7 @@
       <c r="O287" t="inlineStr"/>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="A288" t="n">
         <v>3168176818</v>
       </c>
       <c r="B288" s="2" t="n">
@@ -12155,7 +12155,7 @@
       <c r="O288" t="inlineStr"/>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="A289" t="n">
         <v>3159902486</v>
       </c>
       <c r="B289" s="2" t="n">
@@ -12196,7 +12196,7 @@
       <c r="O289" t="inlineStr"/>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="n">
+      <c r="A290" t="n">
         <v>3159751180</v>
       </c>
       <c r="B290" s="2" t="n">
@@ -12237,7 +12237,7 @@
       <c r="O290" t="inlineStr"/>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="n">
+      <c r="A291" t="n">
         <v>3155014446</v>
       </c>
       <c r="B291" s="2" t="n">
@@ -12278,7 +12278,7 @@
       <c r="O291" t="inlineStr"/>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="n">
+      <c r="A292" t="n">
         <v>3150576203</v>
       </c>
       <c r="B292" s="2" t="n">
@@ -12319,7 +12319,7 @@
       <c r="O292" t="inlineStr"/>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="n">
+      <c r="A293" t="n">
         <v>3145949068</v>
       </c>
       <c r="B293" s="2" t="n">
@@ -12360,7 +12360,7 @@
       <c r="O293" t="inlineStr"/>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n">
+      <c r="A294" t="n">
         <v>3140351915</v>
       </c>
       <c r="B294" s="2" t="n">
@@ -12401,7 +12401,7 @@
       <c r="O294" t="inlineStr"/>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="n">
+      <c r="A295" t="n">
         <v>3123282200</v>
       </c>
       <c r="B295" s="2" t="n">
@@ -12442,7 +12442,7 @@
       <c r="O295" t="inlineStr"/>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="n">
+      <c r="A296" t="n">
         <v>3115040798</v>
       </c>
       <c r="B296" s="2" t="n">
@@ -12483,7 +12483,7 @@
       <c r="O296" t="inlineStr"/>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="n">
+      <c r="A297" t="n">
         <v>3114014316</v>
       </c>
       <c r="B297" s="2" t="n">
@@ -12524,7 +12524,7 @@
       <c r="O297" t="inlineStr"/>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="n">
+      <c r="A298" t="n">
         <v>3105721752</v>
       </c>
       <c r="B298" s="2" t="n">
@@ -12565,7 +12565,7 @@
       <c r="O298" t="inlineStr"/>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="n">
+      <c r="A299" t="n">
         <v>3105358098</v>
       </c>
       <c r="B299" s="2" t="n">
@@ -12606,7 +12606,7 @@
       <c r="O299" t="inlineStr"/>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="n">
+      <c r="A300" t="n">
         <v>3097617765</v>
       </c>
       <c r="B300" s="2" t="n">
@@ -12647,7 +12647,7 @@
       <c r="O300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="n">
+      <c r="A301" t="n">
         <v>3093555757</v>
       </c>
       <c r="B301" s="2" t="n">
@@ -12688,7 +12688,7 @@
       <c r="O301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="A302" t="n">
         <v>3080638991</v>
       </c>
       <c r="B302" s="2" t="n">
@@ -12729,7 +12729,7 @@
       <c r="O302" t="inlineStr"/>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="A303" t="n">
         <v>3071124815</v>
       </c>
       <c r="B303" s="2" t="n">
@@ -12770,7 +12770,7 @@
       <c r="O303" t="inlineStr"/>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="A304" t="n">
         <v>3065684877</v>
       </c>
       <c r="B304" s="2" t="n">
@@ -12811,7 +12811,7 @@
       <c r="O304" t="inlineStr"/>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="A305" t="n">
         <v>3060424062</v>
       </c>
       <c r="B305" s="2" t="n">
@@ -12852,7 +12852,7 @@
       <c r="O305" t="inlineStr"/>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="A306" t="n">
         <v>3053579938</v>
       </c>
       <c r="B306" s="2" t="n">
@@ -12893,7 +12893,7 @@
       <c r="O306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="A307" t="n">
         <v>3045888627</v>
       </c>
       <c r="B307" s="2" t="n">
@@ -12934,7 +12934,7 @@
       <c r="O307" t="inlineStr"/>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="A308" t="n">
         <v>3016332861</v>
       </c>
       <c r="B308" s="2" t="n">
@@ -12975,7 +12975,7 @@
       <c r="O308" t="inlineStr"/>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="A309" t="n">
         <v>3010694266</v>
       </c>
       <c r="B309" s="2" t="n">
@@ -13016,7 +13016,7 @@
       <c r="O309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="A310" t="n">
         <v>3002133454</v>
       </c>
       <c r="B310" s="2" t="n">
@@ -13057,7 +13057,7 @@
       <c r="O310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="A311" t="n">
         <v>2995726355</v>
       </c>
       <c r="B311" s="2" t="n">
@@ -13098,7 +13098,7 @@
       <c r="O311" t="inlineStr"/>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="A312" t="n">
         <v>2955528658</v>
       </c>
       <c r="B312" s="2" t="n">
@@ -13139,7 +13139,7 @@
       <c r="O312" t="inlineStr"/>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="A313" t="n">
         <v>2932403052</v>
       </c>
       <c r="B313" s="2" t="n">
@@ -13180,7 +13180,7 @@
       <c r="O313" t="inlineStr"/>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="n">
+      <c r="A314" t="n">
         <v>2914967688</v>
       </c>
       <c r="B314" s="2" t="n">
@@ -13221,7 +13221,7 @@
       <c r="O314" t="inlineStr"/>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="n">
+      <c r="A315" t="n">
         <v>2911768279</v>
       </c>
       <c r="B315" s="2" t="n">
@@ -13262,7 +13262,7 @@
       <c r="O315" t="inlineStr"/>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="n">
+      <c r="A316" t="n">
         <v>2894943978</v>
       </c>
       <c r="B316" s="2" t="n">
@@ -13303,7 +13303,7 @@
       <c r="O316" t="inlineStr"/>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="n">
+      <c r="A317" t="n">
         <v>2885331453</v>
       </c>
       <c r="B317" s="2" t="n">
@@ -13344,7 +13344,7 @@
       <c r="O317" t="inlineStr"/>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="n">
+      <c r="A318" t="n">
         <v>2882919841</v>
       </c>
       <c r="B318" s="2" t="n">
@@ -13385,7 +13385,7 @@
       <c r="O318" t="inlineStr"/>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="n">
+      <c r="A319" t="n">
         <v>2873656638</v>
       </c>
       <c r="B319" s="2" t="n">
@@ -13426,7 +13426,7 @@
       <c r="O319" t="inlineStr"/>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="n">
+      <c r="A320" t="n">
         <v>2872531980</v>
       </c>
       <c r="B320" s="2" t="n">
@@ -13467,7 +13467,7 @@
       <c r="O320" t="inlineStr"/>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="n">
+      <c r="A321" t="n">
         <v>2869483940</v>
       </c>
       <c r="B321" s="2" t="n">
@@ -13496,7 +13496,7 @@
       <c r="O321" t="inlineStr"/>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="n">
+      <c r="A322" t="n">
         <v>2857886746</v>
       </c>
       <c r="B322" s="2" t="n">
@@ -13537,7 +13537,7 @@
       <c r="O322" t="inlineStr"/>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="n">
+      <c r="A323" t="n">
         <v>2849890663</v>
       </c>
       <c r="B323" s="2" t="n">
@@ -13578,7 +13578,7 @@
       <c r="O323" t="inlineStr"/>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="n">
+      <c r="A324" t="n">
         <v>2846682154</v>
       </c>
       <c r="B324" s="2" t="n">
@@ -13619,7 +13619,7 @@
       <c r="O324" t="inlineStr"/>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="n">
+      <c r="A325" t="n">
         <v>2843969642</v>
       </c>
       <c r="B325" s="2" t="n">
@@ -13660,7 +13660,7 @@
       <c r="O325" t="inlineStr"/>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="n">
+      <c r="A326" t="n">
         <v>2836038594</v>
       </c>
       <c r="B326" s="2" t="n">
@@ -13701,7 +13701,7 @@
       <c r="O326" t="inlineStr"/>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="n">
+      <c r="A327" t="n">
         <v>2835614045</v>
       </c>
       <c r="B327" s="2" t="n">
@@ -13742,7 +13742,7 @@
       <c r="O327" t="inlineStr"/>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="n">
+      <c r="A328" t="n">
         <v>2835612203</v>
       </c>
       <c r="B328" s="2" t="n">
@@ -13783,7 +13783,7 @@
       <c r="O328" t="inlineStr"/>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="n">
+      <c r="A329" t="n">
         <v>2828333953</v>
       </c>
       <c r="B329" s="2" t="n">
@@ -13824,7 +13824,7 @@
       <c r="O329" t="inlineStr"/>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="n">
+      <c r="A330" t="n">
         <v>2803777994</v>
       </c>
       <c r="B330" s="2" t="n">
@@ -13865,7 +13865,7 @@
       <c r="O330" t="inlineStr"/>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="n">
+      <c r="A331" t="n">
         <v>2799039182</v>
       </c>
       <c r="B331" s="2" t="n">
@@ -13906,7 +13906,7 @@
       <c r="O331" t="inlineStr"/>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="n">
+      <c r="A332" t="n">
         <v>2799038410</v>
       </c>
       <c r="B332" s="2" t="n">
@@ -13947,7 +13947,7 @@
       <c r="O332" t="inlineStr"/>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="n">
+      <c r="A333" t="n">
         <v>2783198319</v>
       </c>
       <c r="B333" s="2" t="n">
@@ -13988,7 +13988,7 @@
       <c r="O333" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="n">
+      <c r="A334" t="n">
         <v>2783197143</v>
       </c>
       <c r="B334" s="2" t="n">
@@ -14029,7 +14029,7 @@
       <c r="O334" t="inlineStr"/>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="n">
+      <c r="A335" t="n">
         <v>2759847890</v>
       </c>
       <c r="B335" s="2" t="n">
@@ -14070,7 +14070,7 @@
       <c r="O335" t="inlineStr"/>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="n">
+      <c r="A336" t="n">
         <v>2759717293</v>
       </c>
       <c r="B336" s="2" t="n">
@@ -14111,7 +14111,7 @@
       <c r="O336" t="inlineStr"/>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="n">
+      <c r="A337" t="n">
         <v>2654258457</v>
       </c>
       <c r="B337" s="2" t="n">
@@ -14144,7 +14144,7 @@
       <c r="O337" t="inlineStr"/>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="n">
+      <c r="A338" t="n">
         <v>2629959806</v>
       </c>
       <c r="B338" s="2" t="n">
@@ -14175,7 +14175,7 @@
       <c r="O338" t="inlineStr"/>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="n">
+      <c r="A339" t="n">
         <v>2559623569</v>
       </c>
       <c r="B339" s="2" t="n">
@@ -14216,7 +14216,7 @@
       <c r="O339" t="inlineStr"/>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="n">
+      <c r="A340" t="n">
         <v>2518883338</v>
       </c>
       <c r="B340" s="2" t="n">
@@ -14249,7 +14249,7 @@
       <c r="O340" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="n">
+      <c r="A341" t="n">
         <v>2517483226</v>
       </c>
       <c r="B341" s="2" t="n">
@@ -14282,7 +14282,7 @@
       <c r="O341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="n">
+      <c r="A342" t="n">
         <v>2510235395</v>
       </c>
       <c r="B342" s="2" t="n">
@@ -14315,7 +14315,7 @@
       <c r="O342" t="inlineStr"/>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="n">
+      <c r="A343" t="n">
         <v>2510111248</v>
       </c>
       <c r="B343" s="2" t="n">
@@ -14348,7 +14348,7 @@
       <c r="O343" t="inlineStr"/>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="n">
+      <c r="A344" t="n">
         <v>2509792644</v>
       </c>
       <c r="B344" s="2" t="n">
@@ -14381,7 +14381,7 @@
       <c r="O344" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="n">
+      <c r="A345" t="n">
         <v>2509472822</v>
       </c>
       <c r="B345" s="2" t="n">
@@ -14414,7 +14414,7 @@
       <c r="O345" t="inlineStr"/>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="n">
+      <c r="A346" t="n">
         <v>2501534130</v>
       </c>
       <c r="B346" s="2" t="n">
@@ -14455,7 +14455,7 @@
       <c r="O346" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="n">
+      <c r="A347" t="n">
         <v>2500841584</v>
       </c>
       <c r="B347" s="2" t="n">
@@ -14496,7 +14496,7 @@
       <c r="O347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="n">
+      <c r="A348" t="n">
         <v>2490621323</v>
       </c>
       <c r="B348" s="2" t="n">
@@ -14537,7 +14537,7 @@
       <c r="O348" t="inlineStr"/>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="n">
+      <c r="A349" t="n">
         <v>2488256238</v>
       </c>
       <c r="B349" s="2" t="n">
@@ -14570,7 +14570,7 @@
       <c r="O349" t="inlineStr"/>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="n">
+      <c r="A350" t="n">
         <v>2487267709</v>
       </c>
       <c r="B350" s="2" t="n">
@@ -14603,7 +14603,7 @@
       <c r="O350" t="inlineStr"/>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="n">
+      <c r="A351" t="n">
         <v>2477125118</v>
       </c>
       <c r="B351" s="2" t="n">
@@ -14644,7 +14644,7 @@
       <c r="O351" t="inlineStr"/>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="n">
+      <c r="A352" t="n">
         <v>2472017560</v>
       </c>
       <c r="B352" s="2" t="n">
@@ -14685,7 +14685,7 @@
       <c r="O352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="n">
+      <c r="A353" t="n">
         <v>2469369729</v>
       </c>
       <c r="B353" s="2" t="n">
@@ -14726,7 +14726,7 @@
       <c r="O353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="n">
+      <c r="A354" t="n">
         <v>2463186648</v>
       </c>
       <c r="B354" s="2" t="n">
@@ -14767,7 +14767,7 @@
       <c r="O354" t="inlineStr"/>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="n">
+      <c r="A355" t="n">
         <v>2451444067</v>
       </c>
       <c r="B355" s="2" t="n">
@@ -14808,7 +14808,7 @@
       <c r="O355" t="inlineStr"/>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="n">
+      <c r="A356" t="n">
         <v>2445575180</v>
       </c>
       <c r="B356" s="2" t="n">
@@ -14849,7 +14849,7 @@
       <c r="O356" t="inlineStr"/>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="n">
+      <c r="A357" t="n">
         <v>2426905133</v>
       </c>
       <c r="B357" s="2" t="n">
@@ -14890,7 +14890,7 @@
       <c r="O357" t="inlineStr"/>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="n">
+      <c r="A358" t="n">
         <v>2378180436</v>
       </c>
       <c r="B358" s="2" t="n">
@@ -14931,7 +14931,7 @@
       <c r="O358" t="inlineStr"/>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="n">
+      <c r="A359" t="n">
         <v>2370792955</v>
       </c>
       <c r="B359" s="2" t="n">
@@ -14972,7 +14972,7 @@
       <c r="O359" t="inlineStr"/>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="n">
+      <c r="A360" t="n">
         <v>2366840411</v>
       </c>
       <c r="B360" s="2" t="n">
@@ -15013,7 +15013,7 @@
       <c r="O360" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="n">
+      <c r="A361" t="n">
         <v>2362664804</v>
       </c>
       <c r="B361" s="2" t="n">
@@ -15054,7 +15054,7 @@
       <c r="O361" t="inlineStr"/>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="n">
+      <c r="A362" t="n">
         <v>2354752918</v>
       </c>
       <c r="B362" s="2" t="n">
@@ -15095,7 +15095,7 @@
       <c r="O362" t="inlineStr"/>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="n">
+      <c r="A363" t="n">
         <v>2349133829</v>
       </c>
       <c r="B363" s="2" t="n">
@@ -15136,7 +15136,7 @@
       <c r="O363" t="inlineStr"/>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="n">
+      <c r="A364" t="n">
         <v>2342014731</v>
       </c>
       <c r="B364" s="2" t="n">
@@ -15177,7 +15177,7 @@
       <c r="O364" t="inlineStr"/>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="n">
+      <c r="A365" t="n">
         <v>2336418732</v>
       </c>
       <c r="B365" s="2" t="n">
@@ -15218,7 +15218,7 @@
       <c r="O365" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="n">
+      <c r="A366" t="n">
         <v>2333727327</v>
       </c>
       <c r="B366" s="2" t="n">
@@ -15259,7 +15259,7 @@
       <c r="O366" t="inlineStr"/>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="n">
+      <c r="A367" t="n">
         <v>2323995832</v>
       </c>
       <c r="B367" s="2" t="n">
@@ -15292,7 +15292,7 @@
       <c r="O367" t="inlineStr"/>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="n">
+      <c r="A368" t="n">
         <v>2323756414</v>
       </c>
       <c r="B368" s="2" t="n">
@@ -15333,7 +15333,7 @@
       <c r="O368" t="inlineStr"/>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="n">
+      <c r="A369" t="n">
         <v>2323755474</v>
       </c>
       <c r="B369" s="2" t="n">
@@ -15374,7 +15374,7 @@
       <c r="O369" t="inlineStr"/>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="n">
+      <c r="A370" t="n">
         <v>2316007294</v>
       </c>
       <c r="B370" s="2" t="n">
@@ -15415,7 +15415,7 @@
       <c r="O370" t="inlineStr"/>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="n">
+      <c r="A371" t="n">
         <v>2313998830</v>
       </c>
       <c r="B371" s="2" t="n">
@@ -15456,7 +15456,7 @@
       <c r="O371" t="inlineStr"/>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="n">
+      <c r="A372" t="n">
         <v>2299993478</v>
       </c>
       <c r="B372" s="2" t="n">
@@ -15497,7 +15497,7 @@
       <c r="O372" t="inlineStr"/>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="n">
+      <c r="A373" t="n">
         <v>2295316126</v>
       </c>
       <c r="B373" s="2" t="n">
@@ -15538,7 +15538,7 @@
       <c r="O373" t="inlineStr"/>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="n">
+      <c r="A374" t="n">
         <v>2290258870</v>
       </c>
       <c r="B374" s="2" t="n">
@@ -15579,7 +15579,7 @@
       <c r="O374" t="inlineStr"/>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="n">
+      <c r="A375" t="n">
         <v>2287407943</v>
       </c>
       <c r="B375" s="2" t="n">
@@ -15620,7 +15620,7 @@
       <c r="O375" t="inlineStr"/>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="n">
+      <c r="A376" t="n">
         <v>2280151857</v>
       </c>
       <c r="B376" s="2" t="n">
@@ -15661,7 +15661,7 @@
       <c r="O376" t="inlineStr"/>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="n">
+      <c r="A377" t="n">
         <v>2278157162</v>
       </c>
       <c r="B377" s="2" t="n">
@@ -15702,7 +15702,7 @@
       <c r="O377" t="inlineStr"/>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="n">
+      <c r="A378" t="n">
         <v>2273650098</v>
       </c>
       <c r="B378" s="2" t="n">
@@ -15743,7 +15743,7 @@
       <c r="O378" t="inlineStr"/>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="n">
+      <c r="A379" t="n">
         <v>2269821745</v>
       </c>
       <c r="B379" s="2" t="n">
@@ -15784,7 +15784,7 @@
       <c r="O379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="n">
+      <c r="A380" t="n">
         <v>2265120582</v>
       </c>
       <c r="B380" s="2" t="n">
@@ -15825,7 +15825,7 @@
       <c r="O380" t="inlineStr"/>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="n">
+      <c r="A381" t="n">
         <v>2262587344</v>
       </c>
       <c r="B381" s="2" t="n">
@@ -15866,7 +15866,7 @@
       <c r="O381" t="inlineStr"/>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="n">
+      <c r="A382" t="n">
         <v>2260700162</v>
       </c>
       <c r="B382" s="2" t="n">
@@ -15907,7 +15907,7 @@
       <c r="O382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="n">
+      <c r="A383" t="n">
         <v>2244386140</v>
       </c>
       <c r="B383" s="2" t="n">
@@ -15948,7 +15948,7 @@
       <c r="O383" t="inlineStr"/>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="n">
+      <c r="A384" t="n">
         <v>2242951615</v>
       </c>
       <c r="B384" s="2" t="n">
@@ -15989,7 +15989,7 @@
       <c r="O384" t="inlineStr"/>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="n">
+      <c r="A385" t="n">
         <v>2234902228</v>
       </c>
       <c r="B385" s="2" t="n">
@@ -16030,7 +16030,7 @@
       <c r="O385" t="inlineStr"/>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="n">
+      <c r="A386" t="n">
         <v>2230660125</v>
       </c>
       <c r="B386" s="2" t="n">
@@ -16071,7 +16071,7 @@
       <c r="O386" t="inlineStr"/>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="n">
+      <c r="A387" t="n">
         <v>2228164921</v>
       </c>
       <c r="B387" s="2" t="n">
@@ -16112,7 +16112,7 @@
       <c r="O387" t="inlineStr"/>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="n">
+      <c r="A388" t="n">
         <v>2225717889</v>
       </c>
       <c r="B388" s="2" t="n">
@@ -16153,7 +16153,7 @@
       <c r="O388" t="inlineStr"/>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="n">
+      <c r="A389" t="n">
         <v>2218414810</v>
       </c>
       <c r="B389" s="2" t="n">
@@ -16194,7 +16194,7 @@
       <c r="O389" t="inlineStr"/>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="n">
+      <c r="A390" t="n">
         <v>2218281979</v>
       </c>
       <c r="B390" s="2" t="n">
@@ -16235,7 +16235,7 @@
       <c r="O390" t="inlineStr"/>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="n">
+      <c r="A391" t="n">
         <v>2218053328</v>
       </c>
       <c r="B391" s="2" t="n">
@@ -16276,7 +16276,7 @@
       <c r="O391" t="inlineStr"/>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="n">
+      <c r="A392" t="n">
         <v>2217046620</v>
       </c>
       <c r="B392" s="2" t="n">
@@ -16317,7 +16317,7 @@
       <c r="O392" t="inlineStr"/>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="n">
+      <c r="A393" t="n">
         <v>2213903067</v>
       </c>
       <c r="B393" s="2" t="n">
@@ -16358,7 +16358,7 @@
       <c r="O393" t="inlineStr"/>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="n">
+      <c r="A394" t="n">
         <v>2208477255</v>
       </c>
       <c r="B394" s="2" t="n">
@@ -16399,7 +16399,7 @@
       <c r="O394" t="inlineStr"/>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="n">
+      <c r="A395" t="n">
         <v>2204852101</v>
       </c>
       <c r="B395" s="2" t="n">
@@ -16440,7 +16440,7 @@
       <c r="O395" t="inlineStr"/>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="n">
+      <c r="A396" t="n">
         <v>2202369634</v>
       </c>
       <c r="B396" s="2" t="n">
@@ -16481,7 +16481,7 @@
       <c r="O396" t="inlineStr"/>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="n">
+      <c r="A397" t="n">
         <v>2198205421</v>
       </c>
       <c r="B397" s="2" t="n">
@@ -16522,7 +16522,7 @@
       <c r="O397" t="inlineStr"/>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="n">
+      <c r="A398" t="n">
         <v>2195730966</v>
       </c>
       <c r="B398" s="2" t="n">
@@ -16563,7 +16563,7 @@
       <c r="O398" t="inlineStr"/>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="n">
+      <c r="A399" t="n">
         <v>2183698239</v>
       </c>
       <c r="B399" s="2" t="n">
@@ -16596,7 +16596,7 @@
       <c r="O399" t="inlineStr"/>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="n">
+      <c r="A400" t="n">
         <v>2170576624</v>
       </c>
       <c r="B400" s="2" t="n">
@@ -16629,7 +16629,7 @@
       <c r="O400" t="inlineStr"/>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="n">
+      <c r="A401" t="n">
         <v>2157048792</v>
       </c>
       <c r="B401" s="2" t="n">
@@ -16662,7 +16662,7 @@
       <c r="O401" t="inlineStr"/>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="n">
+      <c r="A402" t="n">
         <v>2153742717</v>
       </c>
       <c r="B402" s="2" t="n">
@@ -16695,7 +16695,7 @@
       <c r="O402" t="inlineStr"/>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="n">
+      <c r="A403" t="n">
         <v>2143871858</v>
       </c>
       <c r="B403" s="2" t="n">
@@ -16728,7 +16728,7 @@
       <c r="O403" t="inlineStr"/>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="n">
+      <c r="A404" t="n">
         <v>2135577432</v>
       </c>
       <c r="B404" s="2" t="n">
@@ -16761,7 +16761,7 @@
       <c r="O404" t="inlineStr"/>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="n">
+      <c r="A405" t="n">
         <v>2122931282</v>
       </c>
       <c r="B405" s="2" t="n">
@@ -16802,7 +16802,7 @@
       <c r="O405" t="inlineStr"/>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="n">
+      <c r="A406" t="n">
         <v>2114127633</v>
       </c>
       <c r="B406" s="2" t="n">
@@ -16843,7 +16843,7 @@
       <c r="O406" t="inlineStr"/>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="n">
+      <c r="A407" t="n">
         <v>2110114359</v>
       </c>
       <c r="B407" s="2" t="n">
@@ -16884,7 +16884,7 @@
       <c r="O407" t="inlineStr"/>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="n">
+      <c r="A408" t="n">
         <v>2098782534</v>
       </c>
       <c r="B408" s="2" t="n">
@@ -16925,7 +16925,7 @@
       <c r="O408" t="inlineStr"/>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="n">
+      <c r="A409" t="n">
         <v>2092382326</v>
       </c>
       <c r="B409" s="2" t="n">
@@ -16966,7 +16966,7 @@
       <c r="O409" t="inlineStr"/>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="n">
+      <c r="A410" t="n">
         <v>2090182431</v>
       </c>
       <c r="B410" s="2" t="n">
@@ -17007,7 +17007,7 @@
       <c r="O410" t="inlineStr"/>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="n">
+      <c r="A411" t="n">
         <v>2079352364</v>
       </c>
       <c r="B411" s="2" t="n">
@@ -17048,7 +17048,7 @@
       <c r="O411" t="inlineStr"/>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="n">
+      <c r="A412" t="n">
         <v>2074576338</v>
       </c>
       <c r="B412" s="2" t="n">
@@ -17089,7 +17089,7 @@
       <c r="O412" t="inlineStr"/>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="n">
+      <c r="A413" t="n">
         <v>2064369138</v>
       </c>
       <c r="B413" s="2" t="n">
@@ -17122,7 +17122,7 @@
       <c r="O413" t="inlineStr"/>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="n">
+      <c r="A414" t="n">
         <v>2057789886</v>
       </c>
       <c r="B414" s="2" t="n">
@@ -17155,7 +17155,7 @@
       <c r="O414" t="inlineStr"/>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="n">
+      <c r="A415" t="n">
         <v>2053987561</v>
       </c>
       <c r="B415" s="2" t="n">
@@ -17188,7 +17188,7 @@
       <c r="O415" t="inlineStr"/>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="n">
+      <c r="A416" t="n">
         <v>2053133051</v>
       </c>
       <c r="B416" s="2" t="n">
@@ -17221,7 +17221,7 @@
       <c r="O416" t="inlineStr"/>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="n">
+      <c r="A417" t="n">
         <v>2046838267</v>
       </c>
       <c r="B417" s="2" t="n">
@@ -17254,7 +17254,7 @@
       <c r="O417" t="inlineStr"/>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="n">
+      <c r="A418" t="n">
         <v>1913248482</v>
       </c>
       <c r="B418" s="2" t="n">
@@ -17287,7 +17287,7 @@
       <c r="O418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="n">
+      <c r="A419" t="n">
         <v>1910423066</v>
       </c>
       <c r="B419" s="2" t="n">
@@ -17320,7 +17320,7 @@
       <c r="O419" t="inlineStr"/>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="n">
+      <c r="A420" t="n">
         <v>1877416813</v>
       </c>
       <c r="B420" s="2" t="n">
@@ -17353,7 +17353,7 @@
       <c r="O420" t="inlineStr"/>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="n">
+      <c r="A421" t="n">
         <v>1877416347</v>
       </c>
       <c r="B421" s="2" t="n">
@@ -17386,7 +17386,7 @@
       <c r="O421" t="inlineStr"/>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="n">
+      <c r="A422" t="n">
         <v>1877417386</v>
       </c>
       <c r="B422" s="2" t="n">
@@ -17417,7 +17417,7 @@
       <c r="O422" t="inlineStr"/>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="n">
+      <c r="A423" t="n">
         <v>1877417308</v>
       </c>
       <c r="B423" s="2" t="n">
@@ -17450,7 +17450,7 @@
       <c r="O423" t="inlineStr"/>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="n">
+      <c r="A424" t="n">
         <v>1841542347</v>
       </c>
       <c r="B424" s="2" t="n">
@@ -17483,7 +17483,7 @@
       <c r="O424" t="inlineStr"/>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="n">
+      <c r="A425" t="n">
         <v>1824344438</v>
       </c>
       <c r="B425" s="2" t="n">
@@ -17516,7 +17516,7 @@
       <c r="O425" t="inlineStr"/>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="n">
+      <c r="A426" t="n">
         <v>1824344038</v>
       </c>
       <c r="B426" s="2" t="n">
@@ -17549,7 +17549,7 @@
       <c r="O426" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="n">
+      <c r="A427" t="n">
         <v>1812795382</v>
       </c>
       <c r="B427" s="2" t="n">
@@ -17582,7 +17582,7 @@
       <c r="O427" t="inlineStr"/>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="n">
+      <c r="A428" t="n">
         <v>1804016259</v>
       </c>
       <c r="B428" s="2" t="n">
@@ -17615,7 +17615,7 @@
       <c r="O428" t="inlineStr"/>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="n">
+      <c r="A429" t="n">
         <v>1804015113</v>
       </c>
       <c r="B429" s="2" t="n">
@@ -17648,7 +17648,7 @@
       <c r="O429" t="inlineStr"/>
     </row>
     <row r="430">
-      <c r="A430" s="1" t="n">
+      <c r="A430" t="n">
         <v>1793996211</v>
       </c>
       <c r="B430" s="2" t="n">
@@ -17681,7 +17681,7 @@
       <c r="O430" t="inlineStr"/>
     </row>
     <row r="431">
-      <c r="A431" s="1" t="n">
+      <c r="A431" t="n">
         <v>1793995853</v>
       </c>
       <c r="B431" s="2" t="n">
@@ -17714,7 +17714,7 @@
       <c r="O431" t="inlineStr"/>
     </row>
     <row r="432">
-      <c r="A432" s="1" t="n">
+      <c r="A432" t="n">
         <v>1793995409</v>
       </c>
       <c r="B432" s="2" t="n">
@@ -17747,7 +17747,7 @@
       <c r="O432" t="inlineStr"/>
     </row>
     <row r="433">
-      <c r="A433" s="1" t="n">
+      <c r="A433" t="n">
         <v>1793996312</v>
       </c>
       <c r="B433" s="2" t="n">
@@ -17780,7 +17780,7 @@
       <c r="O433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" s="1" t="n">
+      <c r="A434" t="n">
         <v>1773823675</v>
       </c>
       <c r="B434" s="2" t="n">
@@ -17813,7 +17813,7 @@
       <c r="O434" t="inlineStr"/>
     </row>
     <row r="435">
-      <c r="A435" s="1" t="n">
+      <c r="A435" t="n">
         <v>1773823889</v>
       </c>
       <c r="B435" s="2" t="n">
@@ -17846,7 +17846,7 @@
       <c r="O435" t="inlineStr"/>
     </row>
     <row r="436">
-      <c r="A436" s="1" t="n">
+      <c r="A436" t="n">
         <v>1773823965</v>
       </c>
       <c r="B436" s="2" t="n">
@@ -17879,7 +17879,7 @@
       <c r="O436" t="inlineStr"/>
     </row>
     <row r="437">
-      <c r="A437" s="1" t="n">
+      <c r="A437" t="n">
         <v>1773824565</v>
       </c>
       <c r="B437" s="2" t="n">
@@ -17912,7 +17912,7 @@
       <c r="O437" t="inlineStr"/>
     </row>
     <row r="438">
-      <c r="A438" s="1" t="n">
+      <c r="A438" t="n">
         <v>1773826983</v>
       </c>
       <c r="B438" s="2" t="n">
@@ -17945,7 +17945,7 @@
       <c r="O438" t="inlineStr"/>
     </row>
     <row r="439">
-      <c r="A439" s="1" t="n">
+      <c r="A439" t="n">
         <v>1773827262</v>
       </c>
       <c r="B439" s="2" t="n">
@@ -17978,7 +17978,7 @@
       <c r="O439" t="inlineStr"/>
     </row>
     <row r="440">
-      <c r="A440" s="1" t="n">
+      <c r="A440" t="n">
         <v>1773827767</v>
       </c>
       <c r="B440" s="2" t="n">
@@ -18011,7 +18011,7 @@
       <c r="O440" t="inlineStr"/>
     </row>
     <row r="441">
-      <c r="A441" s="1" t="n">
+      <c r="A441" t="n">
         <v>1773828002</v>
       </c>
       <c r="B441" s="2" t="n">
@@ -18044,7 +18044,7 @@
       <c r="O441" t="inlineStr"/>
     </row>
     <row r="442">
-      <c r="A442" s="1" t="n">
+      <c r="A442" t="n">
         <v>1773828114</v>
       </c>
       <c r="B442" s="2" t="n">
@@ -18077,7 +18077,7 @@
       <c r="O442" t="inlineStr"/>
     </row>
     <row r="443">
-      <c r="A443" s="1" t="n">
+      <c r="A443" t="n">
         <v>1584910877</v>
       </c>
       <c r="B443" s="2" t="n">
@@ -18110,7 +18110,7 @@
       <c r="O443" t="inlineStr"/>
     </row>
     <row r="444">
-      <c r="A444" s="1" t="n">
+      <c r="A444" t="n">
         <v>1576603557</v>
       </c>
       <c r="B444" s="2" t="n">
@@ -18143,7 +18143,7 @@
       <c r="O444" t="inlineStr"/>
     </row>
     <row r="445">
-      <c r="A445" s="1" t="n">
+      <c r="A445" t="n">
         <v>1576604655</v>
       </c>
       <c r="B445" s="2" t="n">
@@ -18176,7 +18176,7 @@
       <c r="O445" t="inlineStr"/>
     </row>
     <row r="446">
-      <c r="A446" s="1" t="n">
+      <c r="A446" t="n">
         <v>1544291775</v>
       </c>
       <c r="B446" s="2" t="n">
@@ -18209,7 +18209,7 @@
       <c r="O446" t="inlineStr"/>
     </row>
     <row r="447">
-      <c r="A447" s="1" t="n">
+      <c r="A447" t="n">
         <v>1544291731</v>
       </c>
       <c r="B447" s="2" t="n">
@@ -18242,7 +18242,7 @@
       <c r="O447" t="inlineStr"/>
     </row>
     <row r="448">
-      <c r="A448" s="1" t="n">
+      <c r="A448" t="n">
         <v>1544292148</v>
       </c>
       <c r="B448" s="2" t="n">
@@ -18275,7 +18275,7 @@
       <c r="O448" t="inlineStr"/>
     </row>
     <row r="449">
-      <c r="A449" s="1" t="n">
+      <c r="A449" t="n">
         <v>1516006844</v>
       </c>
       <c r="B449" s="2" t="n">
@@ -18308,7 +18308,7 @@
       <c r="O449" t="inlineStr"/>
     </row>
     <row r="450">
-      <c r="A450" s="1" t="n">
+      <c r="A450" t="n">
         <v>1516007493</v>
       </c>
       <c r="B450" s="2" t="n">
@@ -18341,7 +18341,7 @@
       <c r="O450" t="inlineStr"/>
     </row>
     <row r="451">
-      <c r="A451" s="1" t="n">
+      <c r="A451" t="n">
         <v>1507892686</v>
       </c>
       <c r="B451" s="2" t="n">
@@ -18374,7 +18374,7 @@
       <c r="O451" t="inlineStr"/>
     </row>
     <row r="452">
-      <c r="A452" s="1" t="n">
+      <c r="A452" t="n">
         <v>1507893099</v>
       </c>
       <c r="B452" s="2" t="n">
@@ -18407,7 +18407,7 @@
       <c r="O452" t="inlineStr"/>
     </row>
     <row r="453">
-      <c r="A453" s="1" t="n">
+      <c r="A453" t="n">
         <v>1507893330</v>
       </c>
       <c r="B453" s="2" t="n">
@@ -18440,7 +18440,7 @@
       <c r="O453" t="inlineStr"/>
     </row>
     <row r="454">
-      <c r="A454" s="1" t="n">
+      <c r="A454" t="n">
         <v>1507894073</v>
       </c>
       <c r="B454" s="2" t="n">
@@ -18473,7 +18473,7 @@
       <c r="O454" t="inlineStr"/>
     </row>
     <row r="455">
-      <c r="A455" s="1" t="n">
+      <c r="A455" t="n">
         <v>1507894182</v>
       </c>
       <c r="B455" s="2" t="n">
@@ -18506,7 +18506,7 @@
       <c r="O455" t="inlineStr"/>
     </row>
     <row r="456">
-      <c r="A456" s="1" t="n">
+      <c r="A456" t="n">
         <v>1507894268</v>
       </c>
       <c r="B456" s="2" t="n">
@@ -18539,7 +18539,7 @@
       <c r="O456" t="inlineStr"/>
     </row>
     <row r="457">
-      <c r="A457" s="1" t="n">
+      <c r="A457" t="n">
         <v>1507894925</v>
       </c>
       <c r="B457" s="2" t="n">
@@ -18572,7 +18572,7 @@
       <c r="O457" t="inlineStr"/>
     </row>
     <row r="458">
-      <c r="A458" s="1" t="n">
+      <c r="A458" t="n">
         <v>1507896874</v>
       </c>
       <c r="B458" s="2" t="n">
@@ -18605,7 +18605,7 @@
       <c r="O458" t="inlineStr"/>
     </row>
     <row r="459">
-      <c r="A459" s="1" t="n">
+      <c r="A459" t="n">
         <v>1453580138</v>
       </c>
       <c r="B459" s="2" t="n">
@@ -18638,7 +18638,7 @@
       <c r="O459" t="inlineStr"/>
     </row>
     <row r="460">
-      <c r="A460" s="1" t="n">
+      <c r="A460" t="n">
         <v>1453581840</v>
       </c>
       <c r="B460" s="2" t="n">
@@ -18671,7 +18671,7 @@
       <c r="O460" t="inlineStr"/>
     </row>
     <row r="461">
-      <c r="A461" s="1" t="n">
+      <c r="A461" t="n">
         <v>1453581576</v>
       </c>
       <c r="B461" s="2" t="n">
@@ -18704,7 +18704,7 @@
       <c r="O461" t="inlineStr"/>
     </row>
     <row r="462">
-      <c r="A462" s="1" t="n">
+      <c r="A462" t="n">
         <v>1437616406</v>
       </c>
       <c r="B462" s="2" t="n">
@@ -18737,7 +18737,7 @@
       <c r="O462" t="inlineStr"/>
     </row>
     <row r="463">
-      <c r="A463" s="1" t="n">
+      <c r="A463" t="n">
         <v>1437615269</v>
       </c>
       <c r="B463" s="2" t="n">
@@ -18770,7 +18770,7 @@
       <c r="O463" t="inlineStr"/>
     </row>
     <row r="464">
-      <c r="A464" s="1" t="n">
+      <c r="A464" t="n">
         <v>1437616460</v>
       </c>
       <c r="B464" s="2" t="n">
@@ -18803,7 +18803,7 @@
       <c r="O464" t="inlineStr"/>
     </row>
     <row r="465">
-      <c r="A465" s="1" t="n">
+      <c r="A465" t="n">
         <v>1437616483</v>
       </c>
       <c r="B465" s="2" t="n">
@@ -18836,7 +18836,7 @@
       <c r="O465" t="inlineStr"/>
     </row>
     <row r="466">
-      <c r="A466" s="1" t="n">
+      <c r="A466" t="n">
         <v>1437616486</v>
       </c>
       <c r="B466" s="2" t="n">
@@ -18869,7 +18869,7 @@
       <c r="O466" t="inlineStr"/>
     </row>
     <row r="467">
-      <c r="A467" s="1" t="n">
+      <c r="A467" t="n">
         <v>1437616590</v>
       </c>
       <c r="B467" s="2" t="n">
@@ -18902,7 +18902,7 @@
       <c r="O467" t="inlineStr"/>
     </row>
     <row r="468">
-      <c r="A468" s="1" t="n">
+      <c r="A468" t="n">
         <v>1437617147</v>
       </c>
       <c r="B468" s="2" t="n">
@@ -18935,7 +18935,7 @@
       <c r="O468" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" s="1" t="n">
+      <c r="A469" t="n">
         <v>1390223473</v>
       </c>
       <c r="B469" s="2" t="n">
@@ -18966,7 +18966,7 @@
       <c r="O469" t="inlineStr"/>
     </row>
     <row r="470">
-      <c r="A470" s="1" t="n">
+      <c r="A470" t="n">
         <v>1437616566</v>
       </c>
       <c r="B470" s="2" t="n">
@@ -18999,7 +18999,7 @@
       <c r="O470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" s="1" t="n">
+      <c r="A471" t="n">
         <v>1275294511</v>
       </c>
       <c r="B471" s="2" t="n">
@@ -19030,7 +19030,7 @@
       <c r="O471" t="inlineStr"/>
     </row>
     <row r="472">
-      <c r="A472" s="1" t="n">
+      <c r="A472" t="n">
         <v>1275294558</v>
       </c>
       <c r="B472" s="2" t="n">
@@ -19061,7 +19061,7 @@
       <c r="O472" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" s="1" t="n">
+      <c r="A473" t="n">
         <v>1275294622</v>
       </c>
       <c r="B473" s="2" t="n">
@@ -19092,7 +19092,7 @@
       <c r="O473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" s="1" t="n">
+      <c r="A474" t="n">
         <v>1274374836</v>
       </c>
       <c r="B474" s="2" t="n">
@@ -19125,7 +19125,7 @@
       <c r="O474" t="inlineStr"/>
     </row>
     <row r="475">
-      <c r="A475" s="1" t="n">
+      <c r="A475" t="n">
         <v>1274374830</v>
       </c>
       <c r="B475" s="2" t="n">
@@ -19158,7 +19158,7 @@
       <c r="O475" t="inlineStr"/>
     </row>
     <row r="476">
-      <c r="A476" s="1" t="n">
+      <c r="A476" t="n">
         <v>1265205024</v>
       </c>
       <c r="B476" s="2" t="n">
@@ -19191,7 +19191,7 @@
       <c r="O476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" s="1" t="n">
+      <c r="A477" t="n">
         <v>1265205157</v>
       </c>
       <c r="B477" s="2" t="n">
@@ -19224,7 +19224,7 @@
       <c r="O477" t="inlineStr"/>
     </row>
     <row r="478">
-      <c r="A478" s="1" t="n">
+      <c r="A478" t="n">
         <v>1265205254</v>
       </c>
       <c r="B478" s="2" t="n">
@@ -19257,7 +19257,7 @@
       <c r="O478" t="inlineStr"/>
     </row>
     <row r="479">
-      <c r="A479" s="1" t="n">
+      <c r="A479" t="n">
         <v>1244972259</v>
       </c>
       <c r="B479" s="2" t="n">
@@ -19290,7 +19290,7 @@
       <c r="O479" t="inlineStr"/>
     </row>
     <row r="480">
-      <c r="A480" s="1" t="n">
+      <c r="A480" t="n">
         <v>1244972362</v>
       </c>
       <c r="B480" s="2" t="n">
@@ -19323,7 +19323,7 @@
       <c r="O480" t="inlineStr"/>
     </row>
     <row r="481">
-      <c r="A481" s="1" t="n">
+      <c r="A481" t="n">
         <v>1244972404</v>
       </c>
       <c r="B481" s="2" t="n">
@@ -19356,7 +19356,7 @@
       <c r="O481" t="inlineStr"/>
     </row>
     <row r="482">
-      <c r="A482" s="1" t="n">
+      <c r="A482" t="n">
         <v>1244972549</v>
       </c>
       <c r="B482" s="2" t="n">
@@ -19389,7 +19389,7 @@
       <c r="O482" t="inlineStr"/>
     </row>
     <row r="483">
-      <c r="A483" s="1" t="n">
+      <c r="A483" t="n">
         <v>1244973460</v>
       </c>
       <c r="B483" s="2" t="n">
@@ -19422,7 +19422,7 @@
       <c r="O483" t="inlineStr"/>
     </row>
     <row r="484">
-      <c r="A484" s="1" t="n">
+      <c r="A484" t="n">
         <v>1234612698</v>
       </c>
       <c r="B484" s="2" t="n">
@@ -19455,7 +19455,7 @@
       <c r="O484" t="inlineStr"/>
     </row>
     <row r="485">
-      <c r="A485" s="1" t="n">
+      <c r="A485" t="n">
         <v>1234613098</v>
       </c>
       <c r="B485" s="2" t="n">
@@ -19488,7 +19488,7 @@
       <c r="O485" t="inlineStr"/>
     </row>
     <row r="486">
-      <c r="A486" s="1" t="n">
+      <c r="A486" t="n">
         <v>1234613148</v>
       </c>
       <c r="B486" s="2" t="n">
@@ -19521,7 +19521,7 @@
       <c r="O486" t="inlineStr"/>
     </row>
     <row r="487">
-      <c r="A487" s="1" t="n">
+      <c r="A487" t="n">
         <v>1234613165</v>
       </c>
       <c r="B487" s="2" t="n">
@@ -19554,7 +19554,7 @@
       <c r="O487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="1" t="n">
+      <c r="A488" t="n">
         <v>1234613398</v>
       </c>
       <c r="B488" s="2" t="n">
@@ -19587,7 +19587,7 @@
       <c r="O488" t="inlineStr"/>
     </row>
     <row r="489">
-      <c r="A489" s="1" t="n">
+      <c r="A489" t="n">
         <v>1234613382</v>
       </c>
       <c r="B489" s="2" t="n">
@@ -19620,7 +19620,7 @@
       <c r="O489" t="inlineStr"/>
     </row>
     <row r="490">
-      <c r="A490" s="1" t="n">
+      <c r="A490" t="n">
         <v>1234613370</v>
       </c>
       <c r="B490" s="2" t="n">
@@ -19653,7 +19653,7 @@
       <c r="O490" t="inlineStr"/>
     </row>
     <row r="491">
-      <c r="A491" s="1" t="n">
+      <c r="A491" t="n">
         <v>1234613406</v>
       </c>
       <c r="B491" s="2" t="n">
@@ -19686,7 +19686,7 @@
       <c r="O491" t="inlineStr"/>
     </row>
     <row r="492">
-      <c r="A492" s="1" t="n">
+      <c r="A492" t="n">
         <v>1234613466</v>
       </c>
       <c r="B492" s="2" t="n">
@@ -19719,7 +19719,7 @@
       <c r="O492" t="inlineStr"/>
     </row>
     <row r="493">
-      <c r="A493" s="1" t="n">
+      <c r="A493" t="n">
         <v>1234613504</v>
       </c>
       <c r="B493" s="2" t="n">
@@ -19752,7 +19752,7 @@
       <c r="O493" t="inlineStr"/>
     </row>
     <row r="494">
-      <c r="A494" s="1" t="n">
+      <c r="A494" t="n">
         <v>1234613952</v>
       </c>
       <c r="B494" s="2" t="n">
@@ -19785,7 +19785,7 @@
       <c r="O494" t="inlineStr"/>
     </row>
     <row r="495">
-      <c r="A495" s="1" t="n">
+      <c r="A495" t="n">
         <v>1234614006</v>
       </c>
       <c r="B495" s="2" t="n">
@@ -19818,7 +19818,7 @@
       <c r="O495" t="inlineStr"/>
     </row>
     <row r="496">
-      <c r="A496" s="1" t="n">
+      <c r="A496" t="n">
         <v>1234614076</v>
       </c>
       <c r="B496" s="2" t="n">
@@ -19851,7 +19851,7 @@
       <c r="O496" t="inlineStr"/>
     </row>
     <row r="497">
-      <c r="A497" s="1" t="n">
+      <c r="A497" t="n">
         <v>1172494292</v>
       </c>
       <c r="B497" s="2" t="n">
@@ -19884,7 +19884,7 @@
       <c r="O497" t="inlineStr"/>
     </row>
     <row r="498">
-      <c r="A498" s="1" t="n">
+      <c r="A498" t="n">
         <v>1172494417</v>
       </c>
       <c r="B498" s="2" t="n">
@@ -19917,7 +19917,7 @@
       <c r="O498" t="inlineStr"/>
     </row>
     <row r="499">
-      <c r="A499" s="1" t="n">
+      <c r="A499" t="n">
         <v>1170897572</v>
       </c>
       <c r="B499" s="2" t="n">
@@ -19950,7 +19950,7 @@
       <c r="O499" t="inlineStr"/>
     </row>
     <row r="500">
-      <c r="A500" s="1" t="n">
+      <c r="A500" t="n">
         <v>1170897777</v>
       </c>
       <c r="B500" s="2" t="n">
@@ -19983,7 +19983,7 @@
       <c r="O500" t="inlineStr"/>
     </row>
     <row r="501">
-      <c r="A501" s="1" t="n">
+      <c r="A501" t="n">
         <v>1170897884</v>
       </c>
       <c r="B501" s="2" t="n">
@@ -20016,7 +20016,7 @@
       <c r="O501" t="inlineStr"/>
     </row>
     <row r="502">
-      <c r="A502" s="1" t="n">
+      <c r="A502" t="n">
         <v>1170898053</v>
       </c>
       <c r="B502" s="2" t="n">
@@ -20049,7 +20049,7 @@
       <c r="O502" t="inlineStr"/>
     </row>
     <row r="503">
-      <c r="A503" s="1" t="n">
+      <c r="A503" t="n">
         <v>1170898499</v>
       </c>
       <c r="B503" s="2" t="n">
@@ -20082,7 +20082,7 @@
       <c r="O503" t="inlineStr"/>
     </row>
     <row r="504">
-      <c r="A504" s="1" t="n">
+      <c r="A504" t="n">
         <v>1124132079</v>
       </c>
       <c r="B504" s="2" t="n">
@@ -20115,7 +20115,7 @@
       <c r="O504" t="inlineStr"/>
     </row>
     <row r="505">
-      <c r="A505" s="1" t="n">
+      <c r="A505" t="n">
         <v>1124132131</v>
       </c>
       <c r="B505" s="2" t="n">
@@ -20148,7 +20148,7 @@
       <c r="O505" t="inlineStr"/>
     </row>
     <row r="506">
-      <c r="A506" s="1" t="n">
+      <c r="A506" t="n">
         <v>1112899825</v>
       </c>
       <c r="B506" s="2" t="n">
@@ -20181,7 +20181,7 @@
       <c r="O506" t="inlineStr"/>
     </row>
     <row r="507">
-      <c r="A507" s="1" t="n">
+      <c r="A507" t="n">
         <v>1112585020</v>
       </c>
       <c r="B507" s="2" t="n">
@@ -20212,7 +20212,7 @@
       <c r="O507" t="inlineStr"/>
     </row>
     <row r="508">
-      <c r="A508" s="1" t="n">
+      <c r="A508" t="n">
         <v>1112585138</v>
       </c>
       <c r="B508" s="2" t="n">
@@ -20245,7 +20245,7 @@
       <c r="O508" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="A509" s="1" t="n">
+      <c r="A509" t="n">
         <v>1112585761</v>
       </c>
       <c r="B509" s="2" t="n">
@@ -20278,7 +20278,7 @@
       <c r="O509" t="inlineStr"/>
     </row>
     <row r="510">
-      <c r="A510" s="1" t="n">
+      <c r="A510" t="n">
         <v>1112585856</v>
       </c>
       <c r="B510" s="2" t="n">
@@ -20311,7 +20311,7 @@
       <c r="O510" t="inlineStr"/>
     </row>
     <row r="511">
-      <c r="A511" s="1" t="n">
+      <c r="A511" t="n">
         <v>1080199405</v>
       </c>
       <c r="B511" s="2" t="n">
@@ -20344,7 +20344,7 @@
       <c r="O511" t="inlineStr"/>
     </row>
     <row r="512">
-      <c r="A512" s="1" t="n">
+      <c r="A512" t="n">
         <v>1080199551</v>
       </c>
       <c r="B512" s="2" t="n">
@@ -20377,7 +20377,7 @@
       <c r="O512" t="inlineStr"/>
     </row>
     <row r="513">
-      <c r="A513" s="1" t="n">
+      <c r="A513" t="n">
         <v>1073828055</v>
       </c>
       <c r="B513" s="2" t="n">
@@ -20410,7 +20410,7 @@
       <c r="O513" t="inlineStr"/>
     </row>
     <row r="514">
-      <c r="A514" s="1" t="n">
+      <c r="A514" t="n">
         <v>1073829019</v>
       </c>
       <c r="B514" s="2" t="n">
@@ -20443,7 +20443,7 @@
       <c r="O514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="1" t="n">
+      <c r="A515" t="n">
         <v>1065023184</v>
       </c>
       <c r="B515" s="2" t="n">
@@ -20476,7 +20476,7 @@
       <c r="O515" t="inlineStr"/>
     </row>
     <row r="516">
-      <c r="A516" s="1" t="n">
+      <c r="A516" t="n">
         <v>1063923479</v>
       </c>
       <c r="B516" s="2" t="n">
@@ -20509,7 +20509,7 @@
       <c r="O516" t="inlineStr"/>
     </row>
     <row r="517">
-      <c r="A517" s="1" t="n">
+      <c r="A517" t="n">
         <v>1063924267</v>
       </c>
       <c r="B517" s="2" t="n">
@@ -20542,7 +20542,7 @@
       <c r="O517" t="inlineStr"/>
     </row>
     <row r="518">
-      <c r="A518" s="1" t="n">
+      <c r="A518" t="n">
         <v>1063924538</v>
       </c>
       <c r="B518" s="2" t="n">
@@ -20575,7 +20575,7 @@
       <c r="O518" t="inlineStr"/>
     </row>
     <row r="519">
-      <c r="A519" s="1" t="n">
+      <c r="A519" t="n">
         <v>1063924849</v>
       </c>
       <c r="B519" s="2" t="n">
@@ -20608,7 +20608,7 @@
       <c r="O519" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" s="1" t="n">
+      <c r="A520" t="n">
         <v>1052634247</v>
       </c>
       <c r="B520" s="2" t="n">
@@ -20641,7 +20641,7 @@
       <c r="O520" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" s="1" t="n">
+      <c r="A521" t="n">
         <v>1052634304</v>
       </c>
       <c r="B521" s="2" t="n">
@@ -20674,7 +20674,7 @@
       <c r="O521" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" s="1" t="n">
+      <c r="A522" t="n">
         <v>1052634320</v>
       </c>
       <c r="B522" s="2" t="n">
@@ -20707,7 +20707,7 @@
       <c r="O522" t="inlineStr"/>
     </row>
     <row r="523">
-      <c r="A523" s="1" t="n">
+      <c r="A523" t="n">
         <v>1052634336</v>
       </c>
       <c r="B523" s="2" t="n">
@@ -20740,7 +20740,7 @@
       <c r="O523" t="inlineStr"/>
     </row>
     <row r="524">
-      <c r="A524" s="1" t="n">
+      <c r="A524" t="n">
         <v>1052634357</v>
       </c>
       <c r="B524" s="2" t="n">
@@ -20773,7 +20773,7 @@
       <c r="O524" t="inlineStr"/>
     </row>
     <row r="525">
-      <c r="A525" s="1" t="n">
+      <c r="A525" t="n">
         <v>1052634368</v>
       </c>
       <c r="B525" s="2" t="n">
@@ -20806,7 +20806,7 @@
       <c r="O525" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" s="1" t="n">
+      <c r="A526" t="n">
         <v>1036110625</v>
       </c>
       <c r="B526" s="2" t="n">
@@ -20839,7 +20839,7 @@
       <c r="O526" t="inlineStr"/>
     </row>
     <row r="527">
-      <c r="A527" s="1" t="n">
+      <c r="A527" t="n">
         <v>1036035904</v>
       </c>
       <c r="B527" s="2" t="n">
@@ -20872,7 +20872,7 @@
       <c r="O527" t="inlineStr"/>
     </row>
     <row r="528">
-      <c r="A528" s="1" t="n">
+      <c r="A528" t="n">
         <v>1036035973</v>
       </c>
       <c r="B528" s="2" t="n">
@@ -20905,7 +20905,7 @@
       <c r="O528" t="inlineStr"/>
     </row>
     <row r="529">
-      <c r="A529" s="1" t="n">
+      <c r="A529" t="n">
         <v>1036036053</v>
       </c>
       <c r="B529" s="2" t="n">
@@ -20938,7 +20938,7 @@
       <c r="O529" t="inlineStr"/>
     </row>
     <row r="530">
-      <c r="A530" s="1" t="n">
+      <c r="A530" t="n">
         <v>987859640</v>
       </c>
       <c r="B530" s="2" t="n">
@@ -20971,7 +20971,7 @@
       <c r="O530" t="inlineStr"/>
     </row>
     <row r="531">
-      <c r="A531" s="1" t="n">
+      <c r="A531" t="n">
         <v>984246121</v>
       </c>
       <c r="B531" s="2" t="n">
@@ -21004,7 +21004,7 @@
       <c r="O531" t="inlineStr"/>
     </row>
     <row r="532">
-      <c r="A532" s="1" t="n">
+      <c r="A532" t="n">
         <v>984246342</v>
       </c>
       <c r="B532" s="2" t="n">
@@ -21037,7 +21037,7 @@
       <c r="O532" t="inlineStr"/>
     </row>
     <row r="533">
-      <c r="A533" s="1" t="n">
+      <c r="A533" t="n">
         <v>984246641</v>
       </c>
       <c r="B533" s="2" t="n">
@@ -21070,7 +21070,7 @@
       <c r="O533" t="inlineStr"/>
     </row>
     <row r="534">
-      <c r="A534" s="1" t="n">
+      <c r="A534" t="n">
         <v>984246648</v>
       </c>
       <c r="B534" s="2" t="n">
@@ -21103,7 +21103,7 @@
       <c r="O534" t="inlineStr"/>
     </row>
     <row r="535">
-      <c r="A535" s="1" t="n">
+      <c r="A535" t="n">
         <v>984246812</v>
       </c>
       <c r="B535" s="2" t="n">
@@ -21136,7 +21136,7 @@
       <c r="O535" t="inlineStr"/>
     </row>
     <row r="536">
-      <c r="A536" s="1" t="n">
+      <c r="A536" t="n">
         <v>984247938</v>
       </c>
       <c r="B536" s="2" t="n">
@@ -21169,7 +21169,7 @@
       <c r="O536" t="inlineStr"/>
     </row>
     <row r="537">
-      <c r="A537" s="1" t="n">
+      <c r="A537" t="n">
         <v>958359093</v>
       </c>
       <c r="B537" s="2" t="n">
@@ -21202,7 +21202,7 @@
       <c r="O537" t="inlineStr"/>
     </row>
     <row r="538">
-      <c r="A538" s="1" t="n">
+      <c r="A538" t="n">
         <v>958359117</v>
       </c>
       <c r="B538" s="2" t="n">
@@ -21235,7 +21235,7 @@
       <c r="O538" t="inlineStr"/>
     </row>
     <row r="539">
-      <c r="A539" s="1" t="n">
+      <c r="A539" t="n">
         <v>946047167</v>
       </c>
       <c r="B539" s="2" t="n">
@@ -21268,7 +21268,7 @@
       <c r="O539" t="inlineStr"/>
     </row>
     <row r="540">
-      <c r="A540" s="1" t="n">
+      <c r="A540" t="n">
         <v>946047219</v>
       </c>
       <c r="B540" s="2" t="n">
@@ -21301,7 +21301,7 @@
       <c r="O540" t="inlineStr"/>
     </row>
     <row r="541">
-      <c r="A541" s="1" t="n">
+      <c r="A541" t="n">
         <v>940911468</v>
       </c>
       <c r="B541" s="2" t="n">
@@ -21334,7 +21334,7 @@
       <c r="O541" t="inlineStr"/>
     </row>
     <row r="542">
-      <c r="A542" s="1" t="n">
+      <c r="A542" t="n">
         <v>940911479</v>
       </c>
       <c r="B542" s="2" t="n">
@@ -21367,7 +21367,7 @@
       <c r="O542" t="inlineStr"/>
     </row>
     <row r="543">
-      <c r="A543" s="1" t="n">
+      <c r="A543" t="n">
         <v>940911490</v>
       </c>
       <c r="B543" s="2" t="n">
@@ -21400,7 +21400,7 @@
       <c r="O543" t="inlineStr"/>
     </row>
     <row r="544">
-      <c r="A544" s="1" t="n">
+      <c r="A544" t="n">
         <v>940911531</v>
       </c>
       <c r="B544" s="2" t="n">
@@ -21433,7 +21433,7 @@
       <c r="O544" t="inlineStr"/>
     </row>
     <row r="545">
-      <c r="A545" s="1" t="n">
+      <c r="A545" t="n">
         <v>940911512</v>
       </c>
       <c r="B545" s="2" t="n">
@@ -21462,7 +21462,7 @@
       <c r="O545" t="inlineStr"/>
     </row>
     <row r="546">
-      <c r="A546" s="1" t="n">
+      <c r="A546" t="n">
         <v>940911584</v>
       </c>
       <c r="B546" s="2" t="n">
@@ -21495,7 +21495,7 @@
       <c r="O546" t="inlineStr"/>
     </row>
     <row r="547">
-      <c r="A547" s="1" t="n">
+      <c r="A547" t="n">
         <v>940911580</v>
       </c>
       <c r="B547" s="2" t="n">
@@ -21526,7 +21526,7 @@
       <c r="O547" t="inlineStr"/>
     </row>
     <row r="548">
-      <c r="A548" s="1" t="n">
+      <c r="A548" t="n">
         <v>940911644</v>
       </c>
       <c r="B548" s="2" t="n">
@@ -21559,7 +21559,7 @@
       <c r="O548" t="inlineStr"/>
     </row>
     <row r="549">
-      <c r="A549" s="1" t="n">
+      <c r="A549" t="n">
         <v>917341332</v>
       </c>
       <c r="B549" s="2" t="n">
@@ -21592,7 +21592,7 @@
       <c r="O549" t="inlineStr"/>
     </row>
     <row r="550">
-      <c r="A550" s="1" t="n">
+      <c r="A550" t="n">
         <v>914203934</v>
       </c>
       <c r="B550" s="2" t="n">
@@ -21625,7 +21625,7 @@
       <c r="O550" t="inlineStr"/>
     </row>
     <row r="551">
-      <c r="A551" s="1" t="n">
+      <c r="A551" t="n">
         <v>914203966</v>
       </c>
       <c r="B551" s="2" t="n">
@@ -21658,7 +21658,7 @@
       <c r="O551" t="inlineStr"/>
     </row>
     <row r="552">
-      <c r="A552" s="1" t="n">
+      <c r="A552" t="n">
         <v>914204012</v>
       </c>
       <c r="B552" s="2" t="n">
@@ -21691,7 +21691,7 @@
       <c r="O552" t="inlineStr"/>
     </row>
     <row r="553">
-      <c r="A553" s="1" t="n">
+      <c r="A553" t="n">
         <v>914204159</v>
       </c>
       <c r="B553" s="2" t="n">
@@ -21724,7 +21724,7 @@
       <c r="O553" t="inlineStr"/>
     </row>
     <row r="554">
-      <c r="A554" s="1" t="n">
+      <c r="A554" t="n">
         <v>883921174</v>
       </c>
       <c r="B554" s="2" t="n">
@@ -21757,7 +21757,7 @@
       <c r="O554" t="inlineStr"/>
     </row>
     <row r="555">
-      <c r="A555" s="1" t="n">
+      <c r="A555" t="n">
         <v>882815361</v>
       </c>
       <c r="B555" s="2" t="n">
@@ -21790,7 +21790,7 @@
       <c r="O555" t="inlineStr"/>
     </row>
     <row r="556">
-      <c r="A556" s="1" t="n">
+      <c r="A556" t="n">
         <v>862878130</v>
       </c>
       <c r="B556" s="2" t="n">
@@ -21823,7 +21823,7 @@
       <c r="O556" t="inlineStr"/>
     </row>
     <row r="557">
-      <c r="A557" s="1" t="n">
+      <c r="A557" t="n">
         <v>856262769</v>
       </c>
       <c r="B557" s="2" t="n">
@@ -21856,7 +21856,7 @@
       <c r="O557" t="inlineStr"/>
     </row>
     <row r="558">
-      <c r="A558" s="1" t="n">
+      <c r="A558" t="n">
         <v>856263229</v>
       </c>
       <c r="B558" s="2" t="n">
@@ -21889,7 +21889,7 @@
       <c r="O558" t="inlineStr"/>
     </row>
     <row r="559">
-      <c r="A559" s="1" t="n">
+      <c r="A559" t="n">
         <v>856263549</v>
       </c>
       <c r="B559" s="2" t="n">
@@ -21922,7 +21922,7 @@
       <c r="O559" t="inlineStr"/>
     </row>
     <row r="560">
-      <c r="A560" s="1" t="n">
+      <c r="A560" t="n">
         <v>856263585</v>
       </c>
       <c r="B560" s="2" t="n">
@@ -21955,7 +21955,7 @@
       <c r="O560" t="inlineStr"/>
     </row>
     <row r="561">
-      <c r="A561" s="1" t="n">
+      <c r="A561" t="n">
         <v>856263742</v>
       </c>
       <c r="B561" s="2" t="n">
@@ -21988,7 +21988,7 @@
       <c r="O561" t="inlineStr"/>
     </row>
     <row r="562">
-      <c r="A562" s="1" t="n">
+      <c r="A562" t="n">
         <v>828638051</v>
       </c>
       <c r="B562" s="2" t="n">
@@ -22021,7 +22021,7 @@
       <c r="O562" t="inlineStr"/>
     </row>
     <row r="563">
-      <c r="A563" s="1" t="n">
+      <c r="A563" t="n">
         <v>828638168</v>
       </c>
       <c r="B563" s="2" t="n">
@@ -22054,7 +22054,7 @@
       <c r="O563" t="inlineStr"/>
     </row>
     <row r="564">
-      <c r="A564" s="1" t="n">
+      <c r="A564" t="n">
         <v>828638175</v>
       </c>
       <c r="B564" s="2" t="n">
@@ -22087,7 +22087,7 @@
       <c r="O564" t="inlineStr"/>
     </row>
     <row r="565">
-      <c r="A565" s="1" t="n">
+      <c r="A565" t="n">
         <v>828638241</v>
       </c>
       <c r="B565" s="2" t="n">
@@ -22120,7 +22120,7 @@
       <c r="O565" t="inlineStr"/>
     </row>
     <row r="566">
-      <c r="A566" s="1" t="n">
+      <c r="A566" t="n">
         <v>782072923</v>
       </c>
       <c r="B566" s="2" t="n">
@@ -22153,7 +22153,7 @@
       <c r="O566" t="inlineStr"/>
     </row>
     <row r="567">
-      <c r="A567" s="1" t="n">
+      <c r="A567" t="n">
         <v>782022328</v>
       </c>
       <c r="B567" s="2" t="n">
@@ -22186,7 +22186,7 @@
       <c r="O567" t="inlineStr"/>
     </row>
     <row r="568">
-      <c r="A568" s="1" t="n">
+      <c r="A568" t="n">
         <v>782022213</v>
       </c>
       <c r="B568" s="2" t="n">
@@ -22217,7 +22217,7 @@
       <c r="O568" t="inlineStr"/>
     </row>
     <row r="569">
-      <c r="A569" s="1" t="n">
+      <c r="A569" t="n">
         <v>782022266</v>
       </c>
       <c r="B569" s="2" t="n">
@@ -22250,7 +22250,7 @@
       <c r="O569" t="inlineStr"/>
     </row>
     <row r="570">
-      <c r="A570" s="1" t="n">
+      <c r="A570" t="n">
         <v>782022305</v>
       </c>
       <c r="B570" s="2" t="n">
@@ -22283,7 +22283,7 @@
       <c r="O570" t="inlineStr"/>
     </row>
     <row r="571">
-      <c r="A571" s="1" t="n">
+      <c r="A571" t="n">
         <v>734091079</v>
       </c>
       <c r="B571" s="2" t="n">
@@ -22316,7 +22316,7 @@
       <c r="O571" t="inlineStr"/>
     </row>
     <row r="572">
-      <c r="A572" s="1" t="n">
+      <c r="A572" t="n">
         <v>734091053</v>
       </c>
       <c r="B572" s="2" t="n">
@@ -22349,7 +22349,7 @@
       <c r="O572" t="inlineStr"/>
     </row>
     <row r="573">
-      <c r="A573" s="1" t="n">
+      <c r="A573" t="n">
         <v>734091094</v>
       </c>
       <c r="B573" s="2" t="n">
@@ -22382,7 +22382,7 @@
       <c r="O573" t="inlineStr"/>
     </row>
     <row r="574">
-      <c r="A574" s="1" t="n">
+      <c r="A574" t="n">
         <v>734091113</v>
       </c>
       <c r="B574" s="2" t="n">
@@ -22415,7 +22415,7 @@
       <c r="O574" t="inlineStr"/>
     </row>
     <row r="575">
-      <c r="A575" s="1" t="n">
+      <c r="A575" t="n">
         <v>734091143</v>
       </c>
       <c r="B575" s="2" t="n">
@@ -22448,7 +22448,7 @@
       <c r="O575" t="inlineStr"/>
     </row>
     <row r="576">
-      <c r="A576" s="1" t="n">
+      <c r="A576" t="n">
         <v>734091139</v>
       </c>
       <c r="B576" s="2" t="n">
@@ -22481,7 +22481,7 @@
       <c r="O576" t="inlineStr"/>
     </row>
     <row r="577">
-      <c r="A577" s="1" t="n">
+      <c r="A577" t="n">
         <v>716487927</v>
       </c>
       <c r="B577" s="2" t="n">
@@ -22514,7 +22514,7 @@
       <c r="O577" t="inlineStr"/>
     </row>
     <row r="578">
-      <c r="A578" s="1" t="n">
+      <c r="A578" t="n">
         <v>705920496</v>
       </c>
       <c r="B578" s="2" t="n">
@@ -22547,7 +22547,7 @@
       <c r="O578" t="inlineStr"/>
     </row>
     <row r="579">
-      <c r="A579" s="1" t="n">
+      <c r="A579" t="n">
         <v>705400002</v>
       </c>
       <c r="B579" s="2" t="n">
@@ -22580,7 +22580,7 @@
       <c r="O579" t="inlineStr"/>
     </row>
     <row r="580">
-      <c r="A580" s="1" t="n">
+      <c r="A580" t="n">
         <v>705400176</v>
       </c>
       <c r="B580" s="2" t="n">
@@ -22613,7 +22613,7 @@
       <c r="O580" t="inlineStr"/>
     </row>
     <row r="581">
-      <c r="A581" s="1" t="n">
+      <c r="A581" t="n">
         <v>705400149</v>
       </c>
       <c r="B581" s="2" t="n">
@@ -22646,7 +22646,7 @@
       <c r="O581" t="inlineStr"/>
     </row>
     <row r="582">
-      <c r="A582" s="1" t="n">
+      <c r="A582" t="n">
         <v>664742337</v>
       </c>
       <c r="B582" s="2" t="n">
@@ -22679,7 +22679,7 @@
       <c r="O582" t="inlineStr"/>
     </row>
     <row r="583">
-      <c r="A583" s="1" t="n">
+      <c r="A583" t="n">
         <v>664742326</v>
       </c>
       <c r="B583" s="2" t="n">
@@ -22712,7 +22712,7 @@
       <c r="O583" t="inlineStr"/>
     </row>
     <row r="584">
-      <c r="A584" s="1" t="n">
+      <c r="A584" t="n">
         <v>648535071</v>
       </c>
       <c r="B584" s="2" t="n">
@@ -22745,7 +22745,7 @@
       <c r="O584" t="inlineStr"/>
     </row>
     <row r="585">
-      <c r="A585" s="1" t="n">
+      <c r="A585" t="n">
         <v>648535057</v>
       </c>
       <c r="B585" s="2" t="n">
@@ -22778,7 +22778,7 @@
       <c r="O585" t="inlineStr"/>
     </row>
     <row r="586">
-      <c r="A586" s="1" t="n">
+      <c r="A586" t="n">
         <v>648535150</v>
       </c>
       <c r="B586" s="2" t="n">
@@ -22811,7 +22811,7 @@
       <c r="O586" t="inlineStr"/>
     </row>
     <row r="587">
-      <c r="A587" s="1" t="n">
+      <c r="A587" t="n">
         <v>646246212</v>
       </c>
       <c r="B587" s="2" t="n">
@@ -22844,7 +22844,7 @@
       <c r="O587" t="inlineStr"/>
     </row>
     <row r="588">
-      <c r="A588" s="1" t="n">
+      <c r="A588" t="n">
         <v>646246213</v>
       </c>
       <c r="B588" s="2" t="n">
@@ -22877,7 +22877,7 @@
       <c r="O588" t="inlineStr"/>
     </row>
     <row r="589">
-      <c r="A589" s="1" t="n">
+      <c r="A589" t="n">
         <v>623613391</v>
       </c>
       <c r="B589" s="2" t="n">
@@ -22910,7 +22910,7 @@
       <c r="O589" t="inlineStr"/>
     </row>
     <row r="590">
-      <c r="A590" s="1" t="n">
+      <c r="A590" t="n">
         <v>619240714</v>
       </c>
       <c r="B590" s="2" t="n">
@@ -22943,7 +22943,7 @@
       <c r="O590" t="inlineStr"/>
     </row>
     <row r="591">
-      <c r="A591" s="1" t="n">
+      <c r="A591" t="n">
         <v>619240698</v>
       </c>
       <c r="B591" s="2" t="n">
@@ -22976,7 +22976,7 @@
       <c r="O591" t="inlineStr"/>
     </row>
     <row r="592">
-      <c r="A592" s="1" t="n">
+      <c r="A592" t="n">
         <v>619240746</v>
       </c>
       <c r="B592" s="2" t="n">
@@ -23009,7 +23009,7 @@
       <c r="O592" t="inlineStr"/>
     </row>
     <row r="593">
-      <c r="A593" s="1" t="n">
+      <c r="A593" t="n">
         <v>608022318</v>
       </c>
       <c r="B593" s="2" t="n">
@@ -23042,7 +23042,7 @@
       <c r="O593" t="inlineStr"/>
     </row>
     <row r="594">
-      <c r="A594" s="1" t="n">
+      <c r="A594" t="n">
         <v>606996540</v>
       </c>
       <c r="B594" s="2" t="n">
@@ -23075,7 +23075,7 @@
       <c r="O594" t="inlineStr"/>
     </row>
     <row r="595">
-      <c r="A595" s="1" t="n">
+      <c r="A595" t="n">
         <v>606996530</v>
       </c>
       <c r="B595" s="2" t="n">
@@ -23108,7 +23108,7 @@
       <c r="O595" t="inlineStr"/>
     </row>
     <row r="596">
-      <c r="A596" s="1" t="n">
+      <c r="A596" t="n">
         <v>606996535</v>
       </c>
       <c r="B596" s="2" t="n">
@@ -23141,7 +23141,7 @@
       <c r="O596" t="inlineStr"/>
     </row>
     <row r="597">
-      <c r="A597" s="1" t="n">
+      <c r="A597" t="n">
         <v>606996501</v>
       </c>
       <c r="B597" s="2" t="n">
@@ -23174,7 +23174,7 @@
       <c r="O597" t="inlineStr"/>
     </row>
     <row r="598">
-      <c r="A598" s="1" t="n">
+      <c r="A598" t="n">
         <v>581024516</v>
       </c>
       <c r="B598" s="2" t="n">
@@ -23207,7 +23207,7 @@
       <c r="O598" t="inlineStr"/>
     </row>
     <row r="599">
-      <c r="A599" s="1" t="n">
+      <c r="A599" t="n">
         <v>2192076479</v>
       </c>
       <c r="B599" s="2" t="n">
@@ -23240,7 +23240,7 @@
       <c r="O599" t="inlineStr"/>
     </row>
     <row r="600">
-      <c r="A600" s="1" t="n">
+      <c r="A600" t="n">
         <v>573854225</v>
       </c>
       <c r="B600" s="2" t="n">
@@ -23273,7 +23273,7 @@
       <c r="O600" t="inlineStr"/>
     </row>
     <row r="601">
-      <c r="A601" s="1" t="n">
+      <c r="A601" t="n">
         <v>571009280</v>
       </c>
       <c r="B601" s="2" t="n">
@@ -23306,7 +23306,7 @@
       <c r="O601" t="inlineStr"/>
     </row>
     <row r="602">
-      <c r="A602" s="1" t="n">
+      <c r="A602" t="n">
         <v>571009955</v>
       </c>
       <c r="B602" s="2" t="n">
@@ -23335,7 +23335,7 @@
       <c r="O602" t="inlineStr"/>
     </row>
     <row r="603">
-      <c r="A603" s="1" t="n">
+      <c r="A603" t="n">
         <v>571009964</v>
       </c>
       <c r="B603" s="2" t="n">
@@ -23364,7 +23364,7 @@
       <c r="O603" t="inlineStr"/>
     </row>
     <row r="604">
-      <c r="A604" s="1" t="n">
+      <c r="A604" t="n">
         <v>564069011</v>
       </c>
       <c r="B604" s="2" t="n">
@@ -23393,7 +23393,7 @@
       <c r="O604" t="inlineStr"/>
     </row>
     <row r="605">
-      <c r="A605" s="1" t="n">
+      <c r="A605" t="n">
         <v>564069014</v>
       </c>
       <c r="B605" s="2" t="n">
@@ -23422,7 +23422,7 @@
       <c r="O605" t="inlineStr"/>
     </row>
     <row r="606">
-      <c r="A606" s="1" t="n">
+      <c r="A606" t="n">
         <v>558297307</v>
       </c>
       <c r="B606" s="2" t="n">
@@ -23451,7 +23451,7 @@
       <c r="O606" t="inlineStr"/>
     </row>
     <row r="607">
-      <c r="A607" s="1" t="n">
+      <c r="A607" t="n">
         <v>555274740</v>
       </c>
       <c r="B607" s="2" t="n">
@@ -23484,7 +23484,7 @@
       <c r="O607" t="inlineStr"/>
     </row>
     <row r="608">
-      <c r="A608" s="1" t="n">
+      <c r="A608" t="n">
         <v>553656855</v>
       </c>
       <c r="B608" s="2" t="n">
@@ -23517,7 +23517,7 @@
       <c r="O608" t="inlineStr"/>
     </row>
     <row r="609">
-      <c r="A609" s="1" t="n">
+      <c r="A609" t="n">
         <v>553656835</v>
       </c>
       <c r="B609" s="2" t="n">
@@ -23550,7 +23550,7 @@
       <c r="O609" t="inlineStr"/>
     </row>
     <row r="610">
-      <c r="A610" s="1" t="n">
+      <c r="A610" t="n">
         <v>553656845</v>
       </c>
       <c r="B610" s="2" t="n">
@@ -23583,7 +23583,7 @@
       <c r="O610" t="inlineStr"/>
     </row>
     <row r="611">
-      <c r="A611" s="1" t="n">
+      <c r="A611" t="n">
         <v>551747302</v>
       </c>
       <c r="B611" s="2" t="n">
@@ -23616,7 +23616,7 @@
       <c r="O611" t="inlineStr"/>
     </row>
     <row r="612">
-      <c r="A612" s="1" t="n">
+      <c r="A612" t="n">
         <v>551747288</v>
       </c>
       <c r="B612" s="2" t="n">
@@ -23649,7 +23649,7 @@
       <c r="O612" t="inlineStr"/>
     </row>
     <row r="613">
-      <c r="A613" s="1" t="n">
+      <c r="A613" t="n">
         <v>551747344</v>
       </c>
       <c r="B613" s="2" t="n">
@@ -23682,7 +23682,7 @@
       <c r="O613" t="inlineStr"/>
     </row>
     <row r="614">
-      <c r="A614" s="1" t="n">
+      <c r="A614" t="n">
         <v>551747304</v>
       </c>
       <c r="B614" s="2" t="n">
@@ -23715,7 +23715,7 @@
       <c r="O614" t="inlineStr"/>
     </row>
     <row r="615">
-      <c r="A615" s="1" t="n">
+      <c r="A615" t="n">
         <v>543569546</v>
       </c>
       <c r="B615" s="2" t="n">
@@ -23748,7 +23748,7 @@
       <c r="O615" t="inlineStr"/>
     </row>
     <row r="616">
-      <c r="A616" s="1" t="n">
+      <c r="A616" t="n">
         <v>543569550</v>
       </c>
       <c r="B616" s="2" t="n">
@@ -23781,7 +23781,7 @@
       <c r="O616" t="inlineStr"/>
     </row>
     <row r="617">
-      <c r="A617" s="1" t="n">
+      <c r="A617" t="n">
         <v>541630510</v>
       </c>
       <c r="B617" s="2" t="n">
@@ -23814,7 +23814,7 @@
       <c r="O617" t="inlineStr"/>
     </row>
     <row r="618">
-      <c r="A618" s="1" t="n">
+      <c r="A618" t="n">
         <v>533371536</v>
       </c>
       <c r="B618" s="2" t="n">
@@ -23847,7 +23847,7 @@
       <c r="O618" t="inlineStr"/>
     </row>
     <row r="619">
-      <c r="A619" s="1" t="n">
+      <c r="A619" t="n">
         <v>532991506</v>
       </c>
       <c r="B619" s="2" t="n">
@@ -23880,7 +23880,7 @@
       <c r="O619" t="inlineStr"/>
     </row>
     <row r="620">
-      <c r="A620" s="1" t="n">
+      <c r="A620" t="n">
         <v>533371420</v>
       </c>
       <c r="B620" s="2" t="n">
@@ -23913,7 +23913,7 @@
       <c r="O620" t="inlineStr"/>
     </row>
     <row r="621">
-      <c r="A621" s="1" t="n">
+      <c r="A621" t="n">
         <v>522896248</v>
       </c>
       <c r="B621" s="2" t="n">
@@ -23946,7 +23946,7 @@
       <c r="O621" t="inlineStr"/>
     </row>
     <row r="622">
-      <c r="A622" s="1" t="n">
+      <c r="A622" t="n">
         <v>522896854</v>
       </c>
       <c r="B622" s="2" t="n">
@@ -23979,7 +23979,7 @@
       <c r="O622" t="inlineStr"/>
     </row>
     <row r="623">
-      <c r="A623" s="1" t="n">
+      <c r="A623" t="n">
         <v>522896846</v>
       </c>
       <c r="B623" s="2" t="n">
@@ -24012,7 +24012,7 @@
       <c r="O623" t="inlineStr"/>
     </row>
     <row r="624">
-      <c r="A624" s="1" t="n">
+      <c r="A624" t="n">
         <v>494424409</v>
       </c>
       <c r="B624" s="2" t="n">
@@ -24045,7 +24045,7 @@
       <c r="O624" t="inlineStr"/>
     </row>
     <row r="625">
-      <c r="A625" s="1" t="n">
+      <c r="A625" t="n">
         <v>490335828</v>
       </c>
       <c r="B625" s="2" t="n">
@@ -24078,7 +24078,7 @@
       <c r="O625" t="inlineStr"/>
     </row>
     <row r="626">
-      <c r="A626" s="1" t="n">
+      <c r="A626" t="n">
         <v>485135409</v>
       </c>
       <c r="B626" s="2" t="n">
@@ -24111,7 +24111,7 @@
       <c r="O626" t="inlineStr"/>
     </row>
     <row r="627">
-      <c r="A627" s="1" t="n">
+      <c r="A627" t="n">
         <v>470996956</v>
       </c>
       <c r="B627" s="2" t="n">
@@ -24144,7 +24144,7 @@
       <c r="O627" t="inlineStr"/>
     </row>
     <row r="628">
-      <c r="A628" s="1" t="n">
+      <c r="A628" t="n">
         <v>469566331</v>
       </c>
       <c r="B628" s="2" t="n">
@@ -24177,7 +24177,7 @@
       <c r="O628" t="inlineStr"/>
     </row>
     <row r="629">
-      <c r="A629" s="1" t="n">
+      <c r="A629" t="n">
         <v>469566296</v>
       </c>
       <c r="B629" s="2" t="n">
@@ -24210,7 +24210,7 @@
       <c r="O629" t="inlineStr"/>
     </row>
     <row r="630">
-      <c r="A630" s="1" t="n">
+      <c r="A630" t="n">
         <v>465111469</v>
       </c>
       <c r="B630" s="2" t="n">
@@ -24243,7 +24243,7 @@
       <c r="O630" t="inlineStr"/>
     </row>
     <row r="631">
-      <c r="A631" s="1" t="n">
+      <c r="A631" t="n">
         <v>461515230</v>
       </c>
       <c r="B631" s="2" t="n">
@@ -24276,7 +24276,7 @@
       <c r="O631" t="inlineStr"/>
     </row>
     <row r="632">
-      <c r="A632" s="1" t="n">
+      <c r="A632" t="n">
         <v>459514482</v>
       </c>
       <c r="B632" s="2" t="n">
@@ -24309,7 +24309,7 @@
       <c r="O632" t="inlineStr"/>
     </row>
     <row r="633">
-      <c r="A633" s="1" t="n">
+      <c r="A633" t="n">
         <v>459514412</v>
       </c>
       <c r="B633" s="2" t="n">
@@ -24340,7 +24340,7 @@
       <c r="O633" t="inlineStr"/>
     </row>
     <row r="634">
-      <c r="A634" s="1" t="n">
+      <c r="A634" t="n">
         <v>452270735</v>
       </c>
       <c r="B634" s="2" t="n">
@@ -24373,7 +24373,7 @@
       <c r="O634" t="inlineStr"/>
     </row>
     <row r="635">
-      <c r="A635" s="1" t="n">
+      <c r="A635" t="n">
         <v>447798685</v>
       </c>
       <c r="B635" s="2" t="n">
@@ -24406,7 +24406,7 @@
       <c r="O635" t="inlineStr"/>
     </row>
     <row r="636">
-      <c r="A636" s="1" t="n">
+      <c r="A636" t="n">
         <v>446656967</v>
       </c>
       <c r="B636" s="2" t="n">
@@ -24439,7 +24439,7 @@
       <c r="O636" t="inlineStr"/>
     </row>
     <row r="637">
-      <c r="A637" s="1" t="n">
+      <c r="A637" t="n">
         <v>438813397</v>
       </c>
       <c r="B637" s="2" t="n">
@@ -24472,7 +24472,7 @@
       <c r="O637" t="inlineStr"/>
     </row>
     <row r="638">
-      <c r="A638" s="1" t="n">
+      <c r="A638" t="n">
         <v>438085720</v>
       </c>
       <c r="B638" s="2" t="n">
@@ -24505,7 +24505,7 @@
       <c r="O638" t="inlineStr"/>
     </row>
     <row r="639">
-      <c r="A639" s="1" t="n">
+      <c r="A639" t="n">
         <v>425823696</v>
       </c>
       <c r="B639" s="2" t="n">
@@ -24538,7 +24538,7 @@
       <c r="O639" t="inlineStr"/>
     </row>
     <row r="640">
-      <c r="A640" s="1" t="n">
+      <c r="A640" t="n">
         <v>425823797</v>
       </c>
       <c r="B640" s="2" t="n">
@@ -24571,7 +24571,7 @@
       <c r="O640" t="inlineStr"/>
     </row>
     <row r="641">
-      <c r="A641" s="1" t="n">
+      <c r="A641" t="n">
         <v>422241606</v>
       </c>
       <c r="B641" s="2" t="n">
@@ -24604,7 +24604,7 @@
       <c r="O641" t="inlineStr"/>
     </row>
     <row r="642">
-      <c r="A642" s="1" t="n">
+      <c r="A642" t="n">
         <v>421020204</v>
       </c>
       <c r="B642" s="2" t="n">
@@ -24637,7 +24637,7 @@
       <c r="O642" t="inlineStr"/>
     </row>
     <row r="643">
-      <c r="A643" s="1" t="n">
+      <c r="A643" t="n">
         <v>417472857</v>
       </c>
       <c r="B643" s="2" t="n">
@@ -24670,7 +24670,7 @@
       <c r="O643" t="inlineStr"/>
     </row>
     <row r="644">
-      <c r="A644" s="1" t="n">
+      <c r="A644" t="n">
         <v>414925493</v>
       </c>
       <c r="B644" s="2" t="n">
@@ -24703,7 +24703,7 @@
       <c r="O644" t="inlineStr"/>
     </row>
     <row r="645">
-      <c r="A645" s="1" t="n">
+      <c r="A645" t="n">
         <v>414925606</v>
       </c>
       <c r="B645" s="2" t="n">
@@ -24736,7 +24736,7 @@
       <c r="O645" t="inlineStr"/>
     </row>
     <row r="646">
-      <c r="A646" s="1" t="n">
+      <c r="A646" t="n">
         <v>406094553</v>
       </c>
       <c r="B646" s="2" t="n">
@@ -24769,7 +24769,7 @@
       <c r="O646" t="inlineStr"/>
     </row>
     <row r="647">
-      <c r="A647" s="1" t="n">
+      <c r="A647" t="n">
         <v>414925518</v>
       </c>
       <c r="B647" s="2" t="n">
@@ -24802,7 +24802,7 @@
       <c r="O647" t="inlineStr"/>
     </row>
     <row r="648">
-      <c r="A648" s="1" t="n">
+      <c r="A648" t="n">
         <v>400912446</v>
       </c>
       <c r="B648" s="2" t="n">
@@ -24835,7 +24835,7 @@
       <c r="O648" t="inlineStr"/>
     </row>
     <row r="649">
-      <c r="A649" s="1" t="n">
+      <c r="A649" t="n">
         <v>400912443</v>
       </c>
       <c r="B649" s="2" t="n">
@@ -24868,7 +24868,7 @@
       <c r="O649" t="inlineStr"/>
     </row>
     <row r="650">
-      <c r="A650" s="1" t="n">
+      <c r="A650" t="n">
         <v>400912438</v>
       </c>
       <c r="B650" s="2" t="n">
@@ -24901,7 +24901,7 @@
       <c r="O650" t="inlineStr"/>
     </row>
     <row r="651">
-      <c r="A651" s="1" t="n">
+      <c r="A651" t="n">
         <v>397826955</v>
       </c>
       <c r="B651" s="2" t="n">
@@ -24934,7 +24934,7 @@
       <c r="O651" t="inlineStr"/>
     </row>
     <row r="652">
-      <c r="A652" s="1" t="n">
+      <c r="A652" t="n">
         <v>395583117</v>
       </c>
       <c r="B652" s="2" t="n">
@@ -24967,7 +24967,7 @@
       <c r="O652" t="inlineStr"/>
     </row>
     <row r="653">
-      <c r="A653" s="1" t="n">
+      <c r="A653" t="n">
         <v>395018984</v>
       </c>
       <c r="B653" s="2" t="n">
@@ -25000,7 +25000,7 @@
       <c r="O653" t="inlineStr"/>
     </row>
     <row r="654">
-      <c r="A654" s="1" t="n">
+      <c r="A654" t="n">
         <v>395018986</v>
       </c>
       <c r="B654" s="2" t="n">
@@ -25033,7 +25033,7 @@
       <c r="O654" t="inlineStr"/>
     </row>
     <row r="655">
-      <c r="A655" s="1" t="n">
+      <c r="A655" t="n">
         <v>392773346</v>
       </c>
       <c r="B655" s="2" t="n">
@@ -25066,7 +25066,7 @@
       <c r="O655" t="inlineStr"/>
     </row>
     <row r="656">
-      <c r="A656" s="1" t="n">
+      <c r="A656" t="n">
         <v>390831347</v>
       </c>
       <c r="B656" s="2" t="n">
@@ -25099,7 +25099,7 @@
       <c r="O656" t="inlineStr"/>
     </row>
     <row r="657">
-      <c r="A657" s="1" t="n">
+      <c r="A657" t="n">
         <v>388484695</v>
       </c>
       <c r="B657" s="2" t="n">
@@ -25132,7 +25132,7 @@
       <c r="O657" t="inlineStr"/>
     </row>
     <row r="658">
-      <c r="A658" s="1" t="n">
+      <c r="A658" t="n">
         <v>388425667</v>
       </c>
       <c r="B658" s="2" t="n">
@@ -25165,7 +25165,7 @@
       <c r="O658" t="inlineStr"/>
     </row>
     <row r="659">
-      <c r="A659" s="1" t="n">
+      <c r="A659" t="n">
         <v>388425632</v>
       </c>
       <c r="B659" s="2" t="n">
@@ -25198,7 +25198,7 @@
       <c r="O659" t="inlineStr"/>
     </row>
     <row r="660">
-      <c r="A660" s="1" t="n">
+      <c r="A660" t="n">
         <v>381787671</v>
       </c>
       <c r="B660" s="2" t="n">
@@ -25231,7 +25231,7 @@
       <c r="O660" t="inlineStr"/>
     </row>
     <row r="661">
-      <c r="A661" s="1" t="n">
+      <c r="A661" t="n">
         <v>381787490</v>
       </c>
       <c r="B661" s="2" t="n">
@@ -25262,7 +25262,7 @@
       <c r="O661" t="inlineStr"/>
     </row>
     <row r="662">
-      <c r="A662" s="1" t="n">
+      <c r="A662" t="n">
         <v>378062396</v>
       </c>
       <c r="B662" s="2" t="n">
@@ -25295,7 +25295,7 @@
       <c r="O662" t="inlineStr"/>
     </row>
     <row r="663">
-      <c r="A663" s="1" t="n">
+      <c r="A663" t="n">
         <v>375212254</v>
       </c>
       <c r="B663" s="2" t="n">
@@ -25328,7 +25328,7 @@
       <c r="O663" t="inlineStr"/>
     </row>
     <row r="664">
-      <c r="A664" s="1" t="n">
+      <c r="A664" t="n">
         <v>374505972</v>
       </c>
       <c r="B664" s="2" t="n">
@@ -25361,7 +25361,7 @@
       <c r="O664" t="inlineStr"/>
     </row>
     <row r="665">
-      <c r="A665" s="1" t="n">
+      <c r="A665" t="n">
         <v>370999471</v>
       </c>
       <c r="B665" s="2" t="n">
@@ -25394,7 +25394,7 @@
       <c r="O665" t="inlineStr"/>
     </row>
     <row r="666">
-      <c r="A666" s="1" t="n">
+      <c r="A666" t="n">
         <v>366201703</v>
       </c>
       <c r="B666" s="2" t="n">
@@ -25427,7 +25427,7 @@
       <c r="O666" t="inlineStr"/>
     </row>
     <row r="667">
-      <c r="A667" s="1" t="n">
+      <c r="A667" t="n">
         <v>366201659</v>
       </c>
       <c r="B667" s="2" t="n">
@@ -25460,7 +25460,7 @@
       <c r="O667" t="inlineStr"/>
     </row>
     <row r="668">
-      <c r="A668" s="1" t="n">
+      <c r="A668" t="n">
         <v>365065850</v>
       </c>
       <c r="B668" s="2" t="n">
@@ -25493,7 +25493,7 @@
       <c r="O668" t="inlineStr"/>
     </row>
     <row r="669">
-      <c r="A669" s="1" t="n">
+      <c r="A669" t="n">
         <v>365065825</v>
       </c>
       <c r="B669" s="2" t="n">
@@ -25526,7 +25526,7 @@
       <c r="O669" t="inlineStr"/>
     </row>
     <row r="670">
-      <c r="A670" s="1" t="n">
+      <c r="A670" t="n">
         <v>361338633</v>
       </c>
       <c r="B670" s="2" t="n">
@@ -25559,7 +25559,7 @@
       <c r="O670" t="inlineStr"/>
     </row>
     <row r="671">
-      <c r="A671" s="1" t="n">
+      <c r="A671" t="n">
         <v>361338649</v>
       </c>
       <c r="B671" s="2" t="n">
@@ -25592,7 +25592,7 @@
       <c r="O671" t="inlineStr"/>
     </row>
     <row r="672">
-      <c r="A672" s="1" t="n">
+      <c r="A672" t="n">
         <v>361338613</v>
       </c>
       <c r="B672" s="2" t="n">
@@ -25623,7 +25623,7 @@
       <c r="O672" t="inlineStr"/>
     </row>
     <row r="673">
-      <c r="A673" s="1" t="n">
+      <c r="A673" t="n">
         <v>361338622</v>
       </c>
       <c r="B673" s="2" t="n">
@@ -25654,7 +25654,7 @@
       <c r="O673" t="inlineStr"/>
     </row>
     <row r="674">
-      <c r="A674" s="1" t="n">
+      <c r="A674" t="n">
         <v>361338737</v>
       </c>
       <c r="B674" s="2" t="n">
@@ -25687,7 +25687,7 @@
       <c r="O674" t="inlineStr"/>
     </row>
     <row r="675">
-      <c r="A675" s="1" t="n">
+      <c r="A675" t="n">
         <v>361338662</v>
       </c>
       <c r="B675" s="2" t="n">
@@ -25720,7 +25720,7 @@
       <c r="O675" t="inlineStr"/>
     </row>
     <row r="676">
-      <c r="A676" s="1" t="n">
+      <c r="A676" t="n">
         <v>351799426</v>
       </c>
       <c r="B676" s="2" t="n">
@@ -25753,7 +25753,7 @@
       <c r="O676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" s="1" t="n">
+      <c r="A677" t="n">
         <v>351197319</v>
       </c>
       <c r="B677" s="2" t="n">
@@ -25786,7 +25786,7 @@
       <c r="O677" t="inlineStr"/>
     </row>
     <row r="678">
-      <c r="A678" s="1" t="n">
+      <c r="A678" t="n">
         <v>350115931</v>
       </c>
       <c r="B678" s="2" t="n">
@@ -25815,7 +25815,7 @@
       <c r="O678" t="inlineStr"/>
     </row>
     <row r="679">
-      <c r="A679" s="1" t="n">
+      <c r="A679" t="n">
         <v>348686762</v>
       </c>
       <c r="B679" s="2" t="n">
@@ -25848,7 +25848,7 @@
       <c r="O679" t="inlineStr"/>
     </row>
     <row r="680">
-      <c r="A680" s="1" t="n">
+      <c r="A680" t="n">
         <v>347642430</v>
       </c>
       <c r="B680" s="2" t="n">
@@ -25881,7 +25881,7 @@
       <c r="O680" t="inlineStr"/>
     </row>
     <row r="681">
-      <c r="A681" s="1" t="n">
+      <c r="A681" t="n">
         <v>346682379</v>
       </c>
       <c r="B681" s="2" t="n">
@@ -25914,7 +25914,7 @@
       <c r="O681" t="inlineStr"/>
     </row>
     <row r="682">
-      <c r="A682" s="1" t="n">
+      <c r="A682" t="n">
         <v>345987767</v>
       </c>
       <c r="B682" s="2" t="n">
@@ -25947,7 +25947,7 @@
       <c r="O682" t="inlineStr"/>
     </row>
     <row r="683">
-      <c r="A683" s="1" t="n">
+      <c r="A683" t="n">
         <v>345130978</v>
       </c>
       <c r="B683" s="2" t="n">
@@ -25980,7 +25980,7 @@
       <c r="O683" t="inlineStr"/>
     </row>
     <row r="684">
-      <c r="A684" s="1" t="n">
+      <c r="A684" t="n">
         <v>344632837</v>
       </c>
       <c r="B684" s="2" t="n">
@@ -26013,7 +26013,7 @@
       <c r="O684" t="inlineStr"/>
     </row>
     <row r="685">
-      <c r="A685" s="1" t="n">
+      <c r="A685" t="n">
         <v>343845251</v>
       </c>
       <c r="B685" s="2" t="n">
@@ -26046,7 +26046,7 @@
       <c r="O685" t="inlineStr"/>
     </row>
     <row r="686">
-      <c r="A686" s="1" t="n">
+      <c r="A686" t="n">
         <v>340195903</v>
       </c>
       <c r="B686" s="2" t="n">
@@ -26079,7 +26079,7 @@
       <c r="O686" t="inlineStr"/>
     </row>
     <row r="687">
-      <c r="A687" s="1" t="n">
+      <c r="A687" t="n">
         <v>334864966</v>
       </c>
       <c r="B687" s="2" t="n">
@@ -26112,7 +26112,7 @@
       <c r="O687" t="inlineStr"/>
     </row>
     <row r="688">
-      <c r="A688" s="1" t="n">
+      <c r="A688" t="n">
         <v>334866796</v>
       </c>
       <c r="B688" s="2" t="n">
@@ -26145,7 +26145,7 @@
       <c r="O688" t="inlineStr"/>
     </row>
     <row r="689">
-      <c r="A689" s="1" t="n">
+      <c r="A689" t="n">
         <v>331674062</v>
       </c>
       <c r="B689" s="2" t="n">
@@ -26178,7 +26178,7 @@
       <c r="O689" t="inlineStr"/>
     </row>
     <row r="690">
-      <c r="A690" s="1" t="n">
+      <c r="A690" t="n">
         <v>331674059</v>
       </c>
       <c r="B690" s="2" t="n">
@@ -26211,7 +26211,7 @@
       <c r="O690" t="inlineStr"/>
     </row>
     <row r="691">
-      <c r="A691" s="1" t="n">
+      <c r="A691" t="n">
         <v>331673920</v>
       </c>
       <c r="B691" s="2" t="n">
@@ -26244,7 +26244,7 @@
       <c r="O691" t="inlineStr"/>
     </row>
     <row r="692">
-      <c r="A692" s="1" t="n">
+      <c r="A692" t="n">
         <v>325423556</v>
       </c>
       <c r="B692" s="2" t="n">
@@ -26277,7 +26277,7 @@
       <c r="O692" t="inlineStr"/>
     </row>
     <row r="693">
-      <c r="A693" s="1" t="n">
+      <c r="A693" t="n">
         <v>324567208</v>
       </c>
       <c r="B693" s="2" t="n">
@@ -26310,7 +26310,7 @@
       <c r="O693" t="inlineStr"/>
     </row>
     <row r="694">
-      <c r="A694" s="1" t="n">
+      <c r="A694" t="n">
         <v>2192176716</v>
       </c>
       <c r="B694" s="2" t="n">
@@ -26343,7 +26343,7 @@
       <c r="O694" t="inlineStr"/>
     </row>
     <row r="695">
-      <c r="A695" s="1" t="n">
+      <c r="A695" t="n">
         <v>324510282</v>
       </c>
       <c r="B695" s="2" t="n">
@@ -26376,7 +26376,7 @@
       <c r="O695" t="inlineStr"/>
     </row>
     <row r="696">
-      <c r="A696" s="1" t="n">
+      <c r="A696" t="n">
         <v>322906837</v>
       </c>
       <c r="B696" s="2" t="n">
@@ -26409,7 +26409,7 @@
       <c r="O696" t="inlineStr"/>
     </row>
     <row r="697">
-      <c r="A697" s="1" t="n">
+      <c r="A697" t="n">
         <v>322906793</v>
       </c>
       <c r="B697" s="2" t="n">
@@ -26442,7 +26442,7 @@
       <c r="O697" t="inlineStr"/>
     </row>
     <row r="698">
-      <c r="A698" s="1" t="n">
+      <c r="A698" t="n">
         <v>320560232</v>
       </c>
       <c r="B698" s="2" t="n">
@@ -26475,7 +26475,7 @@
       <c r="O698" t="inlineStr"/>
     </row>
     <row r="699">
-      <c r="A699" s="1" t="n">
+      <c r="A699" t="n">
         <v>320439305</v>
       </c>
       <c r="B699" s="2" t="n">
@@ -26508,7 +26508,7 @@
       <c r="O699" t="inlineStr"/>
     </row>
     <row r="700">
-      <c r="A700" s="1" t="n">
+      <c r="A700" t="n">
         <v>320438035</v>
       </c>
       <c r="B700" s="2" t="n">
@@ -26541,7 +26541,7 @@
       <c r="O700" t="inlineStr"/>
     </row>
     <row r="701">
-      <c r="A701" s="1" t="n">
+      <c r="A701" t="n">
         <v>318290366</v>
       </c>
       <c r="B701" s="2" t="n">
@@ -26574,7 +26574,7 @@
       <c r="O701" t="inlineStr"/>
     </row>
     <row r="702">
-      <c r="A702" s="1" t="n">
+      <c r="A702" t="n">
         <v>319242695</v>
       </c>
       <c r="B702" s="2" t="n">
@@ -26607,7 +26607,7 @@
       <c r="O702" t="inlineStr"/>
     </row>
     <row r="703">
-      <c r="A703" s="1" t="n">
+      <c r="A703" t="n">
         <v>316352818</v>
       </c>
       <c r="B703" s="2" t="n">
@@ -26640,7 +26640,7 @@
       <c r="O703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" s="1" t="n">
+      <c r="A704" t="n">
         <v>313842475</v>
       </c>
       <c r="B704" s="2" t="n">
@@ -26673,7 +26673,7 @@
       <c r="O704" t="inlineStr"/>
     </row>
     <row r="705">
-      <c r="A705" s="1" t="n">
+      <c r="A705" t="n">
         <v>313743654</v>
       </c>
       <c r="B705" s="2" t="n">
@@ -26706,7 +26706,7 @@
       <c r="O705" t="inlineStr"/>
     </row>
     <row r="706">
-      <c r="A706" s="1" t="n">
+      <c r="A706" t="n">
         <v>311823123</v>
       </c>
       <c r="B706" s="2" t="n">
@@ -26739,7 +26739,7 @@
       <c r="O706" t="inlineStr"/>
     </row>
     <row r="707">
-      <c r="A707" s="1" t="n">
+      <c r="A707" t="n">
         <v>310468501</v>
       </c>
       <c r="B707" s="2" t="n">
@@ -26772,7 +26772,7 @@
       <c r="O707" t="inlineStr"/>
     </row>
     <row r="708">
-      <c r="A708" s="1" t="n">
+      <c r="A708" t="n">
         <v>308443703</v>
       </c>
       <c r="B708" s="2" t="n">
@@ -26805,7 +26805,7 @@
       <c r="O708" t="inlineStr"/>
     </row>
     <row r="709">
-      <c r="A709" s="1" t="n">
+      <c r="A709" t="n">
         <v>307880742</v>
       </c>
       <c r="B709" s="2" t="n">
@@ -26838,7 +26838,7 @@
       <c r="O709" t="inlineStr"/>
     </row>
     <row r="710">
-      <c r="A710" s="1" t="n">
+      <c r="A710" t="n">
         <v>306495982</v>
       </c>
       <c r="B710" s="2" t="n">
@@ -26871,7 +26871,7 @@
       <c r="O710" t="inlineStr"/>
     </row>
     <row r="711">
-      <c r="A711" s="1" t="n">
+      <c r="A711" t="n">
         <v>305943496</v>
       </c>
       <c r="B711" s="2" t="n">
@@ -26904,7 +26904,7 @@
       <c r="O711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" s="1" t="n">
+      <c r="A712" t="n">
         <v>304091357</v>
       </c>
       <c r="B712" s="2" t="n">
@@ -26937,7 +26937,7 @@
       <c r="O712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" s="1" t="n">
+      <c r="A713" t="n">
         <v>303701432</v>
       </c>
       <c r="B713" s="2" t="n">
@@ -26970,7 +26970,7 @@
       <c r="O713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" s="1" t="n">
+      <c r="A714" t="n">
         <v>301995989</v>
       </c>
       <c r="B714" s="2" t="n">
@@ -27003,7 +27003,7 @@
       <c r="O714" t="inlineStr"/>
     </row>
     <row r="715">
-      <c r="A715" s="1" t="n">
+      <c r="A715" t="n">
         <v>300647300</v>
       </c>
       <c r="B715" s="2" t="n">
@@ -27036,7 +27036,7 @@
       <c r="O715" t="inlineStr"/>
     </row>
     <row r="716">
-      <c r="A716" s="1" t="n">
+      <c r="A716" t="n">
         <v>300082353</v>
       </c>
       <c r="B716" s="2" t="n">
@@ -27069,7 +27069,7 @@
       <c r="O716" t="inlineStr"/>
     </row>
     <row r="717">
-      <c r="A717" s="1" t="n">
+      <c r="A717" t="n">
         <v>299519824</v>
       </c>
       <c r="B717" s="2" t="n">
@@ -27102,7 +27102,7 @@
       <c r="O717" t="inlineStr"/>
     </row>
     <row r="718">
-      <c r="A718" s="1" t="n">
+      <c r="A718" t="n">
         <v>297688231</v>
       </c>
       <c r="B718" s="2" t="n">
@@ -27135,7 +27135,7 @@
       <c r="O718" t="inlineStr"/>
     </row>
     <row r="719">
-      <c r="A719" s="1" t="n">
+      <c r="A719" t="n">
         <v>291421794</v>
       </c>
       <c r="B719" s="2" t="n">
@@ -27168,7 +27168,7 @@
       <c r="O719" t="inlineStr"/>
     </row>
     <row r="720">
-      <c r="A720" s="1" t="n">
+      <c r="A720" t="n">
         <v>288782133</v>
       </c>
       <c r="B720" s="2" t="n">
@@ -27201,7 +27201,7 @@
       <c r="O720" t="inlineStr"/>
     </row>
     <row r="721">
-      <c r="A721" s="1" t="n">
+      <c r="A721" t="n">
         <v>291421779</v>
       </c>
       <c r="B721" s="2" t="n">
@@ -27234,7 +27234,7 @@
       <c r="O721" t="inlineStr"/>
     </row>
     <row r="722">
-      <c r="A722" s="1" t="n">
+      <c r="A722" t="n">
         <v>284303534</v>
       </c>
       <c r="B722" s="2" t="n">
@@ -27267,7 +27267,7 @@
       <c r="O722" t="inlineStr"/>
     </row>
     <row r="723">
-      <c r="A723" s="1" t="n">
+      <c r="A723" t="n">
         <v>284303547</v>
       </c>
       <c r="B723" s="2" t="n">
@@ -27300,7 +27300,7 @@
       <c r="O723" t="inlineStr"/>
     </row>
     <row r="724">
-      <c r="A724" s="1" t="n">
+      <c r="A724" t="n">
         <v>281212343</v>
       </c>
       <c r="B724" s="2" t="n">
@@ -27333,7 +27333,7 @@
       <c r="O724" t="inlineStr"/>
     </row>
     <row r="725">
-      <c r="A725" s="1" t="n">
+      <c r="A725" t="n">
         <v>277692124</v>
       </c>
       <c r="B725" s="2" t="n">
@@ -27366,7 +27366,7 @@
       <c r="O725" t="inlineStr"/>
     </row>
     <row r="726">
-      <c r="A726" s="1" t="n">
+      <c r="A726" t="n">
         <v>269900093</v>
       </c>
       <c r="B726" s="2" t="n">
@@ -27399,7 +27399,7 @@
       <c r="O726" t="inlineStr"/>
     </row>
     <row r="727">
-      <c r="A727" s="1" t="n">
+      <c r="A727" t="n">
         <v>268847609</v>
       </c>
       <c r="B727" s="2" t="n">
@@ -27432,7 +27432,7 @@
       <c r="O727" t="inlineStr"/>
     </row>
     <row r="728">
-      <c r="A728" s="1" t="n">
+      <c r="A728" t="n">
         <v>268044787</v>
       </c>
       <c r="B728" s="2" t="n">
@@ -27465,7 +27465,7 @@
       <c r="O728" t="inlineStr"/>
     </row>
     <row r="729">
-      <c r="A729" s="1" t="n">
+      <c r="A729" t="n">
         <v>267583096</v>
       </c>
       <c r="B729" s="2" t="n">
@@ -27498,7 +27498,7 @@
       <c r="O729" t="inlineStr"/>
     </row>
     <row r="730">
-      <c r="A730" s="1" t="n">
+      <c r="A730" t="n">
         <v>266228096</v>
       </c>
       <c r="B730" s="2" t="n">
@@ -27531,7 +27531,7 @@
       <c r="O730" t="inlineStr"/>
     </row>
     <row r="731">
-      <c r="A731" s="1" t="n">
+      <c r="A731" t="n">
         <v>247100338</v>
       </c>
       <c r="B731" s="2" t="n">
@@ -27564,7 +27564,7 @@
       <c r="O731" t="inlineStr"/>
     </row>
     <row r="732">
-      <c r="A732" s="1" t="n">
+      <c r="A732" t="n">
         <v>247100337</v>
       </c>
       <c r="B732" s="2" t="n">
@@ -27597,7 +27597,7 @@
       <c r="O732" t="inlineStr"/>
     </row>
     <row r="733">
-      <c r="A733" s="1" t="n">
+      <c r="A733" t="n">
         <v>240785194</v>
       </c>
       <c r="B733" s="2" t="n">
@@ -27630,7 +27630,7 @@
       <c r="O733" t="inlineStr"/>
     </row>
     <row r="734">
-      <c r="A734" s="1" t="n">
+      <c r="A734" t="n">
         <v>240785193</v>
       </c>
       <c r="B734" s="2" t="n">
@@ -27663,7 +27663,7 @@
       <c r="O734" t="inlineStr"/>
     </row>
     <row r="735">
-      <c r="A735" s="1" t="n">
+      <c r="A735" t="n">
         <v>240785178</v>
       </c>
       <c r="B735" s="2" t="n">
@@ -27696,7 +27696,7 @@
       <c r="O735" t="inlineStr"/>
     </row>
     <row r="736">
-      <c r="A736" s="1" t="n">
+      <c r="A736" t="n">
         <v>239195936</v>
       </c>
       <c r="B736" s="2" t="n">
@@ -27729,7 +27729,7 @@
       <c r="O736" t="inlineStr"/>
     </row>
     <row r="737">
-      <c r="A737" s="1" t="n">
+      <c r="A737" t="n">
         <v>238760551</v>
       </c>
       <c r="B737" s="2" t="n">
@@ -27762,7 +27762,7 @@
       <c r="O737" t="inlineStr"/>
     </row>
     <row r="738">
-      <c r="A738" s="1" t="n">
+      <c r="A738" t="n">
         <v>237967232</v>
       </c>
       <c r="B738" s="2" t="n">
@@ -27795,7 +27795,7 @@
       <c r="O738" t="inlineStr"/>
     </row>
     <row r="739">
-      <c r="A739" s="1" t="n">
+      <c r="A739" t="n">
         <v>237775017</v>
       </c>
       <c r="B739" s="2" t="n">
@@ -27828,7 +27828,7 @@
       <c r="O739" t="inlineStr"/>
     </row>
     <row r="740">
-      <c r="A740" s="1" t="n">
+      <c r="A740" t="n">
         <v>237093014</v>
       </c>
       <c r="B740" s="2" t="n">
@@ -27861,7 +27861,7 @@
       <c r="O740" t="inlineStr"/>
     </row>
     <row r="741">
-      <c r="A741" s="1" t="n">
+      <c r="A741" t="n">
         <v>225996495</v>
       </c>
       <c r="B741" s="2" t="n">
@@ -27894,7 +27894,7 @@
       <c r="O741" t="inlineStr"/>
     </row>
     <row r="742">
-      <c r="A742" s="1" t="n">
+      <c r="A742" t="n">
         <v>218671697</v>
       </c>
       <c r="B742" s="2" t="n">
@@ -27927,7 +27927,7 @@
       <c r="O742" t="inlineStr"/>
     </row>
     <row r="743">
-      <c r="A743" s="1" t="n">
+      <c r="A743" t="n">
         <v>217444250</v>
       </c>
       <c r="B743" s="2" t="n">
@@ -27960,7 +27960,7 @@
       <c r="O743" t="inlineStr"/>
     </row>
     <row r="744">
-      <c r="A744" s="1" t="n">
+      <c r="A744" t="n">
         <v>216898116</v>
       </c>
       <c r="B744" s="2" t="n">
@@ -27993,7 +27993,7 @@
       <c r="O744" t="inlineStr"/>
     </row>
     <row r="745">
-      <c r="A745" s="1" t="n">
+      <c r="A745" t="n">
         <v>215807775</v>
       </c>
       <c r="B745" s="2" t="n">
@@ -28026,7 +28026,7 @@
       <c r="O745" t="inlineStr"/>
     </row>
     <row r="746">
-      <c r="A746" s="1" t="n">
+      <c r="A746" t="n">
         <v>214289439</v>
       </c>
       <c r="B746" s="2" t="n">
@@ -28059,7 +28059,7 @@
       <c r="O746" t="inlineStr"/>
     </row>
     <row r="747">
-      <c r="A747" s="1" t="n">
+      <c r="A747" t="n">
         <v>214289447</v>
       </c>
       <c r="B747" s="2" t="n">
@@ -28092,7 +28092,7 @@
       <c r="O747" t="inlineStr"/>
     </row>
     <row r="748">
-      <c r="A748" s="1" t="n">
+      <c r="A748" t="n">
         <v>210898146</v>
       </c>
       <c r="B748" s="2" t="n">
@@ -28125,7 +28125,7 @@
       <c r="O748" t="inlineStr"/>
     </row>
     <row r="749">
-      <c r="A749" s="1" t="n">
+      <c r="A749" t="n">
         <v>210898139</v>
       </c>
       <c r="B749" s="2" t="n">
@@ -28158,7 +28158,7 @@
       <c r="O749" t="inlineStr"/>
     </row>
     <row r="750">
-      <c r="A750" s="1" t="n">
+      <c r="A750" t="n">
         <v>210898121</v>
       </c>
       <c r="B750" s="2" t="n">
@@ -28191,7 +28191,7 @@
       <c r="O750" t="inlineStr"/>
     </row>
     <row r="751">
-      <c r="A751" s="1" t="n">
+      <c r="A751" t="n">
         <v>206165844</v>
       </c>
       <c r="B751" s="2" t="n">
@@ -28224,7 +28224,7 @@
       <c r="O751" t="inlineStr"/>
     </row>
     <row r="752">
-      <c r="A752" s="1" t="n">
+      <c r="A752" t="n">
         <v>205012602</v>
       </c>
       <c r="B752" s="2" t="n">
@@ -28255,7 +28255,7 @@
       <c r="O752" t="inlineStr"/>
     </row>
     <row r="753">
-      <c r="A753" s="1" t="n">
+      <c r="A753" t="n">
         <v>205002518</v>
       </c>
       <c r="B753" s="2" t="n">
@@ -28288,7 +28288,7 @@
       <c r="O753" t="inlineStr"/>
     </row>
     <row r="754">
-      <c r="A754" s="1" t="n">
+      <c r="A754" t="n">
         <v>205011812</v>
       </c>
       <c r="B754" s="2" t="n">
@@ -28319,7 +28319,7 @@
       <c r="O754" t="inlineStr"/>
     </row>
     <row r="755">
-      <c r="A755" s="1" t="n">
+      <c r="A755" t="n">
         <v>201233031</v>
       </c>
       <c r="B755" s="2" t="n">
@@ -28352,7 +28352,7 @@
       <c r="O755" t="inlineStr"/>
     </row>
     <row r="756">
-      <c r="A756" s="1" t="n">
+      <c r="A756" t="n">
         <v>205002516</v>
       </c>
       <c r="B756" s="2" t="n">
@@ -28385,7 +28385,7 @@
       <c r="O756" t="inlineStr"/>
     </row>
     <row r="757">
-      <c r="A757" s="1" t="n">
+      <c r="A757" t="n">
         <v>198150290</v>
       </c>
       <c r="B757" s="2" t="n">
@@ -28418,7 +28418,7 @@
       <c r="O757" t="inlineStr"/>
     </row>
     <row r="758">
-      <c r="A758" s="1" t="n">
+      <c r="A758" t="n">
         <v>198194932</v>
       </c>
       <c r="B758" s="2" t="n">
@@ -28451,7 +28451,7 @@
       <c r="O758" t="inlineStr"/>
     </row>
     <row r="759">
-      <c r="A759" s="1" t="n">
+      <c r="A759" t="n">
         <v>195963572</v>
       </c>
       <c r="B759" s="2" t="n">
@@ -28484,7 +28484,7 @@
       <c r="O759" t="inlineStr"/>
     </row>
     <row r="760">
-      <c r="A760" s="1" t="n">
+      <c r="A760" t="n">
         <v>195298494</v>
       </c>
       <c r="B760" s="2" t="n">
@@ -28517,7 +28517,7 @@
       <c r="O760" t="inlineStr"/>
     </row>
     <row r="761">
-      <c r="A761" s="1" t="n">
+      <c r="A761" t="n">
         <v>194364172</v>
       </c>
       <c r="B761" s="2" t="n">
@@ -28550,7 +28550,7 @@
       <c r="O761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" s="1" t="n">
+      <c r="A762" t="n">
         <v>194364151</v>
       </c>
       <c r="B762" s="2" t="n">
@@ -28583,7 +28583,7 @@
       <c r="O762" t="inlineStr"/>
     </row>
     <row r="763">
-      <c r="A763" s="1" t="n">
+      <c r="A763" t="n">
         <v>191830514</v>
       </c>
       <c r="B763" s="2" t="n">
@@ -28616,7 +28616,7 @@
       <c r="O763" t="inlineStr"/>
     </row>
     <row r="764">
-      <c r="A764" s="1" t="n">
+      <c r="A764" t="n">
         <v>191797419</v>
       </c>
       <c r="B764" s="2" t="n">
@@ -28647,7 +28647,7 @@
       <c r="O764" t="inlineStr"/>
     </row>
     <row r="765">
-      <c r="A765" s="1" t="n">
+      <c r="A765" t="n">
         <v>191797407</v>
       </c>
       <c r="B765" s="2" t="n">
@@ -28680,7 +28680,7 @@
       <c r="O765" t="inlineStr"/>
     </row>
     <row r="766">
-      <c r="A766" s="1" t="n">
+      <c r="A766" t="n">
         <v>191797424</v>
       </c>
       <c r="B766" s="2" t="n">
@@ -28713,7 +28713,7 @@
       <c r="O766" t="inlineStr"/>
     </row>
     <row r="767">
-      <c r="A767" s="1" t="n">
+      <c r="A767" t="n">
         <v>189720804</v>
       </c>
       <c r="B767" s="2" t="n">
@@ -28746,7 +28746,7 @@
       <c r="O767" t="inlineStr"/>
     </row>
     <row r="768">
-      <c r="A768" s="1" t="n">
+      <c r="A768" t="n">
         <v>189223476</v>
       </c>
       <c r="B768" s="2" t="n">
@@ -28779,7 +28779,7 @@
       <c r="O768" t="inlineStr"/>
     </row>
     <row r="769">
-      <c r="A769" s="1" t="n">
+      <c r="A769" t="n">
         <v>189223460</v>
       </c>
       <c r="B769" s="2" t="n">
@@ -28812,7 +28812,7 @@
       <c r="O769" t="inlineStr"/>
     </row>
     <row r="770">
-      <c r="A770" s="1" t="n">
+      <c r="A770" t="n">
         <v>171609001</v>
       </c>
       <c r="B770" s="2" t="n">
@@ -28845,7 +28845,7 @@
       <c r="O770" t="inlineStr"/>
     </row>
     <row r="771">
-      <c r="A771" s="1" t="n">
+      <c r="A771" t="n">
         <v>170267381</v>
       </c>
       <c r="B771" s="2" t="n">
@@ -28878,7 +28878,7 @@
       <c r="O771" t="inlineStr"/>
     </row>
     <row r="772">
-      <c r="A772" s="1" t="n">
+      <c r="A772" t="n">
         <v>169377901</v>
       </c>
       <c r="B772" s="2" t="n">
@@ -28911,7 +28911,7 @@
       <c r="O772" t="inlineStr"/>
     </row>
     <row r="773">
-      <c r="A773" s="1" t="n">
+      <c r="A773" t="n">
         <v>167735546</v>
       </c>
       <c r="B773" s="2" t="n">
@@ -28944,7 +28944,7 @@
       <c r="O773" t="inlineStr"/>
     </row>
     <row r="774">
-      <c r="A774" s="1" t="n">
+      <c r="A774" t="n">
         <v>167712990</v>
       </c>
       <c r="B774" s="2" t="n">
@@ -28977,7 +28977,7 @@
       <c r="O774" t="inlineStr"/>
     </row>
     <row r="775">
-      <c r="A775" s="1" t="n">
+      <c r="A775" t="n">
         <v>169377910</v>
       </c>
       <c r="B775" s="2" t="n">
@@ -29010,7 +29010,7 @@
       <c r="O775" t="inlineStr"/>
     </row>
     <row r="776">
-      <c r="A776" s="1" t="n">
+      <c r="A776" t="n">
         <v>166903161</v>
       </c>
       <c r="B776" s="2" t="n">
@@ -29045,7 +29045,7 @@
       <c r="O776" t="inlineStr"/>
     </row>
     <row r="777">
-      <c r="A777" s="1" t="n">
+      <c r="A777" t="n">
         <v>165780221</v>
       </c>
       <c r="B777" s="2" t="n">
@@ -29078,7 +29078,7 @@
       <c r="O777" t="inlineStr"/>
     </row>
     <row r="778">
-      <c r="A778" s="1" t="n">
+      <c r="A778" t="n">
         <v>164250114</v>
       </c>
       <c r="B778" s="2" t="n">
@@ -29111,7 +29111,7 @@
       <c r="O778" t="inlineStr"/>
     </row>
     <row r="779">
-      <c r="A779" s="1" t="n">
+      <c r="A779" t="n">
         <v>164250115</v>
       </c>
       <c r="B779" s="2" t="n">
@@ -29144,7 +29144,7 @@
       <c r="O779" t="inlineStr"/>
     </row>
     <row r="780">
-      <c r="A780" s="1" t="n">
+      <c r="A780" t="n">
         <v>156435764</v>
       </c>
       <c r="B780" s="2" t="n">
@@ -29177,7 +29177,7 @@
       <c r="O780" t="inlineStr"/>
     </row>
     <row r="781">
-      <c r="A781" s="1" t="n">
+      <c r="A781" t="n">
         <v>164250133</v>
       </c>
       <c r="B781" s="2" t="n">
@@ -29210,7 +29210,7 @@
       <c r="O781" t="inlineStr"/>
     </row>
     <row r="782">
-      <c r="A782" s="1" t="n">
+      <c r="A782" t="n">
         <v>153035714</v>
       </c>
       <c r="B782" s="2" t="n">
@@ -29243,7 +29243,7 @@
       <c r="O782" t="inlineStr"/>
     </row>
     <row r="783">
-      <c r="A783" s="1" t="n">
+      <c r="A783" t="n">
         <v>153035716</v>
       </c>
       <c r="B783" s="2" t="n">
@@ -29276,7 +29276,7 @@
       <c r="O783" t="inlineStr"/>
     </row>
     <row r="784">
-      <c r="A784" s="1" t="n">
+      <c r="A784" t="n">
         <v>153035713</v>
       </c>
       <c r="B784" s="2" t="n">
@@ -29309,7 +29309,7 @@
       <c r="O784" t="inlineStr"/>
     </row>
     <row r="785">
-      <c r="A785" s="1" t="n">
+      <c r="A785" t="n">
         <v>149034483</v>
       </c>
       <c r="B785" s="2" t="n">

--- a/posts/RaceTraining/training_data.xlsx
+++ b/posts/RaceTraining/training_data.xlsx
@@ -27714,7 +27714,9 @@
       <c r="E601" t="n">
         <v>287</v>
       </c>
-      <c r="F601" t="inlineStr"/>
+      <c r="F601" t="n">
+        <v>1255</v>
+      </c>
       <c r="G601" t="n">
         <v>9.926868985936343</v>
       </c>
@@ -27759,7 +27761,9 @@
       <c r="E602" t="n">
         <v>69</v>
       </c>
-      <c r="F602" t="inlineStr"/>
+      <c r="F602" t="n">
+        <v>1058</v>
+      </c>
       <c r="G602" t="inlineStr"/>
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr"/>
@@ -27790,7 +27794,9 @@
       <c r="E603" t="n">
         <v>205</v>
       </c>
-      <c r="F603" t="inlineStr"/>
+      <c r="F603" t="n">
+        <v>1655</v>
+      </c>
       <c r="G603" t="n">
         <v>37.93833097595473</v>
       </c>
@@ -27823,7 +27829,9 @@
       <c r="E604" t="n">
         <v>248</v>
       </c>
-      <c r="F604" t="inlineStr"/>
+      <c r="F604" t="n">
+        <v>1082</v>
+      </c>
       <c r="G604" t="n">
         <v>8.572195589645254</v>
       </c>
@@ -27868,7 +27876,9 @@
       <c r="E605" t="n">
         <v>71</v>
       </c>
-      <c r="F605" t="inlineStr"/>
+      <c r="F605" t="n">
+        <v>1521</v>
+      </c>
       <c r="G605" t="inlineStr"/>
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr"/>
@@ -27899,7 +27909,9 @@
       <c r="E606" t="n">
         <v>781</v>
       </c>
-      <c r="F606" t="inlineStr"/>
+      <c r="F606" t="n">
+        <v>4940</v>
+      </c>
       <c r="G606" t="n">
         <v>5.164112437427801</v>
       </c>
@@ -27936,7 +27948,9 @@
       <c r="E607" t="n">
         <v>886</v>
       </c>
-      <c r="F607" t="inlineStr"/>
+      <c r="F607" t="n">
+        <v>5137</v>
+      </c>
       <c r="G607" t="n">
         <v>5.26859163229228</v>
       </c>
@@ -27973,7 +27987,9 @@
       <c r="E608" t="n">
         <v>1342</v>
       </c>
-      <c r="F608" t="inlineStr"/>
+      <c r="F608" t="n">
+        <v>12449</v>
+      </c>
       <c r="G608" t="n">
         <v>7.500671140939597</v>
       </c>
@@ -28010,7 +28026,9 @@
       <c r="E609" t="n">
         <v>709</v>
       </c>
-      <c r="F609" t="inlineStr"/>
+      <c r="F609" t="n">
+        <v>7056</v>
+      </c>
       <c r="G609" t="n">
         <v>6.121040620721132</v>
       </c>
@@ -28047,7 +28065,9 @@
       <c r="E610" t="n">
         <v>233</v>
       </c>
-      <c r="F610" t="inlineStr"/>
+      <c r="F610" t="n">
+        <v>2050</v>
+      </c>
       <c r="G610" t="n">
         <v>42.04137931034482</v>
       </c>
@@ -28080,7 +28100,9 @@
       <c r="E611" t="n">
         <v>253</v>
       </c>
-      <c r="F611" t="inlineStr"/>
+      <c r="F611" t="n">
+        <v>1902</v>
+      </c>
       <c r="G611" t="n">
         <v>43.26193548387097</v>
       </c>
@@ -28113,7 +28135,9 @@
       <c r="E612" t="n">
         <v>271</v>
       </c>
-      <c r="F612" t="inlineStr"/>
+      <c r="F612" t="n">
+        <v>2386</v>
+      </c>
       <c r="G612" t="n">
         <v>39.09970845481049</v>
       </c>
@@ -28146,7 +28170,9 @@
       <c r="E613" t="n">
         <v>570</v>
       </c>
-      <c r="F613" t="inlineStr"/>
+      <c r="F613" t="n">
+        <v>2455</v>
+      </c>
       <c r="G613" t="n">
         <v>9.188900308324769</v>
       </c>
@@ -28197,7 +28223,9 @@
       <c r="E614" t="n">
         <v>260</v>
       </c>
-      <c r="F614" t="inlineStr"/>
+      <c r="F614" t="n">
+        <v>2527</v>
+      </c>
       <c r="G614" t="n">
         <v>37.25333333333334</v>
       </c>
@@ -28230,7 +28258,9 @@
       <c r="E615" t="n">
         <v>270</v>
       </c>
-      <c r="F615" t="inlineStr"/>
+      <c r="F615" t="n">
+        <v>1586</v>
+      </c>
       <c r="G615" t="n">
         <v>11.38471986417657</v>
       </c>
@@ -28275,7 +28305,9 @@
       <c r="E616" t="n">
         <v>210</v>
       </c>
-      <c r="F616" t="inlineStr"/>
+      <c r="F616" t="n">
+        <v>2035</v>
+      </c>
       <c r="G616" t="n">
         <v>40.64</v>
       </c>
@@ -28308,7 +28340,9 @@
       <c r="E617" t="n">
         <v>390</v>
       </c>
-      <c r="F617" t="inlineStr"/>
+      <c r="F617" t="n">
+        <v>2798</v>
+      </c>
       <c r="G617" t="n">
         <v>40.45610859728507</v>
       </c>
@@ -28343,7 +28377,9 @@
       <c r="E618" t="n">
         <v>385</v>
       </c>
-      <c r="F618" t="inlineStr"/>
+      <c r="F618" t="n">
+        <v>2446</v>
+      </c>
       <c r="G618" t="n">
         <v>12.18092643051771</v>
       </c>
@@ -28388,7 +28424,9 @@
       <c r="E619" t="n">
         <v>475</v>
       </c>
-      <c r="F619" t="inlineStr"/>
+      <c r="F619" t="n">
+        <v>3916</v>
+      </c>
       <c r="G619" t="n">
         <v>42.50776545166403</v>
       </c>
@@ -28423,7 +28461,9 @@
       <c r="E620" t="n">
         <v>426</v>
       </c>
-      <c r="F620" t="inlineStr"/>
+      <c r="F620" t="n">
+        <v>1771</v>
+      </c>
       <c r="G620" t="n">
         <v>9.185753424657534</v>
       </c>
@@ -28468,7 +28508,9 @@
       <c r="E621" t="n">
         <v>69</v>
       </c>
-      <c r="F621" t="inlineStr"/>
+      <c r="F621" t="n">
+        <v>1398</v>
+      </c>
       <c r="G621" t="inlineStr"/>
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr"/>
@@ -28499,7 +28541,9 @@
       <c r="E622" t="n">
         <v>276</v>
       </c>
-      <c r="F622" t="inlineStr"/>
+      <c r="F622" t="n">
+        <v>1312</v>
+      </c>
       <c r="G622" t="n">
         <v>10.51034482758621</v>
       </c>
@@ -28544,7 +28588,9 @@
       <c r="E623" t="n">
         <v>139</v>
       </c>
-      <c r="F623" t="inlineStr"/>
+      <c r="F623" t="n">
+        <v>1265</v>
+      </c>
       <c r="G623" t="inlineStr"/>
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr"/>
@@ -28575,7 +28621,9 @@
       <c r="E624" t="n">
         <v>110</v>
       </c>
-      <c r="F624" t="inlineStr"/>
+      <c r="F624" t="n">
+        <v>1346</v>
+      </c>
       <c r="G624" t="n">
         <v>46.24551724137931</v>
       </c>
@@ -28608,7 +28656,9 @@
       <c r="E625" t="n">
         <v>254</v>
       </c>
-      <c r="F625" t="inlineStr"/>
+      <c r="F625" t="n">
+        <v>1154</v>
+      </c>
       <c r="G625" t="n">
         <v>9.064684014869888</v>
       </c>
@@ -28653,7 +28703,9 @@
       <c r="E626" t="n">
         <v>60</v>
       </c>
-      <c r="F626" t="inlineStr"/>
+      <c r="F626" t="n">
+        <v>1173</v>
+      </c>
       <c r="G626" t="inlineStr"/>
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr"/>
@@ -28684,7 +28736,9 @@
       <c r="E627" t="n">
         <v>299</v>
       </c>
-      <c r="F627" t="inlineStr"/>
+      <c r="F627" t="n">
+        <v>2007</v>
+      </c>
       <c r="G627" t="n">
         <v>11.79006593406593</v>
       </c>
@@ -28729,7 +28783,9 @@
       <c r="E628" t="n">
         <v>1168</v>
       </c>
-      <c r="F628" t="inlineStr"/>
+      <c r="F628" t="n">
+        <v>5543</v>
+      </c>
       <c r="G628" t="n">
         <v>11.09739346297062</v>
       </c>
@@ -28778,7 +28834,9 @@
       <c r="E629" t="n">
         <v>254</v>
       </c>
-      <c r="F629" t="inlineStr"/>
+      <c r="F629" t="n">
+        <v>1198</v>
+      </c>
       <c r="G629" t="n">
         <v>9.477879858657243</v>
       </c>
@@ -28823,7 +28881,9 @@
       <c r="E630" t="n">
         <v>400</v>
       </c>
-      <c r="F630" t="inlineStr"/>
+      <c r="F630" t="n">
+        <v>1670</v>
+      </c>
       <c r="G630" t="n">
         <v>8.785587946282346</v>
       </c>
@@ -28868,7 +28928,9 @@
       <c r="E631" t="n">
         <v>132</v>
       </c>
-      <c r="F631" t="inlineStr"/>
+      <c r="F631" t="n">
+        <v>1693</v>
+      </c>
       <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr"/>
@@ -28899,7 +28961,9 @@
       <c r="E632" t="n">
         <v>265</v>
       </c>
-      <c r="F632" t="inlineStr"/>
+      <c r="F632" t="n">
+        <v>1099</v>
+      </c>
       <c r="G632" t="n">
         <v>9.132584269662921</v>
       </c>
@@ -28944,7 +29008,9 @@
       <c r="E633" t="n">
         <v>91</v>
       </c>
-      <c r="F633" t="inlineStr"/>
+      <c r="F633" t="n">
+        <v>877</v>
+      </c>
       <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr"/>
@@ -28975,7 +29041,9 @@
       <c r="E634" t="n">
         <v>254</v>
       </c>
-      <c r="F634" t="inlineStr"/>
+      <c r="F634" t="n">
+        <v>2105</v>
+      </c>
       <c r="G634" t="n">
         <v>14.38198391420912</v>
       </c>
@@ -29020,7 +29088,9 @@
       <c r="E635" t="n">
         <v>554</v>
       </c>
-      <c r="F635" t="inlineStr"/>
+      <c r="F635" t="n">
+        <v>2398</v>
+      </c>
       <c r="G635" t="n">
         <v>9.067748478701825</v>
       </c>
@@ -29065,7 +29135,9 @@
       <c r="E636" t="n">
         <v>110</v>
       </c>
-      <c r="F636" t="inlineStr"/>
+      <c r="F636" t="n">
+        <v>649</v>
+      </c>
       <c r="G636" t="n">
         <v>4.219348749410099</v>
       </c>
@@ -29102,7 +29174,9 @@
       <c r="E637" t="n">
         <v>281</v>
       </c>
-      <c r="F637" t="inlineStr"/>
+      <c r="F637" t="n">
+        <v>1945</v>
+      </c>
       <c r="G637" t="n">
         <v>12.95142443264123</v>
       </c>
@@ -29147,7 +29221,9 @@
       <c r="E638" t="n">
         <v>688</v>
       </c>
-      <c r="F638" t="inlineStr"/>
+      <c r="F638" t="n">
+        <v>4488</v>
+      </c>
       <c r="G638" t="n">
         <v>4.657475256120854</v>
       </c>
@@ -29184,7 +29260,9 @@
       <c r="E639" t="n">
         <v>791</v>
       </c>
-      <c r="F639" t="inlineStr"/>
+      <c r="F639" t="n">
+        <v>4632</v>
+      </c>
       <c r="G639" t="n">
         <v>4.333182552504039</v>
       </c>
@@ -29221,7 +29299,9 @@
       <c r="E640" t="n">
         <v>295</v>
       </c>
-      <c r="F640" t="inlineStr"/>
+      <c r="F640" t="n">
+        <v>1337</v>
+      </c>
       <c r="G640" t="n">
         <v>10.3282248748556</v>
       </c>
@@ -29266,7 +29346,9 @@
       <c r="E641" t="n">
         <v>433</v>
       </c>
-      <c r="F641" t="inlineStr"/>
+      <c r="F641" t="n">
+        <v>1953</v>
+      </c>
       <c r="G641" t="n">
         <v>10.02331838565022</v>
       </c>
@@ -29311,7 +29393,9 @@
       <c r="E642" t="n">
         <v>387</v>
       </c>
-      <c r="F642" t="inlineStr"/>
+      <c r="F642" t="n">
+        <v>1782</v>
+      </c>
       <c r="G642" t="n">
         <v>10.19863117870723</v>
       </c>
@@ -29356,7 +29440,9 @@
       <c r="E643" t="n">
         <v>405</v>
       </c>
-      <c r="F643" t="inlineStr"/>
+      <c r="F643" t="n">
+        <v>1803</v>
+      </c>
       <c r="G643" t="n">
         <v>10.12930513595166</v>
       </c>
@@ -29401,7 +29487,9 @@
       <c r="E644" t="n">
         <v>290</v>
       </c>
-      <c r="F644" t="inlineStr"/>
+      <c r="F644" t="n">
+        <v>1401</v>
+      </c>
       <c r="G644" t="n">
         <v>9.63448275862069</v>
       </c>
@@ -29446,7 +29534,9 @@
       <c r="E645" t="n">
         <v>252</v>
       </c>
-      <c r="F645" t="inlineStr"/>
+      <c r="F645" t="n">
+        <v>1306</v>
+      </c>
       <c r="G645" t="n">
         <v>10.18314350797267</v>
       </c>
@@ -29491,7 +29581,9 @@
       <c r="E646" t="n">
         <v>305</v>
       </c>
-      <c r="F646" t="inlineStr"/>
+      <c r="F646" t="n">
+        <v>1468</v>
+      </c>
       <c r="G646" t="n">
         <v>10.00835820895522</v>
       </c>
@@ -29536,7 +29628,9 @@
       <c r="E647" t="n">
         <v>129</v>
       </c>
-      <c r="F647" t="inlineStr"/>
+      <c r="F647" t="n">
+        <v>1431</v>
+      </c>
       <c r="G647" t="n">
         <v>5.196125532739248</v>
       </c>
@@ -29573,7 +29667,9 @@
       <c r="E648" t="n">
         <v>342</v>
       </c>
-      <c r="F648" t="inlineStr"/>
+      <c r="F648" t="n">
+        <v>1543</v>
+      </c>
       <c r="G648" t="n">
         <v>9.850312155710615</v>
       </c>
@@ -29618,7 +29714,9 @@
       <c r="E649" t="n">
         <v>313</v>
       </c>
-      <c r="F649" t="inlineStr"/>
+      <c r="F649" t="n">
+        <v>1414</v>
+      </c>
       <c r="G649" t="n">
         <v>9.746511627906978</v>
       </c>
@@ -29663,7 +29761,9 @@
       <c r="E650" t="n">
         <v>927</v>
       </c>
-      <c r="F650" t="inlineStr"/>
+      <c r="F650" t="n">
+        <v>4208</v>
+      </c>
       <c r="G650" t="n">
         <v>3.50253329851136</v>
       </c>
@@ -29700,7 +29800,9 @@
       <c r="E651" t="n">
         <v>266</v>
       </c>
-      <c r="F651" t="inlineStr"/>
+      <c r="F651" t="n">
+        <v>1138</v>
+      </c>
       <c r="G651" t="n">
         <v>9.451162790697673</v>
       </c>
@@ -29745,7 +29847,9 @@
       <c r="E652" t="n">
         <v>332</v>
       </c>
-      <c r="F652" t="inlineStr"/>
+      <c r="F652" t="n">
+        <v>1455</v>
+      </c>
       <c r="G652" t="n">
         <v>10.48569194683346</v>
       </c>
@@ -29790,7 +29894,9 @@
       <c r="E653" t="n">
         <v>632</v>
       </c>
-      <c r="F653" t="inlineStr"/>
+      <c r="F653" t="n">
+        <v>2542</v>
+      </c>
       <c r="G653" t="n">
         <v>9.444507042253521</v>
       </c>
@@ -29835,7 +29941,9 @@
       <c r="E654" t="n">
         <v>316</v>
       </c>
-      <c r="F654" t="inlineStr"/>
+      <c r="F654" t="n">
+        <v>1381</v>
+      </c>
       <c r="G654" t="n">
         <v>9.95265306122449</v>
       </c>
@@ -29880,7 +29988,9 @@
       <c r="E655" t="n">
         <v>333</v>
       </c>
-      <c r="F655" t="inlineStr"/>
+      <c r="F655" t="n">
+        <v>1734</v>
+      </c>
       <c r="G655" t="n">
         <v>11.47236954662104</v>
       </c>
@@ -29925,7 +30035,9 @@
       <c r="E656" t="n">
         <v>264</v>
       </c>
-      <c r="F656" t="inlineStr"/>
+      <c r="F656" t="n">
+        <v>1408</v>
+      </c>
       <c r="G656" t="n">
         <v>10.69473684210526</v>
       </c>
@@ -29970,7 +30082,9 @@
       <c r="E657" t="n">
         <v>304</v>
       </c>
-      <c r="F657" t="inlineStr"/>
+      <c r="F657" t="n">
+        <v>1399</v>
+      </c>
       <c r="G657" t="n">
         <v>9.362094240837695</v>
       </c>
@@ -30013,7 +30127,9 @@
       <c r="E658" t="n">
         <v>270</v>
       </c>
-      <c r="F658" t="inlineStr"/>
+      <c r="F658" t="n">
+        <v>1131</v>
+      </c>
       <c r="G658" t="n">
         <v>9.242729152308751</v>
       </c>
@@ -30056,7 +30172,9 @@
       <c r="E659" t="n">
         <v>778</v>
       </c>
-      <c r="F659" t="inlineStr"/>
+      <c r="F659" t="n">
+        <v>4138</v>
+      </c>
       <c r="G659" t="n">
         <v>4.345115826988498</v>
       </c>
@@ -30091,7 +30209,9 @@
       <c r="E660" t="n">
         <v>832</v>
       </c>
-      <c r="F660" t="inlineStr"/>
+      <c r="F660" t="n">
+        <v>4193</v>
+      </c>
       <c r="G660" t="n">
         <v>4.372742093250733</v>
       </c>
@@ -30126,7 +30246,9 @@
       <c r="E661" t="n">
         <v>842</v>
       </c>
-      <c r="F661" t="inlineStr"/>
+      <c r="F661" t="n">
+        <v>3881</v>
+      </c>
       <c r="G661" t="n">
         <v>4.037693813036279</v>
       </c>
@@ -30161,7 +30283,9 @@
       <c r="E662" t="n">
         <v>213</v>
       </c>
-      <c r="F662" t="inlineStr"/>
+      <c r="F662" t="n">
+        <v>913</v>
+      </c>
       <c r="G662" t="n">
         <v>9.297192374350088</v>
       </c>
@@ -30206,7 +30330,9 @@
       <c r="E663" t="n">
         <v>2684</v>
       </c>
-      <c r="F663" t="inlineStr"/>
+      <c r="F663" t="n">
+        <v>18406</v>
+      </c>
       <c r="G663" t="n">
         <v>4.275167357347785</v>
       </c>
@@ -30243,7 +30369,9 @@
       <c r="E664" t="n">
         <v>144</v>
       </c>
-      <c r="F664" t="inlineStr"/>
+      <c r="F664" t="n">
+        <v>610</v>
+      </c>
       <c r="G664" t="n">
         <v>8.940799999999999</v>
       </c>
@@ -30288,7 +30416,9 @@
       <c r="E665" t="n">
         <v>132</v>
       </c>
-      <c r="F665" t="inlineStr"/>
+      <c r="F665" t="n">
+        <v>613</v>
+      </c>
       <c r="G665" t="n">
         <v>9.025033647375505</v>
       </c>
@@ -30333,7 +30463,9 @@
       <c r="E666" t="n">
         <v>138</v>
       </c>
-      <c r="F666" t="inlineStr"/>
+      <c r="F666" t="n">
+        <v>604</v>
+      </c>
       <c r="G666" t="n">
         <v>8.677580071174376</v>
       </c>
@@ -30378,7 +30510,9 @@
       <c r="E667" t="n">
         <v>608</v>
       </c>
-      <c r="F667" t="inlineStr"/>
+      <c r="F667" t="n">
+        <v>4106</v>
+      </c>
       <c r="G667" t="n">
         <v>4.275167357347785</v>
       </c>
@@ -30415,7 +30549,9 @@
       <c r="E668" t="n">
         <v>661</v>
       </c>
-      <c r="F668" t="inlineStr"/>
+      <c r="F668" t="n">
+        <v>4178</v>
+      </c>
       <c r="G668" t="n">
         <v>4.377023498694517</v>
       </c>
@@ -30452,7 +30588,9 @@
       <c r="E669" t="n">
         <v>955</v>
       </c>
-      <c r="F669" t="inlineStr"/>
+      <c r="F669" t="n">
+        <v>4300</v>
+      </c>
       <c r="G669" t="n">
         <v>4.482352941176471</v>
       </c>
@@ -30489,7 +30627,9 @@
       <c r="E670" t="n">
         <v>884</v>
       </c>
-      <c r="F670" t="inlineStr"/>
+      <c r="F670" t="n">
+        <v>3738</v>
+      </c>
       <c r="G670" t="n">
         <v>3.887304347826086</v>
       </c>
@@ -30526,7 +30666,9 @@
       <c r="E671" t="n">
         <v>143</v>
       </c>
-      <c r="F671" t="inlineStr"/>
+      <c r="F671" t="n">
+        <v>595</v>
+      </c>
       <c r="G671" t="n">
         <v>8.577678285897028</v>
       </c>
@@ -30571,7 +30713,9 @@
       <c r="E672" t="n">
         <v>705</v>
       </c>
-      <c r="F672" t="inlineStr"/>
+      <c r="F672" t="n">
+        <v>3348</v>
+      </c>
       <c r="G672" t="n">
         <v>4.159801488833747</v>
       </c>
@@ -30608,7 +30752,9 @@
       <c r="E673" t="n">
         <v>706</v>
       </c>
-      <c r="F673" t="inlineStr"/>
+      <c r="F673" t="n">
+        <v>4082</v>
+      </c>
       <c r="G673" t="n">
         <v>4.217358490566038</v>
       </c>
@@ -30645,7 +30791,9 @@
       <c r="E674" t="n">
         <v>757</v>
       </c>
-      <c r="F674" t="inlineStr"/>
+      <c r="F674" t="n">
+        <v>3936</v>
+      </c>
       <c r="G674" t="n">
         <v>4.145656877897991</v>
       </c>
@@ -30682,7 +30830,9 @@
       <c r="E675" t="n">
         <v>917</v>
       </c>
-      <c r="F675" t="inlineStr"/>
+      <c r="F675" t="n">
+        <v>4921</v>
+      </c>
       <c r="G675" t="n">
         <v>4.436387694343368</v>
       </c>
@@ -30719,7 +30869,9 @@
       <c r="E676" t="n">
         <v>980</v>
       </c>
-      <c r="F676" t="inlineStr"/>
+      <c r="F676" t="n">
+        <v>4734</v>
+      </c>
       <c r="G676" t="n">
         <v>4.320618556701031</v>
       </c>
@@ -30756,7 +30908,9 @@
       <c r="E677" t="n">
         <v>934</v>
       </c>
-      <c r="F677" t="inlineStr"/>
+      <c r="F677" t="n">
+        <v>6109</v>
+      </c>
       <c r="G677" t="n">
         <v>4.331782945736434</v>
       </c>
@@ -30793,7 +30947,9 @@
       <c r="E678" t="n">
         <v>1868</v>
       </c>
-      <c r="F678" t="inlineStr"/>
+      <c r="F678" t="n">
+        <v>11572</v>
+      </c>
       <c r="G678" t="n">
         <v>4.002148612354521</v>
       </c>
@@ -30830,7 +30986,9 @@
       <c r="E679" t="n">
         <v>513</v>
       </c>
-      <c r="F679" t="inlineStr"/>
+      <c r="F679" t="n">
+        <v>3767</v>
+      </c>
       <c r="G679" t="n">
         <v>6.61954590325765</v>
       </c>
@@ -30867,7 +31025,9 @@
       <c r="E680" t="n">
         <v>1078</v>
       </c>
-      <c r="F680" t="inlineStr"/>
+      <c r="F680" t="n">
+        <v>7519</v>
+      </c>
       <c r="G680" t="n">
         <v>5.523558484349259</v>
       </c>
@@ -30904,7 +31064,9 @@
       <c r="E681" t="n">
         <v>1126</v>
       </c>
-      <c r="F681" t="inlineStr"/>
+      <c r="F681" t="n">
+        <v>7121</v>
+      </c>
       <c r="G681" t="n">
         <v>5.102225603956629</v>
       </c>
@@ -30941,7 +31103,9 @@
       <c r="E682" t="n">
         <v>251</v>
       </c>
-      <c r="F682" t="inlineStr"/>
+      <c r="F682" t="n">
+        <v>1095</v>
+      </c>
       <c r="G682" t="n">
         <v>8.970702341137123</v>
       </c>
@@ -30984,7 +31148,9 @@
       <c r="E683" t="n">
         <v>635</v>
       </c>
-      <c r="F683" t="inlineStr"/>
+      <c r="F683" t="n">
+        <v>2766</v>
+      </c>
       <c r="G683" t="n">
         <v>10.18314350797267</v>
       </c>
@@ -31035,7 +31201,9 @@
       <c r="E684" t="n">
         <v>247</v>
       </c>
-      <c r="F684" t="inlineStr"/>
+      <c r="F684" t="n">
+        <v>1040</v>
+      </c>
       <c r="G684" t="n">
         <v>8.826061204343533</v>
       </c>
@@ -31080,7 +31248,9 @@
       <c r="E685" t="n">
         <v>263</v>
       </c>
-      <c r="F685" t="inlineStr"/>
+      <c r="F685" t="n">
+        <v>1074</v>
+      </c>
       <c r="G685" t="n">
         <v>8.520457433290979</v>
       </c>
@@ -31125,7 +31295,9 @@
       <c r="E686" t="n">
         <v>236</v>
       </c>
-      <c r="F686" t="inlineStr"/>
+      <c r="F686" t="n">
+        <v>1063</v>
+      </c>
       <c r="G686" t="n">
         <v>8.55033471469557</v>
       </c>
@@ -31170,7 +31342,9 @@
       <c r="E687" t="n">
         <v>448</v>
       </c>
-      <c r="F687" t="inlineStr"/>
+      <c r="F687" t="n">
+        <v>2195</v>
+      </c>
       <c r="G687" t="n">
         <v>3.554518950437317</v>
       </c>
@@ -31207,7 +31381,9 @@
       <c r="E688" t="n">
         <v>262</v>
       </c>
-      <c r="F688" t="inlineStr"/>
+      <c r="F688" t="n">
+        <v>1171</v>
+      </c>
       <c r="G688" t="n">
         <v>9.310100659493232</v>
       </c>
@@ -31252,7 +31428,9 @@
       <c r="E689" t="n">
         <v>266</v>
       </c>
-      <c r="F689" t="inlineStr"/>
+      <c r="F689" t="n">
+        <v>1123</v>
+      </c>
       <c r="G689" t="n">
         <v>8.861050545094152</v>
       </c>
@@ -31301,7 +31479,9 @@
       <c r="E690" t="n">
         <v>241</v>
       </c>
-      <c r="F690" t="inlineStr"/>
+      <c r="F690" t="n">
+        <v>977</v>
+      </c>
       <c r="G690" t="n">
         <v>8.27086031452359</v>
       </c>
@@ -31346,7 +31526,9 @@
       <c r="E691" t="n">
         <v>183</v>
       </c>
-      <c r="F691" t="inlineStr"/>
+      <c r="F691" t="n">
+        <v>767</v>
+      </c>
       <c r="G691" t="n">
         <v>8.949749749749749</v>
       </c>
@@ -31391,7 +31573,9 @@
       <c r="E692" t="n">
         <v>546</v>
       </c>
-      <c r="F692" t="inlineStr"/>
+      <c r="F692" t="n">
+        <v>2425</v>
+      </c>
       <c r="G692" t="n">
         <v>8.641237113402061</v>
       </c>
@@ -31442,7 +31626,9 @@
       <c r="E693" t="n">
         <v>513</v>
       </c>
-      <c r="F693" t="inlineStr"/>
+      <c r="F693" t="n">
+        <v>2242</v>
+      </c>
       <c r="G693" t="n">
         <v>3.601288936627282</v>
       </c>
@@ -31479,7 +31665,9 @@
       <c r="E694" t="n">
         <v>339</v>
       </c>
-      <c r="F694" t="inlineStr"/>
+      <c r="F694" t="n">
+        <v>1399</v>
+      </c>
       <c r="G694" t="n">
         <v>8.683198446099061</v>
       </c>
@@ -31524,7 +31712,9 @@
       <c r="E695" t="n">
         <v>461</v>
       </c>
-      <c r="F695" t="inlineStr"/>
+      <c r="F695" t="n">
+        <v>2270</v>
+      </c>
       <c r="G695" t="n">
         <v>3.654277929155314</v>
       </c>
@@ -31561,7 +31751,9 @@
       <c r="E696" t="n">
         <v>315</v>
       </c>
-      <c r="F696" t="inlineStr"/>
+      <c r="F696" t="n">
+        <v>1260</v>
+      </c>
       <c r="G696" t="n">
         <v>8.49616724738676</v>
       </c>
@@ -31606,7 +31798,9 @@
       <c r="E697" t="n">
         <v>544</v>
       </c>
-      <c r="F697" t="inlineStr"/>
+      <c r="F697" t="n">
+        <v>2508</v>
+      </c>
       <c r="G697" t="n">
         <v>8.893368700265253</v>
       </c>
@@ -31657,7 +31851,9 @@
       <c r="E698" t="n">
         <v>862</v>
       </c>
-      <c r="F698" t="inlineStr"/>
+      <c r="F698" t="n">
+        <v>3749</v>
+      </c>
       <c r="G698" t="n">
         <v>9.49801699716714</v>
       </c>
@@ -31708,7 +31904,9 @@
       <c r="E699" t="n">
         <v>590</v>
       </c>
-      <c r="F699" t="inlineStr"/>
+      <c r="F699" t="n">
+        <v>2617</v>
+      </c>
       <c r="G699" t="n">
         <v>9.287534626038781</v>
       </c>
@@ -31759,7 +31957,9 @@
       <c r="E700" t="n">
         <v>561</v>
       </c>
-      <c r="F700" t="inlineStr"/>
+      <c r="F700" t="n">
+        <v>2498</v>
+      </c>
       <c r="G700" t="n">
         <v>8.666365105008078</v>
       </c>
@@ -31810,7 +32010,9 @@
       <c r="E701" t="n">
         <v>550</v>
       </c>
-      <c r="F701" t="inlineStr"/>
+      <c r="F701" t="n">
+        <v>2298</v>
+      </c>
       <c r="G701" t="n">
         <v>8.253046153846153</v>
       </c>
@@ -31861,7 +32063,9 @@
       <c r="E702" t="n">
         <v>552</v>
       </c>
-      <c r="F702" t="inlineStr"/>
+      <c r="F702" t="n">
+        <v>2577</v>
+      </c>
       <c r="G702" t="n">
         <v>9.173187414500683</v>
       </c>
@@ -31912,7 +32116,9 @@
       <c r="E703" t="n">
         <v>609</v>
       </c>
-      <c r="F703" t="inlineStr"/>
+      <c r="F703" t="n">
+        <v>2444</v>
+      </c>
       <c r="G703" t="n">
         <v>8.828966425279789</v>
       </c>
@@ -31963,7 +32169,9 @@
       <c r="E704" t="n">
         <v>598</v>
       </c>
-      <c r="F704" t="inlineStr"/>
+      <c r="F704" t="n">
+        <v>2524</v>
+      </c>
       <c r="G704" t="n">
         <v>8.952736982643525</v>
       </c>
@@ -32014,7 +32222,9 @@
       <c r="E705" t="n">
         <v>609</v>
       </c>
-      <c r="F705" t="inlineStr"/>
+      <c r="F705" t="n">
+        <v>2428</v>
+      </c>
       <c r="G705" t="n">
         <v>8.776963350785339</v>
       </c>
@@ -32065,7 +32275,9 @@
       <c r="E706" t="n">
         <v>438</v>
       </c>
-      <c r="F706" t="inlineStr"/>
+      <c r="F706" t="n">
+        <v>1798</v>
+      </c>
       <c r="G706" t="n">
         <v>8.928894806924101</v>
       </c>
@@ -32110,7 +32322,9 @@
       <c r="E707" t="n">
         <v>610</v>
       </c>
-      <c r="F707" t="inlineStr"/>
+      <c r="F707" t="n">
+        <v>2586</v>
+      </c>
       <c r="G707" t="n">
         <v>9.548736205055178</v>
       </c>
@@ -32155,7 +32369,9 @@
       <c r="E708" t="n">
         <v>426</v>
       </c>
-      <c r="F708" t="inlineStr"/>
+      <c r="F708" t="n">
+        <v>1811</v>
+      </c>
       <c r="G708" t="n">
         <v>8.585915492957746</v>
       </c>
@@ -32200,7 +32416,9 @@
       <c r="E709" t="n">
         <v>837</v>
       </c>
-      <c r="F709" t="inlineStr"/>
+      <c r="F709" t="n">
+        <v>4231</v>
+      </c>
       <c r="G709" t="n">
         <v>9.552136752136752</v>
       </c>
@@ -32245,7 +32463,9 @@
       <c r="E710" t="n">
         <v>402</v>
       </c>
-      <c r="F710" t="inlineStr"/>
+      <c r="F710" t="n">
+        <v>1743</v>
+      </c>
       <c r="G710" t="n">
         <v>8.808669950738917</v>
       </c>
@@ -32290,7 +32510,9 @@
       <c r="E711" t="n">
         <v>496</v>
       </c>
-      <c r="F711" t="inlineStr"/>
+      <c r="F711" t="n">
+        <v>2457</v>
+      </c>
       <c r="G711" t="n">
         <v>9.015932773109244</v>
       </c>
@@ -32341,7 +32563,9 @@
       <c r="E712" t="n">
         <v>378</v>
       </c>
-      <c r="F712" t="inlineStr"/>
+      <c r="F712" t="n">
+        <v>1803</v>
+      </c>
       <c r="G712" t="n">
         <v>8.869841269841269</v>
       </c>
@@ -32386,7 +32610,9 @@
       <c r="E713" t="n">
         <v>1202</v>
       </c>
-      <c r="F713" t="inlineStr"/>
+      <c r="F713" t="n">
+        <v>4835</v>
+      </c>
       <c r="G713" t="n">
         <v>8.574936061381074</v>
       </c>
@@ -32437,7 +32663,9 @@
       <c r="E714" t="n">
         <v>532</v>
       </c>
-      <c r="F714" t="inlineStr"/>
+      <c r="F714" t="n">
+        <v>2182</v>
+      </c>
       <c r="G714" t="n">
         <v>7.685501432664756</v>
       </c>
@@ -32488,7 +32716,9 @@
       <c r="E715" t="n">
         <v>405</v>
       </c>
-      <c r="F715" t="inlineStr"/>
+      <c r="F715" t="n">
+        <v>1775</v>
+      </c>
       <c r="G715" t="n">
         <v>8.461324921135647</v>
       </c>
@@ -32533,7 +32763,9 @@
       <c r="E716" t="n">
         <v>947</v>
       </c>
-      <c r="F716" t="inlineStr"/>
+      <c r="F716" t="n">
+        <v>4203</v>
+      </c>
       <c r="G716" t="n">
         <v>8.973703579792573</v>
       </c>
@@ -32584,7 +32816,9 @@
       <c r="E717" t="n">
         <v>414</v>
       </c>
-      <c r="F717" t="inlineStr"/>
+      <c r="F717" t="n">
+        <v>1730</v>
+      </c>
       <c r="G717" t="n">
         <v>8.705744888023368</v>
       </c>
@@ -32629,7 +32863,9 @@
       <c r="E718" t="n">
         <v>365</v>
       </c>
-      <c r="F718" t="inlineStr"/>
+      <c r="F718" t="n">
+        <v>1606</v>
+      </c>
       <c r="G718" t="n">
         <v>8.123076923076923</v>
       </c>
@@ -32674,7 +32910,9 @@
       <c r="E719" t="n">
         <v>913</v>
       </c>
-      <c r="F719" t="inlineStr"/>
+      <c r="F719" t="n">
+        <v>4198</v>
+      </c>
       <c r="G719" t="n">
         <v>8.905179282868525</v>
       </c>
@@ -32725,7 +32963,9 @@
       <c r="E720" t="n">
         <v>353</v>
       </c>
-      <c r="F720" t="inlineStr"/>
+      <c r="F720" t="n">
+        <v>2007</v>
+      </c>
       <c r="G720" t="n">
         <v>9.882977155490051</v>
       </c>
@@ -32776,7 +33016,9 @@
       <c r="E721" t="n">
         <v>6589</v>
       </c>
-      <c r="F721" t="inlineStr"/>
+      <c r="F721" t="n">
+        <v>41771</v>
+      </c>
       <c r="G721" t="n">
         <v>13.73394777265745</v>
       </c>
@@ -32817,7 +33059,9 @@
       <c r="E722" t="n">
         <v>1175</v>
       </c>
-      <c r="F722" t="inlineStr"/>
+      <c r="F722" t="n">
+        <v>5619</v>
+      </c>
       <c r="G722" t="n">
         <v>9.853930933137399</v>
       </c>
@@ -32868,7 +33112,9 @@
       <c r="E723" t="n">
         <v>1051</v>
       </c>
-      <c r="F723" t="inlineStr"/>
+      <c r="F723" t="n">
+        <v>5818</v>
+      </c>
       <c r="G723" t="n">
         <v>10.1025988700565</v>
       </c>
@@ -32919,7 +33165,9 @@
       <c r="E724" t="n">
         <v>342</v>
       </c>
-      <c r="F724" t="inlineStr"/>
+      <c r="F724" t="n">
+        <v>2617</v>
+      </c>
       <c r="G724" t="n">
         <v>10.63115338882283</v>
       </c>
@@ -32970,7 +33218,9 @@
       <c r="E725" t="n">
         <v>4019</v>
       </c>
-      <c r="F725" t="inlineStr"/>
+      <c r="F725" t="n">
+        <v>23124</v>
+      </c>
       <c r="G725" t="n">
         <v>11.42837665104389</v>
       </c>
@@ -33019,7 +33269,9 @@
       <c r="E726" t="n">
         <v>1019</v>
       </c>
-      <c r="F726" t="inlineStr"/>
+      <c r="F726" t="n">
+        <v>5629</v>
+      </c>
       <c r="G726" t="n">
         <v>10.08740127867619</v>
       </c>
@@ -33070,7 +33322,9 @@
       <c r="E727" t="n">
         <v>963</v>
       </c>
-      <c r="F727" t="inlineStr"/>
+      <c r="F727" t="n">
+        <v>5622</v>
+      </c>
       <c r="G727" t="n">
         <v>9.839471753484959</v>
       </c>
@@ -33121,7 +33375,9 @@
       <c r="E728" t="n">
         <v>2330</v>
       </c>
-      <c r="F728" t="inlineStr"/>
+      <c r="F728" t="n">
+        <v>14908</v>
+      </c>
       <c r="G728" t="n">
         <v>10.75908543922984</v>
       </c>
@@ -33170,7 +33426,9 @@
       <c r="E729" t="n">
         <v>1111</v>
       </c>
-      <c r="F729" t="inlineStr"/>
+      <c r="F729" t="n">
+        <v>5657</v>
+      </c>
       <c r="G729" t="n">
         <v>9.882977155490051</v>
       </c>
@@ -33221,7 +33479,9 @@
       <c r="E730" t="n">
         <v>1257</v>
       </c>
-      <c r="F730" t="inlineStr"/>
+      <c r="F730" t="n">
+        <v>6757</v>
+      </c>
       <c r="G730" t="n">
         <v>9.771366120218579</v>
       </c>
@@ -33272,7 +33532,9 @@
       <c r="E731" t="n">
         <v>781</v>
       </c>
-      <c r="F731" t="inlineStr"/>
+      <c r="F731" t="n">
+        <v>3202</v>
+      </c>
       <c r="G731" t="n">
         <v>8.498859315589353</v>
       </c>
@@ -33323,7 +33585,9 @@
       <c r="E732" t="n">
         <v>1430</v>
       </c>
-      <c r="F732" t="inlineStr"/>
+      <c r="F732" t="n">
+        <v>7818</v>
+      </c>
       <c r="G732" t="n">
         <v>10.35214203010421</v>
       </c>
@@ -33374,7 +33638,9 @@
       <c r="E733" t="n">
         <v>1050</v>
       </c>
-      <c r="F733" t="inlineStr"/>
+      <c r="F733" t="n">
+        <v>5607</v>
+      </c>
       <c r="G733" t="n">
         <v>9.76069868995633</v>
       </c>
@@ -33425,7 +33691,9 @@
       <c r="E734" t="n">
         <v>446</v>
       </c>
-      <c r="F734" t="inlineStr"/>
+      <c r="F734" t="n">
+        <v>2587</v>
+      </c>
       <c r="G734" t="n">
         <v>9.686673889490791</v>
       </c>
@@ -33476,7 +33744,9 @@
       <c r="E735" t="n">
         <v>4536</v>
       </c>
-      <c r="F735" t="inlineStr"/>
+      <c r="F735" t="n">
+        <v>24694</v>
+      </c>
       <c r="G735" t="n">
         <v>11.92636727434415</v>
       </c>
@@ -33525,7 +33795,9 @@
       <c r="E736" t="n">
         <v>492</v>
       </c>
-      <c r="F736" t="inlineStr"/>
+      <c r="F736" t="n">
+        <v>2436</v>
+      </c>
       <c r="G736" t="n">
         <v>9.129475833900612</v>
       </c>
@@ -33576,7 +33848,9 @@
       <c r="E737" t="n">
         <v>336</v>
       </c>
-      <c r="F737" t="inlineStr"/>
+      <c r="F737" t="n">
+        <v>1507</v>
+      </c>
       <c r="G737" t="n">
         <v>8.776963350785339</v>
       </c>
@@ -33627,7 +33901,9 @@
       <c r="E738" t="n">
         <v>544</v>
       </c>
-      <c r="F738" t="inlineStr"/>
+      <c r="F738" t="n">
+        <v>2600</v>
+      </c>
       <c r="G738" t="n">
         <v>9.126369513439945</v>
       </c>
@@ -33678,7 +33954,9 @@
       <c r="E739" t="n">
         <v>1218</v>
       </c>
-      <c r="F739" t="inlineStr"/>
+      <c r="F739" t="n">
+        <v>5146</v>
+      </c>
       <c r="G739" t="n">
         <v>9.009875713805846</v>
       </c>
@@ -33733,7 +34011,9 @@
       <c r="E740" t="n">
         <v>580</v>
       </c>
-      <c r="F740" t="inlineStr"/>
+      <c r="F740" t="n">
+        <v>2935</v>
+      </c>
       <c r="G740" t="n">
         <v>9.504748405386252</v>
       </c>
@@ -33784,7 +34064,9 @@
       <c r="E741" t="n">
         <v>554</v>
       </c>
-      <c r="F741" t="inlineStr"/>
+      <c r="F741" t="n">
+        <v>2576</v>
+      </c>
       <c r="G741" t="n">
         <v>8.952736982643525</v>
       </c>
@@ -33835,7 +34117,9 @@
       <c r="E742" t="n">
         <v>775</v>
       </c>
-      <c r="F742" t="inlineStr"/>
+      <c r="F742" t="n">
+        <v>3094</v>
+      </c>
       <c r="G742" t="n">
         <v>8.235308566165182</v>
       </c>
@@ -33886,7 +34170,9 @@
       <c r="E743" t="n">
         <v>539</v>
       </c>
-      <c r="F743" t="inlineStr"/>
+      <c r="F743" t="n">
+        <v>2753</v>
+      </c>
       <c r="G743" t="n">
         <v>9.821457341633101</v>
       </c>
@@ -33937,7 +34223,9 @@
       <c r="E744" t="n">
         <v>3573</v>
       </c>
-      <c r="F744" t="inlineStr"/>
+      <c r="F744" t="n">
+        <v>18347</v>
+      </c>
       <c r="G744" t="n">
         <v>10.79372233400403</v>
       </c>
@@ -33986,7 +34274,9 @@
       <c r="E745" t="n">
         <v>587</v>
       </c>
-      <c r="F745" t="inlineStr"/>
+      <c r="F745" t="n">
+        <v>3048</v>
+      </c>
       <c r="G745" t="n">
         <v>9.323044838373306</v>
       </c>
@@ -34031,7 +34321,9 @@
       <c r="E746" t="n">
         <v>1198</v>
       </c>
-      <c r="F746" t="inlineStr"/>
+      <c r="F746" t="n">
+        <v>5098</v>
+      </c>
       <c r="G746" t="n">
         <v>8.680388349514564</v>
       </c>
@@ -34082,7 +34374,9 @@
       <c r="E747" t="n">
         <v>586</v>
       </c>
-      <c r="F747" t="inlineStr"/>
+      <c r="F747" t="n">
+        <v>2937</v>
+      </c>
       <c r="G747" t="n">
         <v>9.028071356445642</v>
       </c>
@@ -34127,7 +34421,9 @@
       <c r="E748" t="n">
         <v>2600</v>
       </c>
-      <c r="F748" t="inlineStr"/>
+      <c r="F748" t="n">
+        <v>11959</v>
+      </c>
       <c r="G748" t="n">
         <v>10.37617021276596</v>
       </c>
@@ -34170,7 +34466,9 @@
       <c r="E749" t="n">
         <v>2321</v>
       </c>
-      <c r="F749" t="inlineStr"/>
+      <c r="F749" t="n">
+        <v>14299</v>
+      </c>
       <c r="G749" t="n">
         <v>11.15276507276507</v>
       </c>
@@ -34211,7 +34509,9 @@
       <c r="E750" t="n">
         <v>942</v>
       </c>
-      <c r="F750" t="inlineStr"/>
+      <c r="F750" t="n">
+        <v>4700</v>
+      </c>
       <c r="G750" t="n">
         <v>9.41136842105263</v>
       </c>
@@ -34262,7 +34562,9 @@
       <c r="E751" t="n">
         <v>1123.7</v>
       </c>
-      <c r="F751" t="inlineStr"/>
+      <c r="F751" t="n">
+        <v>3708</v>
+      </c>
       <c r="G751" t="n">
         <v>8.722731707317072</v>
       </c>
@@ -34297,7 +34599,9 @@
       <c r="E752" t="n">
         <v>919</v>
       </c>
-      <c r="F752" t="inlineStr"/>
+      <c r="F752" t="n">
+        <v>3720</v>
+      </c>
       <c r="G752" t="n">
         <v>8.652387096774193</v>
       </c>
@@ -34332,7 +34636,9 @@
       <c r="E753" t="n">
         <v>1687</v>
       </c>
-      <c r="F753" t="inlineStr"/>
+      <c r="F753" t="n">
+        <v>9879</v>
+      </c>
       <c r="G753" t="n">
         <v>10.94791836734694</v>
       </c>
@@ -34367,7 +34673,9 @@
       <c r="E754" t="n">
         <v>2472</v>
       </c>
-      <c r="F754" t="inlineStr"/>
+      <c r="F754" t="n">
+        <v>10749</v>
+      </c>
       <c r="G754" t="n">
         <v>9.686673889490791</v>
       </c>
@@ -34402,7 +34710,9 @@
       <c r="E755" t="n">
         <v>703.7</v>
       </c>
-      <c r="F755" t="inlineStr"/>
+      <c r="F755" t="n">
+        <v>2501</v>
+      </c>
       <c r="G755" t="n">
         <v>8.994768611670018</v>
       </c>
@@ -34437,7 +34747,9 @@
       <c r="E756" t="n">
         <v>2332</v>
       </c>
-      <c r="F756" t="inlineStr"/>
+      <c r="F756" t="n">
+        <v>17943</v>
+      </c>
       <c r="G756" t="n">
         <v>3.785266723116003</v>
       </c>
@@ -34472,7 +34784,9 @@
       <c r="E757" t="n">
         <v>2472</v>
       </c>
-      <c r="F757" t="inlineStr"/>
+      <c r="F757" t="n">
+        <v>11226</v>
+      </c>
       <c r="G757" t="n">
         <v>10.07981961668546</v>
       </c>
@@ -34507,7 +34821,9 @@
       <c r="E758" t="n">
         <v>885</v>
       </c>
-      <c r="F758" t="inlineStr"/>
+      <c r="F758" t="n">
+        <v>4400</v>
+      </c>
       <c r="G758" t="n">
         <v>3.62611869676896</v>
       </c>
@@ -34542,7 +34858,9 @@
       <c r="E759" t="n">
         <v>1074</v>
       </c>
-      <c r="F759" t="inlineStr"/>
+      <c r="F759" t="n">
+        <v>4973</v>
+      </c>
       <c r="G759" t="n">
         <v>9.198353909465022</v>
       </c>
@@ -34577,7 +34895,9 @@
       <c r="E760" t="n">
         <v>873</v>
       </c>
-      <c r="F760" t="inlineStr"/>
+      <c r="F760" t="n">
+        <v>3774</v>
+      </c>
       <c r="G760" t="n">
         <v>9.582851018220794</v>
       </c>
@@ -34612,7 +34932,9 @@
       <c r="E761" t="n">
         <v>2034</v>
       </c>
-      <c r="F761" t="inlineStr"/>
+      <c r="F761" t="n">
+        <v>9050</v>
+      </c>
       <c r="G761" t="n">
         <v>10.04584269662921</v>
       </c>
@@ -34647,7 +34969,9 @@
       <c r="E762" t="n">
         <v>610</v>
       </c>
-      <c r="F762" t="inlineStr"/>
+      <c r="F762" t="n">
+        <v>2461</v>
+      </c>
       <c r="G762" t="n">
         <v>8.919986697705353</v>
       </c>
@@ -34682,7 +35006,9 @@
       <c r="E763" t="n">
         <v>122</v>
       </c>
-      <c r="F763" t="inlineStr"/>
+      <c r="F763" t="n">
+        <v>508</v>
+      </c>
       <c r="G763" t="n">
         <v>11.9051930758988</v>
       </c>
@@ -34715,7 +35041,9 @@
       <c r="E764" t="n">
         <v>730</v>
       </c>
-      <c r="F764" t="inlineStr"/>
+      <c r="F764" t="n">
+        <v>3139</v>
+      </c>
       <c r="G764" t="n">
         <v>8.683198446099061</v>
       </c>
@@ -34750,7 +35078,9 @@
       <c r="E765" t="n">
         <v>745</v>
       </c>
-      <c r="F765" t="inlineStr"/>
+      <c r="F765" t="n">
+        <v>4351</v>
+      </c>
       <c r="G765" t="n">
         <v>3.617316250842886</v>
       </c>
@@ -34785,7 +35115,9 @@
       <c r="E766" t="n">
         <v>799</v>
       </c>
-      <c r="F766" t="inlineStr"/>
+      <c r="F766" t="n">
+        <v>3687</v>
+      </c>
       <c r="G766" t="n">
         <v>9.514863426747073</v>
       </c>
@@ -34820,7 +35152,9 @@
       <c r="E767" t="n">
         <v>526</v>
       </c>
-      <c r="F767" t="inlineStr"/>
+      <c r="F767" t="n">
+        <v>2431</v>
+      </c>
       <c r="G767" t="n">
         <v>8.914057826520439</v>
       </c>
@@ -34855,7 +35189,9 @@
       <c r="E768" t="n">
         <v>2197</v>
       </c>
-      <c r="F768" t="inlineStr"/>
+      <c r="F768" t="n">
+        <v>10457</v>
+      </c>
       <c r="G768" t="n">
         <v>10.44892871055707</v>
       </c>
@@ -34890,7 +35226,9 @@
       <c r="E769" t="n">
         <v>1243</v>
       </c>
-      <c r="F769" t="inlineStr"/>
+      <c r="F769" t="n">
+        <v>5153</v>
+      </c>
       <c r="G769" t="n">
         <v>9.558945117605132</v>
       </c>
@@ -34925,7 +35263,9 @@
       <c r="E770" t="n">
         <v>404</v>
       </c>
-      <c r="F770" t="inlineStr"/>
+      <c r="F770" t="n">
+        <v>2029</v>
+      </c>
       <c r="G770" t="n">
         <v>9.662247838616715</v>
       </c>
@@ -34960,7 +35300,9 @@
       <c r="E771" t="n">
         <v>2285</v>
       </c>
-      <c r="F771" t="inlineStr"/>
+      <c r="F771" t="n">
+        <v>11852</v>
+      </c>
       <c r="G771" t="n">
         <v>11.49695670810116</v>
       </c>
@@ -34995,7 +35337,9 @@
       <c r="E772" t="n">
         <v>552</v>
       </c>
-      <c r="F772" t="inlineStr"/>
+      <c r="F772" t="n">
+        <v>3019</v>
+      </c>
       <c r="G772" t="n">
         <v>4.517837291561395</v>
       </c>
@@ -35030,7 +35374,9 @@
       <c r="E773" t="n">
         <v>519</v>
       </c>
-      <c r="F773" t="inlineStr"/>
+      <c r="F773" t="n">
+        <v>2820</v>
+      </c>
       <c r="G773" t="n">
         <v>4.759964507542147</v>
       </c>
@@ -35065,7 +35411,9 @@
       <c r="E774" t="n">
         <v>363</v>
       </c>
-      <c r="F774" t="inlineStr"/>
+      <c r="F774" t="n">
+        <v>1634</v>
+      </c>
       <c r="G774" t="n">
         <v>8.725569290826286</v>
       </c>
@@ -35100,7 +35448,9 @@
       <c r="E775" t="n">
         <v>397</v>
       </c>
-      <c r="F775" t="inlineStr"/>
+      <c r="F775" t="n">
+        <v>1836</v>
+      </c>
       <c r="G775" t="n">
         <v>8.970702341137123</v>
       </c>
@@ -35135,7 +35485,9 @@
       <c r="E776" t="n">
         <v>393</v>
       </c>
-      <c r="F776" t="inlineStr"/>
+      <c r="F776" t="n">
+        <v>1857</v>
+      </c>
       <c r="G776" t="n">
         <v>9.135694822888283</v>
       </c>
@@ -35170,7 +35522,9 @@
       <c r="E777" t="n">
         <v>401</v>
       </c>
-      <c r="F777" t="inlineStr"/>
+      <c r="F777" t="n">
+        <v>1962</v>
+      </c>
       <c r="G777" t="n">
         <v>9.300416088765603</v>
       </c>
@@ -35205,7 +35559,9 @@
       <c r="E778" t="n">
         <v>756</v>
       </c>
-      <c r="F778" t="inlineStr"/>
+      <c r="F778" t="n">
+        <v>3066</v>
+      </c>
       <c r="G778" t="n">
         <v>9.447833744276155</v>
       </c>
@@ -35240,7 +35596,9 @@
       <c r="E779" t="n">
         <v>375</v>
       </c>
-      <c r="F779" t="inlineStr"/>
+      <c r="F779" t="n">
+        <v>1832</v>
+      </c>
       <c r="G779" t="n">
         <v>8.967703109327983</v>
       </c>
@@ -35275,7 +35633,9 @@
       <c r="E780" t="n">
         <v>18</v>
       </c>
-      <c r="F780" t="inlineStr"/>
+      <c r="F780" t="n">
+        <v>312</v>
+      </c>
       <c r="G780" t="n">
         <v>117.6421052631579</v>
       </c>
@@ -35308,7 +35668,9 @@
       <c r="E781" t="n">
         <v>85</v>
       </c>
-      <c r="F781" t="inlineStr"/>
+      <c r="F781" t="n">
+        <v>5024</v>
+      </c>
       <c r="G781" t="n">
         <v>212.8761904761905</v>
       </c>
@@ -35341,7 +35703,9 @@
       <c r="E782" t="n">
         <v>446</v>
       </c>
-      <c r="F782" t="inlineStr"/>
+      <c r="F782" t="n">
+        <v>2023</v>
+      </c>
       <c r="G782" t="n">
         <v>9.746511627906978</v>
       </c>
@@ -35376,7 +35740,9 @@
       <c r="E783" t="n">
         <v>0</v>
       </c>
-      <c r="F783" t="inlineStr"/>
+      <c r="F783" t="n">
+        <v>597</v>
+      </c>
       <c r="G783" t="n">
         <v>26822.4</v>
       </c>
@@ -35409,7 +35775,9 @@
       <c r="E784" t="n">
         <v>16</v>
       </c>
-      <c r="F784" t="inlineStr"/>
+      <c r="F784" t="n">
+        <v>768</v>
+      </c>
       <c r="G784" t="n">
         <v>239.4857142857143</v>
       </c>
@@ -35442,7 +35810,9 @@
       <c r="E785" t="n">
         <v>419</v>
       </c>
-      <c r="F785" t="inlineStr"/>
+      <c r="F785" t="n">
+        <v>1775</v>
+      </c>
       <c r="G785" t="n">
         <v>8.725569290826286</v>
       </c>
@@ -35477,7 +35847,9 @@
       <c r="E786" t="n">
         <v>412</v>
       </c>
-      <c r="F786" t="inlineStr"/>
+      <c r="F786" t="n">
+        <v>1970</v>
+      </c>
       <c r="G786" t="n">
         <v>10.2807205825987</v>
       </c>
@@ -35512,7 +35884,9 @@
       <c r="E787" t="n">
         <v>194</v>
       </c>
-      <c r="F787" t="inlineStr"/>
+      <c r="F787" t="n">
+        <v>2203</v>
+      </c>
       <c r="G787" t="n">
         <v>4.398556903902919</v>
       </c>
@@ -35547,7 +35921,9 @@
       <c r="E788" t="n">
         <v>221.3</v>
       </c>
-      <c r="F788" t="inlineStr"/>
+      <c r="F788" t="n">
+        <v>1918</v>
+      </c>
       <c r="G788" t="n">
         <v>4.148221466130529</v>
       </c>
@@ -35582,7 +35958,9 @@
       <c r="E789" t="n">
         <v>426</v>
       </c>
-      <c r="F789" t="inlineStr"/>
+      <c r="F789" t="n">
+        <v>1973</v>
+      </c>
       <c r="G789" t="n">
         <v>9.375183502271932</v>
       </c>
@@ -35617,7 +35995,9 @@
       <c r="E790" t="n">
         <v>419</v>
       </c>
-      <c r="F790" t="inlineStr"/>
+      <c r="F790" t="n">
+        <v>2193</v>
+      </c>
       <c r="G790" t="n">
         <v>4.394953301654924</v>
       </c>
@@ -35652,7 +36032,9 @@
       <c r="E791" t="n">
         <v>326</v>
       </c>
-      <c r="F791" t="inlineStr"/>
+      <c r="F791" t="n">
+        <v>2267</v>
+      </c>
       <c r="G791" t="n">
         <v>4.47189063021007</v>
       </c>
@@ -35687,7 +36069,9 @@
       <c r="E792" t="n">
         <v>443</v>
       </c>
-      <c r="F792" t="inlineStr"/>
+      <c r="F792" t="n">
+        <v>2114</v>
+      </c>
       <c r="G792" t="n">
         <v>4.213383600377003</v>
       </c>
@@ -35722,7 +36106,9 @@
       <c r="E793" t="n">
         <v>492</v>
       </c>
-      <c r="F793" t="inlineStr"/>
+      <c r="F793" t="n">
+        <v>2344</v>
+      </c>
       <c r="G793" t="n">
         <v>4.479358717434869</v>
       </c>
@@ -35757,7 +36143,9 @@
       <c r="E794" t="n">
         <v>458</v>
       </c>
-      <c r="F794" t="inlineStr"/>
+      <c r="F794" t="n">
+        <v>1926</v>
+      </c>
       <c r="G794" t="n">
         <v>9.217319587628866</v>
       </c>
@@ -35792,7 +36180,9 @@
       <c r="E795" t="n">
         <v>377</v>
       </c>
-      <c r="F795" t="inlineStr"/>
+      <c r="F795" t="n">
+        <v>1817</v>
+      </c>
       <c r="G795" t="n">
         <v>9.012903225806452</v>
       </c>
@@ -35827,7 +36217,9 @@
       <c r="E796" t="n">
         <v>688</v>
       </c>
-      <c r="F796" t="inlineStr"/>
+      <c r="F796" t="n">
+        <v>2966</v>
+      </c>
       <c r="G796" t="n">
         <v>9.080027081922816</v>
       </c>
@@ -35862,7 +36254,9 @@
       <c r="E797" t="n">
         <v>681</v>
       </c>
-      <c r="F797" t="inlineStr"/>
+      <c r="F797" t="n">
+        <v>3028</v>
+      </c>
       <c r="G797" t="n">
         <v>8.644021914276506</v>
       </c>
@@ -35897,7 +36291,9 @@
       <c r="E798" t="n">
         <v>446</v>
       </c>
-      <c r="F798" t="inlineStr"/>
+      <c r="F798" t="n">
+        <v>1750</v>
+      </c>
       <c r="G798" t="n">
         <v>9.904874446085671</v>
       </c>
@@ -35932,7 +36328,9 @@
       <c r="E799" t="n">
         <v>1820</v>
       </c>
-      <c r="F799" t="inlineStr"/>
+      <c r="F799" t="n">
+        <v>9714</v>
+      </c>
       <c r="G799" t="n">
         <v>4.106307409675444</v>
       </c>
@@ -35967,7 +36365,9 @@
       <c r="E800" t="n">
         <v>993</v>
       </c>
-      <c r="F800" t="inlineStr"/>
+      <c r="F800" t="n">
+        <v>6665</v>
+      </c>
       <c r="G800" t="n">
         <v>3.502075989032511</v>
       </c>
@@ -36002,7 +36402,9 @@
       <c r="E801" t="n">
         <v>1478</v>
       </c>
-      <c r="F801" t="inlineStr"/>
+      <c r="F801" t="n">
+        <v>9158</v>
+      </c>
       <c r="G801" t="n">
         <v>4.057851739788199</v>
       </c>
@@ -36037,7 +36439,9 @@
       <c r="E802" t="n">
         <v>1271</v>
       </c>
-      <c r="F802" t="inlineStr"/>
+      <c r="F802" t="n">
+        <v>5934</v>
+      </c>
       <c r="G802" t="n">
         <v>9.545338078291815</v>
       </c>
@@ -36072,7 +36476,9 @@
       <c r="E803" t="n">
         <v>357</v>
       </c>
-      <c r="F803" t="inlineStr"/>
+      <c r="F803" t="n">
+        <v>1793</v>
+      </c>
       <c r="G803" t="n">
         <v>9.170051282051283</v>
       </c>
@@ -36107,7 +36513,9 @@
       <c r="E804" t="n">
         <v>658</v>
       </c>
-      <c r="F804" t="inlineStr"/>
+      <c r="F804" t="n">
+        <v>3198</v>
+      </c>
       <c r="G804" t="n">
         <v>10.22195121951219</v>
       </c>
@@ -36142,7 +36550,9 @@
       <c r="E805" t="n">
         <v>361</v>
       </c>
-      <c r="F805" t="inlineStr"/>
+      <c r="F805" t="n">
+        <v>1792</v>
+      </c>
       <c r="G805" t="n">
         <v>8.748336594911938</v>
       </c>
@@ -36177,7 +36587,9 @@
       <c r="E806" t="n">
         <v>1105</v>
       </c>
-      <c r="F806" t="inlineStr"/>
+      <c r="F806" t="n">
+        <v>4784</v>
+      </c>
       <c r="G806" t="n">
         <v>9.850312155710615</v>
       </c>
@@ -36212,7 +36624,9 @@
       <c r="E807" t="n">
         <v>660</v>
       </c>
-      <c r="F807" t="inlineStr"/>
+      <c r="F807" t="n">
+        <v>2667</v>
+      </c>
       <c r="G807" t="n">
         <v>8.694457050243113</v>
       </c>
@@ -36247,7 +36661,9 @@
       <c r="E808" t="n">
         <v>370</v>
       </c>
-      <c r="F808" t="inlineStr"/>
+      <c r="F808" t="n">
+        <v>1769</v>
+      </c>
       <c r="G808" t="n">
         <v>9.070815015218127</v>
       </c>
@@ -36282,7 +36698,9 @@
       <c r="E809" t="n">
         <v>426</v>
       </c>
-      <c r="F809" t="inlineStr"/>
+      <c r="F809" t="n">
+        <v>2402</v>
+      </c>
       <c r="G809" t="n">
         <v>9.739433551198257</v>
       </c>
@@ -36317,7 +36735,9 @@
       <c r="E810" t="n">
         <v>843</v>
       </c>
-      <c r="F810" t="inlineStr"/>
+      <c r="F810" t="n">
+        <v>4604</v>
+      </c>
       <c r="G810" t="n">
         <v>3.786335403726708</v>
       </c>
@@ -36352,7 +36772,9 @@
       <c r="E811" t="n">
         <v>360</v>
       </c>
-      <c r="F811" t="inlineStr"/>
+      <c r="F811" t="n">
+        <v>1928</v>
+      </c>
       <c r="G811" t="n">
         <v>9.464502470007057</v>
       </c>
@@ -36387,7 +36809,9 @@
       <c r="E812" t="n">
         <v>671</v>
       </c>
-      <c r="F812" t="inlineStr"/>
+      <c r="F812" t="n">
+        <v>2978</v>
+      </c>
       <c r="G812" t="n">
         <v>9.086178861788618</v>
       </c>
@@ -36422,7 +36846,9 @@
       <c r="E813" t="n">
         <v>674</v>
       </c>
-      <c r="F813" t="inlineStr"/>
+      <c r="F813" t="n">
+        <v>3014</v>
+      </c>
       <c r="G813" t="n">
         <v>9.23954529796762</v>
       </c>
@@ -36457,7 +36883,9 @@
       <c r="E814" t="n">
         <v>394</v>
       </c>
-      <c r="F814" t="inlineStr"/>
+      <c r="F814" t="n">
+        <v>1739</v>
+      </c>
       <c r="G814" t="n">
         <v>8.834782608695651</v>
       </c>
@@ -36492,7 +36920,9 @@
       <c r="E815" t="n">
         <v>2942</v>
       </c>
-      <c r="F815" t="inlineStr"/>
+      <c r="F815" t="n">
+        <v>19200</v>
+      </c>
       <c r="G815" t="n">
         <v>13.51935483870968</v>
       </c>
@@ -36527,7 +36957,9 @@
       <c r="E816" t="n">
         <v>401</v>
       </c>
-      <c r="F816" t="inlineStr"/>
+      <c r="F816" t="n">
+        <v>1724</v>
+      </c>
       <c r="G816" t="n">
         <v>8.711399805131537</v>
       </c>
@@ -36562,7 +36994,9 @@
       <c r="E817" t="n">
         <v>618</v>
       </c>
-      <c r="F817" t="inlineStr"/>
+      <c r="F817" t="n">
+        <v>2887</v>
+      </c>
       <c r="G817" t="n">
         <v>9.092338983050846</v>
       </c>
@@ -36597,7 +37031,9 @@
       <c r="E818" t="n">
         <v>384</v>
       </c>
-      <c r="F818" t="inlineStr"/>
+      <c r="F818" t="n">
+        <v>1789</v>
+      </c>
       <c r="G818" t="n">
         <v>8.751190864600327</v>
       </c>
@@ -36632,7 +37068,9 @@
       <c r="E819" t="n">
         <v>1571</v>
       </c>
-      <c r="F819" t="inlineStr"/>
+      <c r="F819" t="n">
+        <v>7300</v>
+      </c>
       <c r="G819" t="n">
         <v>9.66572972972973</v>
       </c>
@@ -36667,7 +37105,9 @@
       <c r="E820" t="n">
         <v>383</v>
       </c>
-      <c r="F820" t="inlineStr"/>
+      <c r="F820" t="n">
+        <v>1682</v>
+      </c>
       <c r="G820" t="n">
         <v>8.61625441696113</v>
       </c>
@@ -36702,7 +37142,9 @@
       <c r="E821" t="n">
         <v>385</v>
       </c>
-      <c r="F821" t="inlineStr"/>
+      <c r="F821" t="n">
+        <v>1672</v>
+      </c>
       <c r="G821" t="n">
         <v>8.361097256857855</v>
       </c>
@@ -36737,7 +37179,9 @@
       <c r="E822" t="n">
         <v>396</v>
       </c>
-      <c r="F822" t="inlineStr"/>
+      <c r="F822" t="n">
+        <v>1647</v>
+      </c>
       <c r="G822" t="n">
         <v>8.268310727496917</v>
       </c>
@@ -36772,7 +37216,9 @@
       <c r="E823" t="n">
         <v>424</v>
       </c>
-      <c r="F823" t="inlineStr"/>
+      <c r="F823" t="n">
+        <v>1758</v>
+      </c>
       <c r="G823" t="n">
         <v>8.717062073448163</v>
       </c>
@@ -36807,7 +37253,9 @@
       <c r="E824" t="n">
         <v>391</v>
       </c>
-      <c r="F824" t="inlineStr"/>
+      <c r="F824" t="n">
+        <v>1826</v>
+      </c>
       <c r="G824" t="n">
         <v>9.236363636363636</v>
       </c>
@@ -36842,7 +37290,9 @@
       <c r="E825" t="n">
         <v>371</v>
       </c>
-      <c r="F825" t="inlineStr"/>
+      <c r="F825" t="n">
+        <v>4046</v>
+      </c>
       <c r="G825" t="n">
         <v>4.668825065274151</v>
       </c>
@@ -36877,7 +37327,9 @@
       <c r="E826" t="n">
         <v>1115</v>
       </c>
-      <c r="F826" t="inlineStr"/>
+      <c r="F826" t="n">
+        <v>5639</v>
+      </c>
       <c r="G826" t="n">
         <v>4.070784641068447</v>
       </c>
@@ -36912,7 +37364,9 @@
       <c r="E827" t="n">
         <v>905</v>
       </c>
-      <c r="F827" t="inlineStr"/>
+      <c r="F827" t="n">
+        <v>5536</v>
+      </c>
       <c r="G827" t="n">
         <v>3.854346888920822</v>
       </c>
@@ -36947,7 +37401,9 @@
       <c r="E828" t="n">
         <v>536</v>
       </c>
-      <c r="F828" t="inlineStr"/>
+      <c r="F828" t="n">
+        <v>3276</v>
+      </c>
       <c r="G828" t="n">
         <v>3.534378706021873</v>
       </c>
@@ -36982,7 +37438,9 @@
       <c r="E829" t="n">
         <v>405</v>
       </c>
-      <c r="F829" t="inlineStr"/>
+      <c r="F829" t="n">
+        <v>1658</v>
+      </c>
       <c r="G829" t="n">
         <v>8.258128078817734</v>
       </c>
@@ -37017,7 +37475,9 @@
       <c r="E830" t="n">
         <v>399</v>
       </c>
-      <c r="F830" t="inlineStr"/>
+      <c r="F830" t="n">
+        <v>1753</v>
+      </c>
       <c r="G830" t="n">
         <v>9.141922290388546</v>
       </c>
@@ -37052,7 +37512,9 @@
       <c r="E831" t="n">
         <v>1194</v>
       </c>
-      <c r="F831" t="inlineStr"/>
+      <c r="F831" t="n">
+        <v>7699</v>
+      </c>
       <c r="G831" t="n">
         <v>3.963706221368405</v>
       </c>
@@ -37087,7 +37549,9 @@
       <c r="E832" t="n">
         <v>382</v>
       </c>
-      <c r="F832" t="inlineStr"/>
+      <c r="F832" t="n">
+        <v>2700</v>
+      </c>
       <c r="G832" t="n">
         <v>3.835607035607036</v>
       </c>
@@ -37122,7 +37586,9 @@
       <c r="E833" t="n">
         <v>387</v>
       </c>
-      <c r="F833" t="inlineStr"/>
+      <c r="F833" t="n">
+        <v>1507</v>
+      </c>
       <c r="G833" t="n">
         <v>7.842807017543859</v>
       </c>
@@ -37157,7 +37623,9 @@
       <c r="E834" t="n">
         <v>1531</v>
       </c>
-      <c r="F834" t="inlineStr"/>
+      <c r="F834" t="n">
+        <v>6854</v>
+      </c>
       <c r="G834" t="n">
         <v>9.297192374350088</v>
       </c>
@@ -37192,7 +37660,9 @@
       <c r="E835" t="n">
         <v>407</v>
       </c>
-      <c r="F835" t="inlineStr"/>
+      <c r="F835" t="n">
+        <v>1693</v>
+      </c>
       <c r="G835" t="n">
         <v>8.429415461973601</v>
       </c>
@@ -37227,7 +37697,9 @@
       <c r="E836" t="n">
         <v>380</v>
       </c>
-      <c r="F836" t="inlineStr"/>
+      <c r="F836" t="n">
+        <v>1664</v>
+      </c>
       <c r="G836" t="n">
         <v>8.466666666666665</v>
       </c>
@@ -37262,7 +37734,9 @@
       <c r="E837" t="n">
         <v>380</v>
       </c>
-      <c r="F837" t="inlineStr"/>
+      <c r="F837" t="n">
+        <v>1760</v>
+      </c>
       <c r="G837" t="n">
         <v>8.525874125874127</v>
       </c>
@@ -37297,7 +37771,9 @@
       <c r="E838" t="n">
         <v>1162</v>
       </c>
-      <c r="F838" t="inlineStr"/>
+      <c r="F838" t="n">
+        <v>4914</v>
+      </c>
       <c r="G838" t="n">
         <v>8.988739946380697</v>
       </c>
@@ -37332,7 +37808,9 @@
       <c r="E839" t="n">
         <v>1024</v>
       </c>
-      <c r="F839" t="inlineStr"/>
+      <c r="F839" t="n">
+        <v>4486</v>
+      </c>
       <c r="G839" t="n">
         <v>8.329937888198758</v>
       </c>
@@ -37367,7 +37845,9 @@
       <c r="E840" t="n">
         <v>730</v>
       </c>
-      <c r="F840" t="inlineStr"/>
+      <c r="F840" t="n">
+        <v>3130</v>
+      </c>
       <c r="G840" t="n">
         <v>8.220165491878639</v>
       </c>
@@ -37402,7 +37882,9 @@
       <c r="E841" t="n">
         <v>317</v>
       </c>
-      <c r="F841" t="inlineStr"/>
+      <c r="F841" t="n">
+        <v>1414</v>
+      </c>
       <c r="G841" t="n">
         <v>8.175068576653459</v>
       </c>
@@ -37437,7 +37919,9 @@
       <c r="E842" t="n">
         <v>1075</v>
       </c>
-      <c r="F842" t="inlineStr"/>
+      <c r="F842" t="n">
+        <v>4025</v>
+      </c>
       <c r="G842" t="n">
         <v>8.147752126366951</v>
       </c>
@@ -37472,7 +37956,9 @@
       <c r="E843" t="n">
         <v>389</v>
       </c>
-      <c r="F843" t="inlineStr"/>
+      <c r="F843" t="n">
+        <v>1683</v>
+      </c>
       <c r="G843" t="n">
         <v>8.58042226487524</v>
       </c>
@@ -37507,7 +37993,9 @@
       <c r="E844" t="n">
         <v>763</v>
       </c>
-      <c r="F844" t="inlineStr"/>
+      <c r="F844" t="n">
+        <v>3215</v>
+      </c>
       <c r="G844" t="n">
         <v>8.309293680297397</v>
       </c>
@@ -37542,7 +38030,9 @@
       <c r="E845" t="n">
         <v>420</v>
       </c>
-      <c r="F845" t="inlineStr"/>
+      <c r="F845" t="n">
+        <v>1790</v>
+      </c>
       <c r="G845" t="n">
         <v>9.126369513439945</v>
       </c>
@@ -37577,7 +38067,9 @@
       <c r="E846" t="n">
         <v>2219</v>
       </c>
-      <c r="F846" t="inlineStr"/>
+      <c r="F846" t="n">
+        <v>10984</v>
+      </c>
       <c r="G846" t="n">
         <v>10.54339622641509</v>
       </c>
@@ -37612,7 +38104,9 @@
       <c r="E847" t="n">
         <v>377</v>
       </c>
-      <c r="F847" t="inlineStr"/>
+      <c r="F847" t="n">
+        <v>1483</v>
+      </c>
       <c r="G847" t="n">
         <v>7.835933391761612</v>
       </c>
@@ -37647,7 +38141,9 @@
       <c r="E848" t="n">
         <v>312</v>
       </c>
-      <c r="F848" t="inlineStr"/>
+      <c r="F848" t="n">
+        <v>1314</v>
+      </c>
       <c r="G848" t="n">
         <v>7.707586206896552</v>
       </c>
@@ -37682,7 +38178,9 @@
       <c r="E849" t="n">
         <v>857</v>
       </c>
-      <c r="F849" t="inlineStr"/>
+      <c r="F849" t="n">
+        <v>5734</v>
+      </c>
       <c r="G849" t="n">
         <v>11.58634989200864</v>
       </c>
@@ -37717,7 +38215,9 @@
       <c r="E850" t="n">
         <v>386</v>
       </c>
-      <c r="F850" t="inlineStr"/>
+      <c r="F850" t="n">
+        <v>1805</v>
+      </c>
       <c r="G850" t="n">
         <v>9.120163209792588</v>
       </c>
@@ -37752,7 +38252,9 @@
       <c r="E851" t="n">
         <v>411</v>
       </c>
-      <c r="F851" t="inlineStr"/>
+      <c r="F851" t="n">
+        <v>1721</v>
+      </c>
       <c r="G851" t="n">
         <v>8.711399805131537</v>
       </c>
@@ -37787,7 +38289,9 @@
       <c r="E852" t="n">
         <v>686</v>
       </c>
-      <c r="F852" t="inlineStr"/>
+      <c r="F852" t="n">
+        <v>2718</v>
+      </c>
       <c r="G852" t="n">
         <v>8.332525629077352</v>
       </c>
@@ -37822,7 +38326,9 @@
       <c r="E853" t="n">
         <v>405</v>
       </c>
-      <c r="F853" t="inlineStr"/>
+      <c r="F853" t="n">
+        <v>2109</v>
+      </c>
       <c r="G853" t="n">
         <v>8.572195589645254</v>
       </c>
@@ -37857,7 +38363,9 @@
       <c r="E854" t="n">
         <v>402</v>
       </c>
-      <c r="F854" t="inlineStr"/>
+      <c r="F854" t="n">
+        <v>6974</v>
+      </c>
       <c r="G854" t="n">
         <v>28.17478991596639</v>
       </c>
@@ -37892,7 +38400,9 @@
       <c r="E855" t="n">
         <v>684</v>
       </c>
-      <c r="F855" t="inlineStr"/>
+      <c r="F855" t="n">
+        <v>2709</v>
+      </c>
       <c r="G855" t="n">
         <v>10.16384994316029</v>
       </c>
@@ -37927,7 +38437,9 @@
       <c r="E856" t="n">
         <v>331</v>
       </c>
-      <c r="F856" t="inlineStr"/>
+      <c r="F856" t="n">
+        <v>1485</v>
+      </c>
       <c r="G856" t="n">
         <v>8.480050584887765</v>
       </c>
@@ -37962,7 +38474,9 @@
       <c r="E857" t="n">
         <v>370</v>
       </c>
-      <c r="F857" t="inlineStr"/>
+      <c r="F857" t="n">
+        <v>2171</v>
+      </c>
       <c r="G857" t="n">
         <v>10.34814814814815</v>
       </c>
@@ -37997,7 +38511,9 @@
       <c r="E858" t="n">
         <v>331</v>
       </c>
-      <c r="F858" t="inlineStr"/>
+      <c r="F858" t="n">
+        <v>1613</v>
+      </c>
       <c r="G858" t="n">
         <v>9.223658872077028</v>
       </c>
@@ -38032,7 +38548,9 @@
       <c r="E859" t="n">
         <v>1608</v>
       </c>
-      <c r="F859" t="inlineStr"/>
+      <c r="F859" t="n">
+        <v>8986</v>
+      </c>
       <c r="G859" t="n">
         <v>10.63536875495639</v>
       </c>
@@ -38067,7 +38585,9 @@
       <c r="E860" t="n">
         <v>336</v>
       </c>
-      <c r="F860" t="inlineStr"/>
+      <c r="F860" t="n">
+        <v>1476</v>
+      </c>
       <c r="G860" t="n">
         <v>8.624565916398714</v>
       </c>
@@ -38102,7 +38622,9 @@
       <c r="E861" t="n">
         <v>1291</v>
       </c>
-      <c r="F861" t="inlineStr"/>
+      <c r="F861" t="n">
+        <v>5247</v>
+      </c>
       <c r="G861" t="n">
         <v>8.515047619047619</v>
       </c>
@@ -38137,7 +38659,9 @@
       <c r="E862" t="n">
         <v>331</v>
       </c>
-      <c r="F862" t="inlineStr"/>
+      <c r="F862" t="n">
+        <v>1428</v>
+      </c>
       <c r="G862" t="n">
         <v>8.342892690513219</v>
       </c>
@@ -38172,7 +38696,9 @@
       <c r="E863" t="n">
         <v>520</v>
       </c>
-      <c r="F863" t="inlineStr"/>
+      <c r="F863" t="n">
+        <v>2144</v>
+      </c>
       <c r="G863" t="n">
         <v>8.345488487865588</v>
       </c>
@@ -38207,7 +38733,9 @@
       <c r="E864" t="n">
         <v>1096</v>
       </c>
-      <c r="F864" t="inlineStr"/>
+      <c r="F864" t="n">
+        <v>4882</v>
+      </c>
       <c r="G864" t="n">
         <v>10.32027702962678</v>
       </c>
@@ -38242,7 +38770,9 @@
       <c r="E865" t="n">
         <v>336</v>
       </c>
-      <c r="F865" t="inlineStr"/>
+      <c r="F865" t="n">
+        <v>1587</v>
+      </c>
       <c r="G865" t="n">
         <v>9.031111111111111</v>
       </c>
@@ -38277,7 +38807,9 @@
       <c r="E866" t="n">
         <v>402</v>
       </c>
-      <c r="F866" t="inlineStr"/>
+      <c r="F866" t="n">
+        <v>1767</v>
+      </c>
       <c r="G866" t="n">
         <v>8.58042226487524</v>
       </c>
@@ -38312,7 +38844,9 @@
       <c r="E867" t="n">
         <v>384</v>
       </c>
-      <c r="F867" t="inlineStr"/>
+      <c r="F867" t="n">
+        <v>1733</v>
+      </c>
       <c r="G867" t="n">
         <v>8.583168000000001</v>
       </c>
@@ -38347,7 +38881,9 @@
       <c r="E868" t="n">
         <v>402</v>
       </c>
-      <c r="F868" t="inlineStr"/>
+      <c r="F868" t="n">
+        <v>1688</v>
+      </c>
       <c r="G868" t="n">
         <v>8.403007518796992</v>
       </c>
@@ -38382,7 +38918,9 @@
       <c r="E869" t="n">
         <v>1461</v>
       </c>
-      <c r="F869" t="inlineStr"/>
+      <c r="F869" t="n">
+        <v>7022</v>
+      </c>
       <c r="G869" t="n">
         <v>9.565763195435093</v>
       </c>
@@ -38417,7 +38955,9 @@
       <c r="E870" t="n">
         <v>327</v>
       </c>
-      <c r="F870" t="inlineStr"/>
+      <c r="F870" t="n">
+        <v>1565</v>
+      </c>
       <c r="G870" t="n">
         <v>7.937969813554306</v>
       </c>
@@ -38452,7 +38992,9 @@
       <c r="E871" t="n">
         <v>336</v>
       </c>
-      <c r="F871" t="inlineStr"/>
+      <c r="F871" t="n">
+        <v>1589</v>
+      </c>
       <c r="G871" t="n">
         <v>8.397745773324983</v>
       </c>
@@ -38487,7 +39029,9 @@
       <c r="E872" t="n">
         <v>338</v>
       </c>
-      <c r="F872" t="inlineStr"/>
+      <c r="F872" t="n">
+        <v>1482</v>
+      </c>
       <c r="G872" t="n">
         <v>8.37938144329897</v>
       </c>
@@ -38522,7 +39066,9 @@
       <c r="E873" t="n">
         <v>341</v>
       </c>
-      <c r="F873" t="inlineStr"/>
+      <c r="F873" t="n">
+        <v>1597</v>
+      </c>
       <c r="G873" t="n">
         <v>8.991753268521622</v>
       </c>
@@ -38557,7 +39103,9 @@
       <c r="E874" t="n">
         <v>373</v>
       </c>
-      <c r="F874" t="inlineStr"/>
+      <c r="F874" t="n">
+        <v>1529</v>
+      </c>
       <c r="G874" t="n">
         <v>8.501553090332806</v>
       </c>
@@ -38592,7 +39140,9 @@
       <c r="E875" t="n">
         <v>357</v>
       </c>
-      <c r="F875" t="inlineStr"/>
+      <c r="F875" t="n">
+        <v>1524</v>
+      </c>
       <c r="G875" t="n">
         <v>8.152705167173252</v>
       </c>
@@ -38627,7 +39177,9 @@
       <c r="E876" t="n">
         <v>385</v>
       </c>
-      <c r="F876" t="inlineStr"/>
+      <c r="F876" t="n">
+        <v>1504</v>
+      </c>
       <c r="G876" t="n">
         <v>8.539446036294173</v>
       </c>
@@ -38662,7 +39214,9 @@
       <c r="E877" t="n">
         <v>428</v>
       </c>
-      <c r="F877" t="inlineStr"/>
+      <c r="F877" t="n">
+        <v>2142</v>
+      </c>
       <c r="G877" t="n">
         <v>9.63448275862069</v>
       </c>
@@ -38697,7 +39251,9 @@
       <c r="E878" t="n">
         <v>806</v>
       </c>
-      <c r="F878" t="inlineStr"/>
+      <c r="F878" t="n">
+        <v>3263</v>
+      </c>
       <c r="G878" t="n">
         <v>9.385024492652205</v>
       </c>
@@ -38732,7 +39288,9 @@
       <c r="E879" t="n">
         <v>393</v>
       </c>
-      <c r="F879" t="inlineStr"/>
+      <c r="F879" t="n">
+        <v>1565</v>
+      </c>
       <c r="G879" t="n">
         <v>8.488101265822785</v>
       </c>
@@ -38767,7 +39325,9 @@
       <c r="E880" t="n">
         <v>493</v>
       </c>
-      <c r="F880" t="inlineStr"/>
+      <c r="F880" t="n">
+        <v>2172</v>
+      </c>
       <c r="G880" t="n">
         <v>8.925923460898503</v>
       </c>
@@ -38802,7 +39362,9 @@
       <c r="E881" t="n">
         <v>342</v>
       </c>
-      <c r="F881" t="inlineStr"/>
+      <c r="F881" t="n">
+        <v>1606</v>
+      </c>
       <c r="G881" t="n">
         <v>8.501553090332806</v>
       </c>
@@ -38837,7 +39399,9 @@
       <c r="E882" t="n">
         <v>341</v>
       </c>
-      <c r="F882" t="inlineStr"/>
+      <c r="F882" t="n">
+        <v>1501</v>
+      </c>
       <c r="G882" t="n">
         <v>8.577678285897028</v>
       </c>
@@ -38872,7 +39436,9 @@
       <c r="E883" t="n">
         <v>385</v>
       </c>
-      <c r="F883" t="inlineStr"/>
+      <c r="F883" t="n">
+        <v>1769</v>
+      </c>
       <c r="G883" t="n">
         <v>9.481230116648993</v>
       </c>
@@ -38907,7 +39473,9 @@
       <c r="E884" t="n">
         <v>775</v>
       </c>
-      <c r="F884" t="inlineStr"/>
+      <c r="F884" t="n">
+        <v>3346</v>
+      </c>
       <c r="G884" t="n">
         <v>9.031111111111111</v>
       </c>
@@ -38942,7 +39510,9 @@
       <c r="E885" t="n">
         <v>810</v>
       </c>
-      <c r="F885" t="inlineStr"/>
+      <c r="F885" t="n">
+        <v>3594</v>
+      </c>
       <c r="G885" t="n">
         <v>9.242729152308751</v>
       </c>
@@ -38977,7 +39547,9 @@
       <c r="E886" t="n">
         <v>363</v>
       </c>
-      <c r="F886" t="inlineStr"/>
+      <c r="F886" t="n">
+        <v>1783</v>
+      </c>
       <c r="G886" t="n">
         <v>9.757148053837758</v>
       </c>
@@ -39012,7 +39584,9 @@
       <c r="E887" t="n">
         <v>403</v>
       </c>
-      <c r="F887" t="inlineStr"/>
+      <c r="F887" t="n">
+        <v>2978</v>
+      </c>
       <c r="G887" t="inlineStr"/>
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr"/>
@@ -39043,7 +39617,9 @@
       <c r="E888" t="n">
         <v>616</v>
       </c>
-      <c r="F888" t="inlineStr"/>
+      <c r="F888" t="n">
+        <v>2592</v>
+      </c>
       <c r="G888" t="n">
         <v>8.994768611670018</v>
       </c>
@@ -39078,7 +39654,9 @@
       <c r="E889" t="n">
         <v>357</v>
       </c>
-      <c r="F889" t="inlineStr"/>
+      <c r="F889" t="n">
+        <v>1681</v>
+      </c>
       <c r="G889" t="n">
         <v>9.173187414500683</v>
       </c>
@@ -39113,7 +39691,9 @@
       <c r="E890" t="n">
         <v>676</v>
       </c>
-      <c r="F890" t="inlineStr"/>
+      <c r="F890" t="n">
+        <v>3073</v>
+      </c>
       <c r="G890" t="n">
         <v>7.982857142857143</v>
       </c>
@@ -39148,7 +39728,9 @@
       <c r="E891" t="n">
         <v>285</v>
       </c>
-      <c r="F891" t="inlineStr"/>
+      <c r="F891" t="n">
+        <v>1220</v>
+      </c>
       <c r="G891" t="n">
         <v>7.583375742154367</v>
       </c>
@@ -39183,7 +39765,9 @@
       <c r="E892" t="n">
         <v>395</v>
       </c>
-      <c r="F892" t="inlineStr"/>
+      <c r="F892" t="n">
+        <v>1754</v>
+      </c>
       <c r="G892" t="n">
         <v>9.514863426747073</v>
       </c>
@@ -39218,7 +39802,9 @@
       <c r="E893" t="n">
         <v>787</v>
       </c>
-      <c r="F893" t="inlineStr"/>
+      <c r="F893" t="n">
+        <v>3102</v>
+      </c>
       <c r="G893" t="n">
         <v>8.324767225325884</v>
       </c>
@@ -39253,7 +39839,9 @@
       <c r="E894" t="n">
         <v>347</v>
       </c>
-      <c r="F894" t="inlineStr"/>
+      <c r="F894" t="n">
+        <v>1516</v>
+      </c>
       <c r="G894" t="n">
         <v>8.7913470993117</v>
       </c>
@@ -39288,7 +39876,9 @@
       <c r="E895" t="n">
         <v>168</v>
       </c>
-      <c r="F895" t="inlineStr"/>
+      <c r="F895" t="n">
+        <v>802</v>
+      </c>
       <c r="G895" t="n">
         <v>9.683176895306859</v>
       </c>
@@ -39323,7 +39913,9 @@
       <c r="E896" t="n">
         <v>598</v>
       </c>
-      <c r="F896" t="inlineStr"/>
+      <c r="F896" t="n">
+        <v>2276</v>
+      </c>
       <c r="G896" t="n">
         <v>9.067748478701825</v>
       </c>
@@ -39358,7 +39950,9 @@
       <c r="E897" t="n">
         <v>685</v>
       </c>
-      <c r="F897" t="inlineStr"/>
+      <c r="F897" t="n">
+        <v>2909</v>
+      </c>
       <c r="G897" t="n">
         <v>8.466666666666665</v>
       </c>
@@ -39393,7 +39987,9 @@
       <c r="E898" t="n">
         <v>561</v>
       </c>
-      <c r="F898" t="inlineStr"/>
+      <c r="F898" t="n">
+        <v>2392</v>
+      </c>
       <c r="G898" t="n">
         <v>9.912195121951219</v>
       </c>
@@ -39428,7 +40024,9 @@
       <c r="E899" t="n">
         <v>397</v>
       </c>
-      <c r="F899" t="inlineStr"/>
+      <c r="F899" t="n">
+        <v>1753</v>
+      </c>
       <c r="G899" t="n">
         <v>9.941586360266864</v>
       </c>
@@ -39463,7 +40061,9 @@
       <c r="E900" t="n">
         <v>615</v>
       </c>
-      <c r="F900" t="inlineStr"/>
+      <c r="F900" t="n">
+        <v>2611</v>
+      </c>
       <c r="G900" t="n">
         <v>13.8832298136646</v>
       </c>
@@ -39498,7 +40098,9 @@
       <c r="E901" t="n">
         <v>672</v>
       </c>
-      <c r="F901" t="inlineStr"/>
+      <c r="F901" t="n">
+        <v>2638</v>
+      </c>
       <c r="G901" t="n">
         <v>12.04959568733154</v>
       </c>
@@ -39533,7 +40135,9 @@
       <c r="E902" t="n">
         <v>226</v>
       </c>
-      <c r="F902" t="inlineStr"/>
+      <c r="F902" t="n">
+        <v>1036</v>
+      </c>
       <c r="G902" t="n">
         <v>9.803508771929824</v>
       </c>
@@ -39568,7 +40172,9 @@
       <c r="E903" t="n">
         <v>3225</v>
       </c>
-      <c r="F903" t="inlineStr"/>
+      <c r="F903" t="n">
+        <v>17056</v>
+      </c>
       <c r="G903" t="n">
         <v>3.835607035607036</v>
       </c>
@@ -39603,7 +40209,9 @@
       <c r="E904" t="n">
         <v>21</v>
       </c>
-      <c r="F904" t="inlineStr"/>
+      <c r="F904" t="n">
+        <v>613</v>
+      </c>
       <c r="G904" t="n">
         <v>167.64</v>
       </c>
@@ -39636,7 +40244,9 @@
       <c r="E905" t="n">
         <v>562</v>
       </c>
-      <c r="F905" t="inlineStr"/>
+      <c r="F905" t="n">
+        <v>2222</v>
+      </c>
       <c r="G905" t="n">
         <v>9.662247838616715</v>
       </c>
@@ -39671,7 +40281,9 @@
       <c r="E906" t="n">
         <v>580</v>
       </c>
-      <c r="F906" t="inlineStr"/>
+      <c r="F906" t="n">
+        <v>3978</v>
+      </c>
       <c r="G906" t="n">
         <v>4.047442281575374</v>
       </c>
@@ -39706,7 +40318,9 @@
       <c r="E907" t="n">
         <v>683</v>
       </c>
-      <c r="F907" t="inlineStr"/>
+      <c r="F907" t="n">
+        <v>3517</v>
+      </c>
       <c r="G907" t="n">
         <v>3.684395604395605</v>
       </c>
@@ -39741,7 +40355,9 @@
       <c r="E908" t="n">
         <v>258</v>
       </c>
-      <c r="F908" t="inlineStr"/>
+      <c r="F908" t="n">
+        <v>2044</v>
+      </c>
       <c r="G908" t="n">
         <v>4.768426666666667</v>
       </c>
@@ -39776,7 +40392,9 @@
       <c r="E909" t="n">
         <v>768</v>
       </c>
-      <c r="F909" t="inlineStr"/>
+      <c r="F909" t="n">
+        <v>4914</v>
+      </c>
       <c r="G909" t="n">
         <v>4.517076456719434</v>
       </c>
@@ -39811,7 +40429,9 @@
       <c r="E910" t="n">
         <v>862</v>
       </c>
-      <c r="F910" t="inlineStr"/>
+      <c r="F910" t="n">
+        <v>5783</v>
+      </c>
       <c r="G910" t="n">
         <v>4.454068415808701</v>
       </c>
@@ -39846,7 +40466,9 @@
       <c r="E911" t="n">
         <v>947</v>
       </c>
-      <c r="F911" t="inlineStr"/>
+      <c r="F911" t="n">
+        <v>7350</v>
+      </c>
       <c r="G911" t="n">
         <v>4.1019116072794</v>
       </c>
@@ -39881,7 +40503,9 @@
       <c r="E912" t="n">
         <v>866</v>
       </c>
-      <c r="F912" t="inlineStr"/>
+      <c r="F912" t="n">
+        <v>3460</v>
+      </c>
       <c r="G912" t="n">
         <v>9.648345323741006</v>
       </c>
@@ -39916,7 +40540,9 @@
       <c r="E913" t="n">
         <v>192</v>
       </c>
-      <c r="F913" t="inlineStr"/>
+      <c r="F913" t="n">
+        <v>929</v>
+      </c>
       <c r="G913" t="n">
         <v>9.378461538461538</v>
       </c>
@@ -39951,7 +40577,9 @@
       <c r="E914" t="n">
         <v>833</v>
       </c>
-      <c r="F914" t="inlineStr"/>
+      <c r="F914" t="n">
+        <v>3532</v>
+      </c>
       <c r="G914" t="n">
         <v>9.95265306122449</v>
       </c>
@@ -39986,7 +40614,9 @@
       <c r="E915" t="n">
         <v>862</v>
       </c>
-      <c r="F915" t="inlineStr"/>
+      <c r="F915" t="n">
+        <v>3988</v>
+      </c>
       <c r="G915" t="n">
         <v>4.098777506112469</v>
       </c>
@@ -40021,7 +40651,9 @@
       <c r="E916" t="n">
         <v>689</v>
       </c>
-      <c r="F916" t="inlineStr"/>
+      <c r="F916" t="n">
+        <v>3787</v>
+      </c>
       <c r="G916" t="n">
         <v>3.855454937473048</v>
       </c>
@@ -40056,7 +40688,9 @@
       <c r="E917" t="n">
         <v>679</v>
       </c>
-      <c r="F917" t="inlineStr"/>
+      <c r="F917" t="n">
+        <v>4241</v>
+      </c>
       <c r="G917" t="n">
         <v>11.32224567327986</v>
       </c>
@@ -40091,7 +40725,9 @@
       <c r="E918" t="n">
         <v>1159</v>
       </c>
-      <c r="F918" t="inlineStr"/>
+      <c r="F918" t="n">
+        <v>4539</v>
+      </c>
       <c r="G918" t="n">
         <v>9.223658872077028</v>
       </c>
@@ -40126,7 +40762,9 @@
       <c r="E919" t="n">
         <v>769</v>
       </c>
-      <c r="F919" t="inlineStr"/>
+      <c r="F919" t="n">
+        <v>3174</v>
+      </c>
       <c r="G919" t="n">
         <v>8.686010362694299</v>
       </c>
@@ -40161,7 +40799,9 @@
       <c r="E920" t="n">
         <v>971</v>
       </c>
-      <c r="F920" t="inlineStr"/>
+      <c r="F920" t="n">
+        <v>4550</v>
+      </c>
       <c r="G920" t="n">
         <v>10.97928776094965</v>
       </c>
@@ -40196,7 +40836,9 @@
       <c r="E921" t="n">
         <v>723</v>
       </c>
-      <c r="F921" t="inlineStr"/>
+      <c r="F921" t="n">
+        <v>3508</v>
+      </c>
       <c r="G921" t="n">
         <v>10.11402714932127</v>
       </c>
@@ -40231,7 +40873,9 @@
       <c r="E922" t="n">
         <v>787</v>
       </c>
-      <c r="F922" t="inlineStr"/>
+      <c r="F922" t="n">
+        <v>3373</v>
+      </c>
       <c r="G922" t="n">
         <v>9.457827926657265</v>
       </c>
@@ -40266,7 +40910,9 @@
       <c r="E923" t="n">
         <v>973</v>
       </c>
-      <c r="F923" t="inlineStr"/>
+      <c r="F923" t="n">
+        <v>4726</v>
+      </c>
       <c r="G923" t="n">
         <v>11.42350936967632</v>
       </c>
@@ -40301,7 +40947,9 @@
       <c r="E924" t="n">
         <v>4844</v>
       </c>
-      <c r="F924" t="inlineStr"/>
+      <c r="F924" t="n">
+        <v>23804</v>
+      </c>
       <c r="G924" t="n">
         <v>13.54666666666667</v>
       </c>
@@ -40336,7 +40984,9 @@
       <c r="E925" t="n">
         <v>553</v>
       </c>
-      <c r="F925" t="inlineStr"/>
+      <c r="F925" t="n">
+        <v>2668</v>
+      </c>
       <c r="G925" t="n">
         <v>10.40838183934808</v>
       </c>
@@ -40371,7 +41021,9 @@
       <c r="E926" t="n">
         <v>538</v>
       </c>
-      <c r="F926" t="inlineStr"/>
+      <c r="F926" t="n">
+        <v>2700</v>
+      </c>
       <c r="G926" t="n">
         <v>10.61012658227848</v>
       </c>
@@ -40406,7 +41058,9 @@
       <c r="E927" t="n">
         <v>1246</v>
       </c>
-      <c r="F927" t="inlineStr"/>
+      <c r="F927" t="n">
+        <v>5522</v>
+      </c>
       <c r="G927" t="n">
         <v>9.052446844414444</v>
       </c>
@@ -40441,7 +41095,9 @@
       <c r="E928" t="n">
         <v>793</v>
       </c>
-      <c r="F928" t="inlineStr"/>
+      <c r="F928" t="n">
+        <v>3124</v>
+      </c>
       <c r="G928" t="n">
         <v>8.655179090029041</v>
       </c>
@@ -40476,7 +41132,9 @@
       <c r="E929" t="n">
         <v>761</v>
       </c>
-      <c r="F929" t="inlineStr"/>
+      <c r="F929" t="n">
+        <v>3335</v>
+      </c>
       <c r="G929" t="n">
         <v>9.427908611599296</v>
       </c>
@@ -40511,7 +41169,9 @@
       <c r="E930" t="n">
         <v>2371</v>
       </c>
-      <c r="F930" t="inlineStr"/>
+      <c r="F930" t="n">
+        <v>11072</v>
+      </c>
       <c r="G930" t="n">
         <v>11.31746835443038</v>
       </c>
@@ -40546,7 +41206,9 @@
       <c r="E931" t="n">
         <v>1027</v>
       </c>
-      <c r="F931" t="inlineStr"/>
+      <c r="F931" t="n">
+        <v>5267</v>
+      </c>
       <c r="G931" t="n">
         <v>10.11784232365145</v>
       </c>
@@ -40581,7 +41243,9 @@
       <c r="E932" t="n">
         <v>1066</v>
       </c>
-      <c r="F932" t="inlineStr"/>
+      <c r="F932" t="n">
+        <v>5236</v>
+      </c>
       <c r="G932" t="n">
         <v>10.90784871899146</v>
       </c>
@@ -40616,7 +41280,9 @@
       <c r="E933" t="n">
         <v>1205</v>
       </c>
-      <c r="F933" t="inlineStr"/>
+      <c r="F933" t="n">
+        <v>7505</v>
+      </c>
       <c r="G933" t="n">
         <v>21.17000789265983</v>
       </c>
@@ -40651,7 +41317,9 @@
       <c r="E934" t="n">
         <v>494</v>
       </c>
-      <c r="F934" t="inlineStr"/>
+      <c r="F934" t="n">
+        <v>2346</v>
+      </c>
       <c r="G934" t="n">
         <v>9.697180043383948</v>
       </c>
@@ -40686,7 +41354,9 @@
       <c r="E935" t="n">
         <v>1050</v>
       </c>
-      <c r="F935" t="inlineStr"/>
+      <c r="F935" t="n">
+        <v>6436</v>
+      </c>
       <c r="G935" t="n">
         <v>13.28499257057949</v>
       </c>
@@ -40721,7 +41391,9 @@
       <c r="E936" t="n">
         <v>1308</v>
       </c>
-      <c r="F936" t="inlineStr"/>
+      <c r="F936" t="n">
+        <v>6459</v>
+      </c>
       <c r="G936" t="n">
         <v>10.33618497109827</v>
       </c>
@@ -40756,7 +41428,9 @@
       <c r="E937" t="n">
         <v>760</v>
       </c>
-      <c r="F937" t="inlineStr"/>
+      <c r="F937" t="n">
+        <v>3426</v>
+      </c>
       <c r="G937" t="n">
         <v>8.991753268521622</v>
       </c>
@@ -40791,7 +41465,9 @@
       <c r="E938" t="n">
         <v>2888</v>
       </c>
-      <c r="F938" t="inlineStr"/>
+      <c r="F938" t="n">
+        <v>15957</v>
+      </c>
       <c r="G938" t="n">
         <v>11.15276507276507</v>
       </c>
@@ -40826,7 +41502,9 @@
       <c r="E939" t="n">
         <v>692</v>
       </c>
-      <c r="F939" t="inlineStr"/>
+      <c r="F939" t="n">
+        <v>3177</v>
+      </c>
       <c r="G939" t="n">
         <v>8.823157894736841</v>
       </c>
@@ -40861,7 +41539,9 @@
       <c r="E940" t="n">
         <v>967</v>
       </c>
-      <c r="F940" t="inlineStr"/>
+      <c r="F940" t="n">
+        <v>5396</v>
+      </c>
       <c r="G940" t="n">
         <v>10.13696145124717</v>
       </c>
@@ -40896,7 +41576,9 @@
       <c r="E941" t="n">
         <v>2359</v>
       </c>
-      <c r="F941" t="inlineStr"/>
+      <c r="F941" t="n">
+        <v>11985</v>
+      </c>
       <c r="G941" t="n">
         <v>13.91203319502075</v>
       </c>
@@ -40931,7 +41613,9 @@
       <c r="E942" t="n">
         <v>1228</v>
       </c>
-      <c r="F942" t="inlineStr"/>
+      <c r="F942" t="n">
+        <v>5401</v>
+      </c>
       <c r="G942" t="n">
         <v>9.514863426747073</v>
       </c>
@@ -40966,7 +41650,9 @@
       <c r="E943" t="n">
         <v>697</v>
       </c>
-      <c r="F943" t="inlineStr"/>
+      <c r="F943" t="n">
+        <v>3149</v>
+      </c>
       <c r="G943" t="n">
         <v>9.323044838373306</v>
       </c>
@@ -41001,7 +41687,9 @@
       <c r="E944" t="n">
         <v>752</v>
       </c>
-      <c r="F944" t="inlineStr"/>
+      <c r="F944" t="n">
+        <v>3412</v>
+      </c>
       <c r="G944" t="n">
         <v>9.610318882121105</v>
       </c>
@@ -41036,7 +41724,9 @@
       <c r="E945" t="n">
         <v>2556</v>
       </c>
-      <c r="F945" t="inlineStr"/>
+      <c r="F945" t="n">
+        <v>13850</v>
+      </c>
       <c r="G945" t="n">
         <v>11.28888888888889</v>
       </c>
@@ -41071,7 +41761,9 @@
       <c r="E946" t="n">
         <v>691</v>
       </c>
-      <c r="F946" t="inlineStr"/>
+      <c r="F946" t="n">
+        <v>2997</v>
+      </c>
       <c r="G946" t="n">
         <v>8.563984674329502</v>
       </c>
@@ -41106,7 +41798,9 @@
       <c r="E947" t="n">
         <v>986</v>
       </c>
-      <c r="F947" t="inlineStr"/>
+      <c r="F947" t="n">
+        <v>4684</v>
+      </c>
       <c r="G947" t="n">
         <v>11.60640415404587</v>
       </c>
@@ -41141,7 +41835,9 @@
       <c r="E948" t="n">
         <v>796</v>
       </c>
-      <c r="F948" t="inlineStr"/>
+      <c r="F948" t="n">
+        <v>3238</v>
+      </c>
       <c r="G948" t="n">
         <v>11.72820288587669</v>
       </c>
@@ -41176,7 +41872,9 @@
       <c r="E949" t="n">
         <v>519</v>
       </c>
-      <c r="F949" t="inlineStr"/>
+      <c r="F949" t="n">
+        <v>2364</v>
+      </c>
       <c r="G949" t="n">
         <v>9.043290627107213</v>
       </c>
@@ -41211,7 +41909,9 @@
       <c r="E950" t="n">
         <v>667</v>
       </c>
-      <c r="F950" t="inlineStr"/>
+      <c r="F950" t="n">
+        <v>2981</v>
+      </c>
       <c r="G950" t="n">
         <v>9.679682425117287</v>
       </c>
@@ -41246,7 +41946,9 @@
       <c r="E951" t="n">
         <v>2315</v>
       </c>
-      <c r="F951" t="inlineStr"/>
+      <c r="F951" t="n">
+        <v>13966</v>
+      </c>
       <c r="G951" t="n">
         <v>12.74828897338403</v>
       </c>
@@ -41281,7 +41983,9 @@
       <c r="E952" t="n">
         <v>953</v>
       </c>
-      <c r="F952" t="inlineStr"/>
+      <c r="F952" t="n">
+        <v>4290</v>
+      </c>
       <c r="G952" t="n">
         <v>8.852277227722773</v>
       </c>
@@ -41316,7 +42020,9 @@
       <c r="E953" t="n">
         <v>931</v>
       </c>
-      <c r="F953" t="inlineStr"/>
+      <c r="F953" t="n">
+        <v>6090</v>
+      </c>
       <c r="G953" t="n">
         <v>12.28694457169033</v>
       </c>
@@ -41351,7 +42057,9 @@
       <c r="E954" t="n">
         <v>768</v>
       </c>
-      <c r="F954" t="inlineStr"/>
+      <c r="F954" t="n">
+        <v>3329</v>
+      </c>
       <c r="G954" t="n">
         <v>8.649596904224444</v>
       </c>
@@ -41386,7 +42094,9 @@
       <c r="E955" t="n">
         <v>779</v>
       </c>
-      <c r="F955" t="inlineStr"/>
+      <c r="F955" t="n">
+        <v>3659</v>
+      </c>
       <c r="G955" t="n">
         <v>10.08740127867619</v>
       </c>
@@ -41421,7 +42131,9 @@
       <c r="E956" t="n">
         <v>757</v>
       </c>
-      <c r="F956" t="inlineStr"/>
+      <c r="F956" t="n">
+        <v>3519</v>
+      </c>
       <c r="G956" t="n">
         <v>9.725308194343727</v>
       </c>
@@ -41456,7 +42168,9 @@
       <c r="E957" t="n">
         <v>752</v>
       </c>
-      <c r="F957" t="inlineStr"/>
+      <c r="F957" t="n">
+        <v>3377</v>
+      </c>
       <c r="G957" t="n">
         <v>9.089257878685192</v>
       </c>
@@ -41491,7 +42205,9 @@
       <c r="E958" t="n">
         <v>365</v>
       </c>
-      <c r="F958" t="inlineStr"/>
+      <c r="F958" t="n">
+        <v>2140</v>
+      </c>
       <c r="G958" t="n">
         <v>12.05501123595505</v>
       </c>
@@ -41526,7 +42242,9 @@
       <c r="E959" t="n">
         <v>927</v>
       </c>
-      <c r="F959" t="inlineStr"/>
+      <c r="F959" t="n">
+        <v>4151</v>
+      </c>
       <c r="G959" t="n">
         <v>8.558519463943842</v>
       </c>
@@ -41561,7 +42279,9 @@
       <c r="E960" t="n">
         <v>989</v>
       </c>
-      <c r="F960" t="inlineStr"/>
+      <c r="F960" t="n">
+        <v>4563</v>
+      </c>
       <c r="G960" t="n">
         <v>9.545338078291815</v>
       </c>
@@ -41596,7 +42316,9 @@
       <c r="E961" t="n">
         <v>1237</v>
       </c>
-      <c r="F961" t="inlineStr"/>
+      <c r="F961" t="n">
+        <v>6278</v>
+      </c>
       <c r="G961" t="n">
         <v>10.38018575851393</v>
       </c>
@@ -41631,7 +42353,9 @@
       <c r="E962" t="n">
         <v>1818</v>
       </c>
-      <c r="F962" t="inlineStr"/>
+      <c r="F962" t="n">
+        <v>11086</v>
+      </c>
       <c r="G962" t="n">
         <v>11.59636835278859</v>
       </c>
@@ -41666,7 +42390,9 @@
       <c r="E963" t="n">
         <v>757</v>
       </c>
-      <c r="F963" t="inlineStr"/>
+      <c r="F963" t="n">
+        <v>3399</v>
+      </c>
       <c r="G963" t="n">
         <v>9.223658872077028</v>
       </c>
@@ -41701,7 +42427,9 @@
       <c r="E964" t="n">
         <v>497</v>
       </c>
-      <c r="F964" t="inlineStr"/>
+      <c r="F964" t="n">
+        <v>2258</v>
+      </c>
       <c r="G964" t="n">
         <v>9.919526627218934</v>
       </c>
@@ -41736,7 +42464,9 @@
       <c r="E965" t="n">
         <v>283</v>
       </c>
-      <c r="F965" t="inlineStr"/>
+      <c r="F965" t="n">
+        <v>2629</v>
+      </c>
       <c r="G965" t="n">
         <v>10.18314350797267</v>
       </c>
@@ -41771,7 +42501,9 @@
       <c r="E966" t="n">
         <v>1791</v>
       </c>
-      <c r="F966" t="inlineStr"/>
+      <c r="F966" t="n">
+        <v>18618</v>
+      </c>
       <c r="G966" t="n">
         <v>9.897564575645758</v>
       </c>
@@ -41806,7 +42538,9 @@
       <c r="E967" t="n">
         <v>349</v>
       </c>
-      <c r="F967" t="inlineStr"/>
+      <c r="F967" t="n">
+        <v>3876</v>
+      </c>
       <c r="G967" t="n">
         <v>9.757148053837758</v>
       </c>
@@ -41841,7 +42575,9 @@
       <c r="E968" t="n">
         <v>345</v>
       </c>
-      <c r="F968" t="inlineStr"/>
+      <c r="F968" t="n">
+        <v>3211</v>
+      </c>
       <c r="G968" t="n">
         <v>25.35198487712665</v>
       </c>
@@ -41876,7 +42612,9 @@
       <c r="E969" t="n">
         <v>291</v>
       </c>
-      <c r="F969" t="inlineStr"/>
+      <c r="F969" t="n">
+        <v>2472</v>
+      </c>
       <c r="G969" t="n">
         <v>8.437370242214534</v>
       </c>
@@ -41911,7 +42649,9 @@
       <c r="E970" t="n">
         <v>1134</v>
       </c>
-      <c r="F970" t="inlineStr"/>
+      <c r="F970" t="n">
+        <v>12535</v>
+      </c>
       <c r="G970" t="n">
         <v>11.01988496302383</v>
       </c>
@@ -41946,7 +42686,9 @@
       <c r="E971" t="n">
         <v>2235</v>
       </c>
-      <c r="F971" t="inlineStr"/>
+      <c r="F971" t="n">
+        <v>10062</v>
+      </c>
       <c r="G971" t="n">
         <v>10.97030674846626</v>
       </c>
@@ -41981,7 +42723,9 @@
       <c r="E972" t="n">
         <v>405</v>
       </c>
-      <c r="F972" t="inlineStr"/>
+      <c r="F972" t="n">
+        <v>1579</v>
+      </c>
       <c r="G972" t="n">
         <v>9.355563306592257</v>
       </c>
@@ -42016,7 +42760,9 @@
       <c r="E973" t="n">
         <v>460</v>
       </c>
-      <c r="F973" t="inlineStr"/>
+      <c r="F973" t="n">
+        <v>1897</v>
+      </c>
       <c r="G973" t="n">
         <v>9.342528735632184</v>
       </c>
@@ -42051,7 +42797,9 @@
       <c r="E974" t="n">
         <v>876</v>
       </c>
-      <c r="F974" t="inlineStr"/>
+      <c r="F974" t="n">
+        <v>6575</v>
+      </c>
       <c r="G974" t="n">
         <v>9.518239886444286</v>
       </c>
@@ -42086,7 +42834,9 @@
       <c r="E975" t="n">
         <v>832</v>
       </c>
-      <c r="F975" t="inlineStr"/>
+      <c r="F975" t="n">
+        <v>3461</v>
+      </c>
       <c r="G975" t="n">
         <v>9.901218161683277</v>
       </c>
@@ -42121,7 +42871,9 @@
       <c r="E976" t="n">
         <v>793</v>
       </c>
-      <c r="F976" t="inlineStr"/>
+      <c r="F976" t="n">
+        <v>3283</v>
+      </c>
       <c r="G976" t="n">
         <v>9.043290627107213</v>
       </c>
@@ -42156,7 +42908,9 @@
       <c r="E977" t="n">
         <v>379</v>
       </c>
-      <c r="F977" t="inlineStr"/>
+      <c r="F977" t="n">
+        <v>1540</v>
+      </c>
       <c r="G977" t="n">
         <v>9.064684014869888</v>
       </c>
@@ -42191,7 +42945,9 @@
       <c r="E978" t="n">
         <v>1762</v>
       </c>
-      <c r="F978" t="inlineStr"/>
+      <c r="F978" t="n">
+        <v>7147</v>
+      </c>
       <c r="G978" t="n">
         <v>10.72038369304556</v>
       </c>
@@ -42226,7 +42982,9 @@
       <c r="E979" t="n">
         <v>560</v>
       </c>
-      <c r="F979" t="inlineStr"/>
+      <c r="F979" t="n">
+        <v>2655</v>
+      </c>
       <c r="G979" t="n">
         <v>9.371907756813417</v>
       </c>
@@ -42261,7 +43019,9 @@
       <c r="E980" t="n">
         <v>1326</v>
       </c>
-      <c r="F980" t="inlineStr"/>
+      <c r="F980" t="n">
+        <v>5772</v>
+      </c>
       <c r="G980" t="n">
         <v>10.84171382376718</v>
       </c>
@@ -42296,7 +43056,9 @@
       <c r="E981" t="n">
         <v>624</v>
       </c>
-      <c r="F981" t="inlineStr"/>
+      <c r="F981" t="n">
+        <v>2401</v>
+      </c>
       <c r="G981" t="n">
         <v>9.157528166609765</v>
       </c>
@@ -42331,7 +43093,9 @@
       <c r="E982" t="n">
         <v>233</v>
       </c>
-      <c r="F982" t="inlineStr"/>
+      <c r="F982" t="n">
+        <v>2025</v>
+      </c>
       <c r="G982" t="n">
         <v>8.469340069466373</v>
       </c>
@@ -42366,7 +43130,9 @@
       <c r="E983" t="n">
         <v>938</v>
       </c>
-      <c r="F983" t="inlineStr"/>
+      <c r="F983" t="n">
+        <v>3624</v>
+      </c>
       <c r="G983" t="n">
         <v>10.6564958283671</v>
       </c>
@@ -42401,7 +43167,9 @@
       <c r="E984" t="n">
         <v>471</v>
       </c>
-      <c r="F984" t="inlineStr"/>
+      <c r="F984" t="n">
+        <v>1924</v>
+      </c>
       <c r="G984" t="n">
         <v>9.064684014869888</v>
       </c>
@@ -42436,7 +43204,9 @@
       <c r="E985" t="n">
         <v>272</v>
       </c>
-      <c r="F985" t="inlineStr"/>
+      <c r="F985" t="n">
+        <v>2427</v>
+      </c>
       <c r="G985" t="n">
         <v>10.40031019775107</v>
       </c>
@@ -42471,7 +43241,9 @@
       <c r="E986" t="n">
         <v>6669</v>
       </c>
-      <c r="F986" t="inlineStr"/>
+      <c r="F986" t="n">
+        <v>27580</v>
+      </c>
       <c r="G986" t="n">
         <v>12.9015873015873</v>
       </c>
@@ -42506,7 +43278,9 @@
       <c r="E987" t="n">
         <v>360</v>
       </c>
-      <c r="F987" t="inlineStr"/>
+      <c r="F987" t="n">
+        <v>1631</v>
+      </c>
       <c r="G987" t="n">
         <v>9.110869565217392</v>
       </c>
@@ -42541,7 +43315,9 @@
       <c r="E988" t="n">
         <v>17</v>
       </c>
-      <c r="F988" t="inlineStr"/>
+      <c r="F988" t="n">
+        <v>296</v>
+      </c>
       <c r="G988" t="n">
         <v>18.75692307692308</v>
       </c>
@@ -42574,7 +43350,9 @@
       <c r="E989" t="n">
         <v>204</v>
       </c>
-      <c r="F989" t="inlineStr"/>
+      <c r="F989" t="n">
+        <v>3399</v>
+      </c>
       <c r="G989" t="n">
         <v>18.51097308488613</v>
       </c>
@@ -42609,7 +43387,9 @@
       <c r="E990" t="n">
         <v>2502</v>
       </c>
-      <c r="F990" t="inlineStr"/>
+      <c r="F990" t="n">
+        <v>9190</v>
+      </c>
       <c r="G990" t="n">
         <v>11.5763487268019</v>
       </c>
@@ -42644,7 +43424,9 @@
       <c r="E991" t="n">
         <v>880</v>
       </c>
-      <c r="F991" t="inlineStr"/>
+      <c r="F991" t="n">
+        <v>3109</v>
+      </c>
       <c r="G991" t="n">
         <v>9.672701045798773</v>
       </c>
@@ -42679,7 +43461,9 @@
       <c r="E992" t="n">
         <v>746</v>
       </c>
-      <c r="F992" t="inlineStr"/>
+      <c r="F992" t="n">
+        <v>2205</v>
+      </c>
       <c r="G992" t="n">
         <v>8.728408721119427</v>
       </c>
@@ -42714,7 +43498,9 @@
       <c r="E993" t="n">
         <v>5998</v>
       </c>
-      <c r="F993" t="inlineStr"/>
+      <c r="F993" t="n">
+        <v>20348</v>
+      </c>
       <c r="G993" t="n">
         <v>12.34348826507133</v>
       </c>
@@ -42749,7 +43535,9 @@
       <c r="E994" t="n">
         <v>1270</v>
       </c>
-      <c r="F994" t="inlineStr"/>
+      <c r="F994" t="n">
+        <v>5347</v>
+      </c>
       <c r="G994" t="n">
         <v>10.02331838565022</v>
       </c>
@@ -42784,7 +43572,9 @@
       <c r="E995" t="n">
         <v>3102</v>
       </c>
-      <c r="F995" t="inlineStr"/>
+      <c r="F995" t="n">
+        <v>11532</v>
+      </c>
       <c r="G995" t="n">
         <v>11.87357237715803</v>
       </c>
@@ -42819,7 +43609,9 @@
       <c r="E996" t="n">
         <v>464</v>
       </c>
-      <c r="F996" t="inlineStr"/>
+      <c r="F996" t="n">
+        <v>18835</v>
+      </c>
       <c r="G996" t="n">
         <v>9.355563306592257</v>
       </c>
@@ -42854,7 +43646,9 @@
       <c r="E997" t="n">
         <v>425</v>
       </c>
-      <c r="F997" t="inlineStr"/>
+      <c r="F997" t="n">
+        <v>1344</v>
+      </c>
       <c r="G997" t="n">
         <v>9.541942369263607</v>
       </c>
@@ -42889,7 +43683,9 @@
       <c r="E998" t="n">
         <v>450</v>
       </c>
-      <c r="F998" t="inlineStr"/>
+      <c r="F998" t="n">
+        <v>1732</v>
+      </c>
       <c r="G998" t="n">
         <v>9.070815015218127</v>
       </c>
@@ -42924,7 +43720,9 @@
       <c r="E999" t="n">
         <v>2840</v>
       </c>
-      <c r="F999" t="inlineStr"/>
+      <c r="F999" t="n">
+        <v>7212</v>
+      </c>
       <c r="G999" t="n">
         <v>8.997785977859779</v>
       </c>
@@ -42959,7 +43757,9 @@
       <c r="E1000" t="n">
         <v>753</v>
       </c>
-      <c r="F1000" t="inlineStr"/>
+      <c r="F1000" t="n">
+        <v>2577</v>
+      </c>
       <c r="G1000" t="n">
         <v>9.531769722814499</v>
       </c>
@@ -42994,7 +43794,9 @@
       <c r="E1001" t="n">
         <v>701</v>
       </c>
-      <c r="F1001" t="inlineStr"/>
+      <c r="F1001" t="n">
+        <v>1989</v>
+      </c>
       <c r="G1001" t="n">
         <v>8.917021276595744</v>
       </c>
@@ -43029,7 +43831,9 @@
       <c r="E1002" t="n">
         <v>935</v>
       </c>
-      <c r="F1002" t="inlineStr"/>
+      <c r="F1002" t="n">
+        <v>2739</v>
+      </c>
       <c r="G1002" t="n">
         <v>9.569175882982519</v>
       </c>
@@ -43064,7 +43868,9 @@
       <c r="E1003" t="n">
         <v>2370</v>
       </c>
-      <c r="F1003" t="inlineStr"/>
+      <c r="F1003" t="n">
+        <v>6880</v>
+      </c>
       <c r="G1003" t="n">
         <v>10.51446491571932</v>
       </c>
@@ -43099,7 +43905,9 @@
       <c r="E1004" t="n">
         <v>319</v>
       </c>
-      <c r="F1004" t="inlineStr"/>
+      <c r="F1004" t="n">
+        <v>1720</v>
+      </c>
       <c r="G1004" t="n">
         <v>10.81112454655381</v>
       </c>
@@ -43134,7 +43942,9 @@
       <c r="E1005" t="n">
         <v>1119</v>
       </c>
-      <c r="F1005" t="inlineStr"/>
+      <c r="F1005" t="n">
+        <v>4048</v>
+      </c>
       <c r="G1005" t="n">
         <v>4.041343980714178</v>
       </c>
@@ -43169,7 +43979,9 @@
       <c r="E1006" t="n">
         <v>828</v>
       </c>
-      <c r="F1006" t="inlineStr"/>
+      <c r="F1006" t="n">
+        <v>3569</v>
+      </c>
       <c r="G1006" t="n">
         <v>3.717073170731708</v>
       </c>
@@ -43204,7 +44016,9 @@
       <c r="E1007" t="n">
         <v>607</v>
       </c>
-      <c r="F1007" t="inlineStr"/>
+      <c r="F1007" t="n">
+        <v>2807</v>
+      </c>
       <c r="G1007" t="n">
         <v>11.56137931034483</v>
       </c>
@@ -43239,7 +44053,9 @@
       <c r="E1008" t="n">
         <v>1344</v>
       </c>
-      <c r="F1008" t="inlineStr"/>
+      <c r="F1008" t="n">
+        <v>3423</v>
+      </c>
       <c r="G1008" t="n">
         <v>9.025033647375505</v>
       </c>
@@ -43274,7 +44090,9 @@
       <c r="E1009" t="n">
         <v>5272.4</v>
       </c>
-      <c r="F1009" t="inlineStr"/>
+      <c r="F1009" t="n">
+        <v>24208</v>
+      </c>
       <c r="G1009" t="n">
         <v>13.49894313034726</v>
       </c>
@@ -43309,7 +44127,9 @@
       <c r="E1010" t="n">
         <v>676.3</v>
       </c>
-      <c r="F1010" t="inlineStr"/>
+      <c r="F1010" t="n">
+        <v>3417</v>
+      </c>
       <c r="G1010" t="n">
         <v>10.87247669233887</v>
       </c>
@@ -43344,7 +44164,9 @@
       <c r="E1011" t="n">
         <v>3906.3</v>
       </c>
-      <c r="F1011" t="inlineStr"/>
+      <c r="F1011" t="n">
+        <v>19274</v>
+      </c>
       <c r="G1011" t="n">
         <v>13.54666666666667</v>
       </c>
@@ -43379,7 +44201,9 @@
       <c r="E1012" t="n">
         <v>1445.4</v>
       </c>
-      <c r="F1012" t="inlineStr"/>
+      <c r="F1012" t="n">
+        <v>5915</v>
+      </c>
       <c r="G1012" t="n">
         <v>10.44892871055707</v>
       </c>
@@ -43414,7 +44238,9 @@
       <c r="E1013" t="n">
         <v>778.8</v>
       </c>
-      <c r="F1013" t="inlineStr"/>
+      <c r="F1013" t="n">
+        <v>2881</v>
+      </c>
       <c r="G1013" t="n">
         <v>10.54339622641509</v>
       </c>
@@ -43449,7 +44275,9 @@
       <c r="E1014" t="n">
         <v>2597.5</v>
       </c>
-      <c r="F1014" t="inlineStr"/>
+      <c r="F1014" t="n">
+        <v>11909</v>
+      </c>
       <c r="G1014" t="n">
         <v>10.35214203010421</v>
       </c>
@@ -43484,7 +44312,9 @@
       <c r="E1015" t="n">
         <v>799.3</v>
       </c>
-      <c r="F1015" t="inlineStr"/>
+      <c r="F1015" t="n">
+        <v>3017</v>
+      </c>
       <c r="G1015" t="n">
         <v>9.365363128491621</v>
       </c>
@@ -43519,7 +44349,9 @@
       <c r="E1016" t="n">
         <v>3339</v>
       </c>
-      <c r="F1016" t="inlineStr"/>
+      <c r="F1016" t="n">
+        <v>14887</v>
+      </c>
       <c r="G1016" t="n">
         <v>11.2321608040201</v>
       </c>
@@ -43554,7 +44386,9 @@
       <c r="E1017" t="n">
         <v>957.1</v>
       </c>
-      <c r="F1017" t="inlineStr"/>
+      <c r="F1017" t="n">
+        <v>3544</v>
+      </c>
       <c r="G1017" t="n">
         <v>9.110869565217392</v>
       </c>
@@ -43589,7 +44423,9 @@
       <c r="E1018" t="n">
         <v>929.9</v>
       </c>
-      <c r="F1018" t="inlineStr"/>
+      <c r="F1018" t="n">
+        <v>3809</v>
+      </c>
       <c r="G1018" t="n">
         <v>9.424595924104006</v>
       </c>
@@ -43624,7 +44460,9 @@
       <c r="E1019" t="n">
         <v>810.9</v>
       </c>
-      <c r="F1019" t="inlineStr"/>
+      <c r="F1019" t="n">
+        <v>3397</v>
+      </c>
       <c r="G1019" t="n">
         <v>10.4775</v>
       </c>
@@ -43659,7 +44497,9 @@
       <c r="E1020" t="n">
         <v>2388.5</v>
       </c>
-      <c r="F1020" t="inlineStr"/>
+      <c r="F1020" t="n">
+        <v>10033</v>
+      </c>
       <c r="G1020" t="n">
         <v>10.3282248748556</v>
       </c>
@@ -43694,7 +44534,9 @@
       <c r="E1021" t="n">
         <v>802.8</v>
       </c>
-      <c r="F1021" t="inlineStr"/>
+      <c r="F1021" t="n">
+        <v>3274</v>
+      </c>
       <c r="G1021" t="n">
         <v>10.32424942263279</v>
       </c>
@@ -43729,7 +44571,9 @@
       <c r="E1022" t="n">
         <v>801.8</v>
       </c>
-      <c r="F1022" t="inlineStr"/>
+      <c r="F1022" t="n">
+        <v>3001</v>
+      </c>
       <c r="G1022" t="n">
         <v>9.381741867785939</v>
       </c>
@@ -43764,7 +44608,9 @@
       <c r="E1023" t="n">
         <v>2423.9</v>
       </c>
-      <c r="F1023" t="inlineStr"/>
+      <c r="F1023" t="n">
+        <v>10230</v>
+      </c>
       <c r="G1023" t="n">
         <v>10.68195937873357</v>
       </c>
@@ -43799,7 +44645,9 @@
       <c r="E1024" t="n">
         <v>2394.7</v>
       </c>
-      <c r="F1024" t="inlineStr"/>
+      <c r="F1024" t="n">
+        <v>9336</v>
+      </c>
       <c r="G1024" t="n">
         <v>9.919526627218934</v>
       </c>
@@ -43834,7 +44682,9 @@
       <c r="E1025" t="n">
         <v>808.8</v>
       </c>
-      <c r="F1025" t="inlineStr"/>
+      <c r="F1025" t="n">
+        <v>3402</v>
+      </c>
       <c r="G1025" t="n">
         <v>11.62149046793761</v>
       </c>
@@ -43869,7 +44719,9 @@
       <c r="E1026" t="n">
         <v>3128</v>
       </c>
-      <c r="F1026" t="inlineStr"/>
+      <c r="F1026" t="n">
+        <v>14035</v>
+      </c>
       <c r="G1026" t="n">
         <v>11.50188679245283</v>
       </c>
@@ -43904,7 +44756,9 @@
       <c r="E1027" t="n">
         <v>0</v>
       </c>
-      <c r="F1027" t="inlineStr"/>
+      <c r="F1027" t="n">
+        <v>4798</v>
+      </c>
       <c r="G1027" t="n">
         <v>7.29861224489796</v>
       </c>
@@ -43939,7 +44793,9 @@
       <c r="E1028" t="n">
         <v>2792.8</v>
       </c>
-      <c r="F1028" t="inlineStr"/>
+      <c r="F1028" t="n">
+        <v>11823</v>
+      </c>
       <c r="G1028" t="n">
         <v>10.63958746529155</v>
       </c>
@@ -43974,7 +44830,9 @@
       <c r="E1029" t="n">
         <v>0</v>
       </c>
-      <c r="F1029" t="inlineStr"/>
+      <c r="F1029" t="n">
+        <v>4852</v>
+      </c>
       <c r="G1029" t="n">
         <v>7.288695652173913</v>
       </c>
@@ -44009,7 +44867,9 @@
       <c r="E1030" t="n">
         <v>0</v>
       </c>
-      <c r="F1030" t="inlineStr"/>
+      <c r="F1030" t="n">
+        <v>7732</v>
+      </c>
       <c r="G1030" t="n">
         <v>13.99916492693111</v>
       </c>
@@ -44044,7 +44904,9 @@
       <c r="E1031" t="n">
         <v>0</v>
       </c>
-      <c r="F1031" t="inlineStr"/>
+      <c r="F1031" t="n">
+        <v>4948</v>
+      </c>
       <c r="G1031" t="n">
         <v>9.662247838616715</v>
       </c>
@@ -44079,7 +44941,9 @@
       <c r="E1032" t="n">
         <v>440.7</v>
       </c>
-      <c r="F1032" t="inlineStr"/>
+      <c r="F1032" t="n">
+        <v>1674</v>
+      </c>
       <c r="G1032" t="n">
         <v>10.46523605150215</v>
       </c>
@@ -44114,7 +44978,9 @@
       <c r="E1033" t="n">
         <v>1117.1</v>
       </c>
-      <c r="F1033" t="inlineStr"/>
+      <c r="F1033" t="n">
+        <v>4550</v>
+      </c>
       <c r="G1033" t="n">
         <v>10.54754227290602</v>
       </c>
@@ -44149,7 +45015,9 @@
       <c r="E1034" t="n">
         <v>547.5</v>
       </c>
-      <c r="F1034" t="inlineStr"/>
+      <c r="F1034" t="n">
+        <v>2436</v>
+      </c>
       <c r="G1034" t="n">
         <v>11.74875164257556</v>
       </c>
@@ -44184,7 +45052,9 @@
       <c r="E1035" t="n">
         <v>0</v>
       </c>
-      <c r="F1035" t="inlineStr"/>
+      <c r="F1035" t="n">
+        <v>703</v>
+      </c>
       <c r="G1035" t="n">
         <v>17.69287598944591</v>
       </c>
@@ -44217,7 +45087,9 @@
       <c r="E1036" t="n">
         <v>564.5</v>
       </c>
-      <c r="F1036" t="inlineStr"/>
+      <c r="F1036" t="n">
+        <v>2683</v>
+      </c>
       <c r="G1036" t="n">
         <v>13.03957219251337</v>
       </c>
@@ -44252,7 +45124,9 @@
       <c r="E1037" t="n">
         <v>81</v>
       </c>
-      <c r="F1037" t="inlineStr"/>
+      <c r="F1037" t="n">
+        <v>262</v>
+      </c>
       <c r="G1037" t="n">
         <v>8.296442932261058</v>
       </c>
@@ -44285,7 +45159,9 @@
       <c r="E1038" t="n">
         <v>66.7</v>
       </c>
-      <c r="F1038" t="inlineStr"/>
+      <c r="F1038" t="n">
+        <v>289</v>
+      </c>
       <c r="G1038" t="n">
         <v>5.783182406209574</v>
       </c>
@@ -44318,7 +45194,9 @@
       <c r="E1039" t="n">
         <v>163.4</v>
       </c>
-      <c r="F1039" t="inlineStr"/>
+      <c r="F1039" t="n">
+        <v>585</v>
+      </c>
       <c r="G1039" t="n">
         <v>7.320524017467248</v>
       </c>
@@ -44351,7 +45229,9 @@
       <c r="E1040" t="n">
         <v>2004.2</v>
       </c>
-      <c r="F1040" t="inlineStr"/>
+      <c r="F1040" t="n">
+        <v>8035</v>
+      </c>
       <c r="G1040" t="n">
         <v>11.42350936967632</v>
       </c>
@@ -44386,7 +45266,9 @@
       <c r="E1041" t="n">
         <v>1039</v>
       </c>
-      <c r="F1041" t="inlineStr"/>
+      <c r="F1041" t="n">
+        <v>3933</v>
+      </c>
       <c r="G1041" t="n">
         <v>10.96582174979558</v>
       </c>
@@ -44421,7 +45303,9 @@
       <c r="E1042" t="n">
         <v>809.5</v>
       </c>
-      <c r="F1042" t="inlineStr"/>
+      <c r="F1042" t="n">
+        <v>3818</v>
+      </c>
       <c r="G1042" t="n">
         <v>10.55584415584416</v>
       </c>
@@ -44456,7 +45340,9 @@
       <c r="E1043" t="n">
         <v>745.3</v>
       </c>
-      <c r="F1043" t="inlineStr"/>
+      <c r="F1043" t="n">
+        <v>2647</v>
+      </c>
       <c r="G1043" t="n">
         <v>8.655179090029041</v>
       </c>
@@ -44491,7 +45377,9 @@
       <c r="E1044" t="n">
         <v>830.1</v>
       </c>
-      <c r="F1044" t="inlineStr"/>
+      <c r="F1044" t="n">
+        <v>2807</v>
+      </c>
       <c r="G1044" t="n">
         <v>8.301578458681522</v>
       </c>
@@ -44526,7 +45414,9 @@
       <c r="E1045" t="n">
         <v>494.8</v>
       </c>
-      <c r="F1045" t="inlineStr"/>
+      <c r="F1045" t="n">
+        <v>4132</v>
+      </c>
       <c r="G1045" t="n">
         <v>4.159156458365638</v>
       </c>
@@ -44561,7 +45451,9 @@
       <c r="E1046" t="n">
         <v>480.7</v>
       </c>
-      <c r="F1046" t="inlineStr"/>
+      <c r="F1046" t="n">
+        <v>3855</v>
+      </c>
       <c r="G1046" t="n">
         <v>3.806215410813112</v>
       </c>
@@ -44596,7 +45488,9 @@
       <c r="E1047" t="n">
         <v>637.1</v>
       </c>
-      <c r="F1047" t="inlineStr"/>
+      <c r="F1047" t="n">
+        <v>3658</v>
+      </c>
       <c r="G1047" t="n">
         <v>3.59597801313849</v>
       </c>
@@ -44631,7 +45525,9 @@
       <c r="E1048" t="n">
         <v>486.5</v>
       </c>
-      <c r="F1048" t="inlineStr"/>
+      <c r="F1048" t="n">
+        <v>3621</v>
+      </c>
       <c r="G1048" t="n">
         <v>3.745099134320023</v>
       </c>
@@ -44666,7 +45562,9 @@
       <c r="E1049" t="n">
         <v>851.8</v>
       </c>
-      <c r="F1049" t="inlineStr"/>
+      <c r="F1049" t="n">
+        <v>3139</v>
+      </c>
       <c r="G1049" t="n">
         <v>8.861050545094152</v>
       </c>
@@ -44701,7 +45599,9 @@
       <c r="E1050" t="n">
         <v>469.9</v>
       </c>
-      <c r="F1050" t="inlineStr"/>
+      <c r="F1050" t="n">
+        <v>2226</v>
+      </c>
       <c r="G1050" t="n">
         <v>9.217319587628866</v>
       </c>
@@ -44736,7 +45636,9 @@
       <c r="E1051" t="n">
         <v>950</v>
       </c>
-      <c r="F1051" t="inlineStr"/>
+      <c r="F1051" t="n">
+        <v>3564</v>
+      </c>
       <c r="G1051" t="n">
         <v>9.487937743190662</v>
       </c>
@@ -44771,7 +45673,9 @@
       <c r="E1052" t="n">
         <v>611.2</v>
       </c>
-      <c r="F1052" t="inlineStr"/>
+      <c r="F1052" t="n">
+        <v>2583</v>
+      </c>
       <c r="G1052" t="n">
         <v>9.711223750905141</v>
       </c>
@@ -44806,7 +45710,9 @@
       <c r="E1053" t="n">
         <v>587.9</v>
       </c>
-      <c r="F1053" t="inlineStr"/>
+      <c r="F1053" t="n">
+        <v>2428</v>
+      </c>
       <c r="G1053" t="n">
         <v>11.69751417357174</v>
       </c>
@@ -44841,7 +45747,9 @@
       <c r="E1054" t="n">
         <v>1464.7</v>
       </c>
-      <c r="F1054" t="inlineStr"/>
+      <c r="F1054" t="n">
+        <v>6736</v>
+      </c>
       <c r="G1054" t="n">
         <v>9.904874446085671</v>
       </c>
@@ -44876,7 +45784,9 @@
       <c r="E1055" t="n">
         <v>378.2</v>
       </c>
-      <c r="F1055" t="inlineStr"/>
+      <c r="F1055" t="n">
+        <v>3243</v>
+      </c>
       <c r="G1055" t="n">
         <v>3.947373068432671</v>
       </c>
@@ -44911,7 +45821,9 @@
       <c r="E1056" t="n">
         <v>414.1</v>
       </c>
-      <c r="F1056" t="inlineStr"/>
+      <c r="F1056" t="n">
+        <v>2515</v>
+      </c>
       <c r="G1056" t="n">
         <v>3.453379683275396</v>
       </c>
@@ -44946,7 +45858,9 @@
       <c r="E1057" t="n">
         <v>501.6</v>
       </c>
-      <c r="F1057" t="inlineStr"/>
+      <c r="F1057" t="n">
+        <v>3576</v>
+      </c>
       <c r="G1057" t="n">
         <v>3.555461293743372</v>
       </c>
@@ -44981,7 +45895,9 @@
       <c r="E1058" t="n">
         <v>544</v>
       </c>
-      <c r="F1058" t="inlineStr"/>
+      <c r="F1058" t="n">
+        <v>3375</v>
+      </c>
       <c r="G1058" t="n">
         <v>11.9369826435247</v>
       </c>
@@ -45016,7 +45932,9 @@
       <c r="E1059" t="n">
         <v>598.9</v>
       </c>
-      <c r="F1059" t="inlineStr"/>
+      <c r="F1059" t="n">
+        <v>3500</v>
+      </c>
       <c r="G1059" t="n">
         <v>3.463636363636363</v>
       </c>
@@ -45051,7 +45969,9 @@
       <c r="E1060" t="n">
         <v>515.7</v>
       </c>
-      <c r="F1060" t="inlineStr"/>
+      <c r="F1060" t="n">
+        <v>3535</v>
+      </c>
       <c r="G1060" t="n">
         <v>3.637428803905614</v>
       </c>
@@ -45086,7 +46006,9 @@
       <c r="E1061" t="n">
         <v>636.7</v>
       </c>
-      <c r="F1061" t="inlineStr"/>
+      <c r="F1061" t="n">
+        <v>3364</v>
+      </c>
       <c r="G1061" t="n">
         <v>3.434805993084902</v>
       </c>
@@ -45121,7 +46043,9 @@
       <c r="E1062" t="n">
         <v>567.8</v>
       </c>
-      <c r="F1062" t="inlineStr"/>
+      <c r="F1062" t="n">
+        <v>3437</v>
+      </c>
       <c r="G1062" t="n">
         <v>3.344438902743142</v>
       </c>
@@ -45156,7 +46080,9 @@
       <c r="E1063" t="n">
         <v>532.9</v>
       </c>
-      <c r="F1063" t="inlineStr"/>
+      <c r="F1063" t="n">
+        <v>3816</v>
+      </c>
       <c r="G1063" t="n">
         <v>3.669274965800274</v>
       </c>
@@ -45191,7 +46117,9 @@
       <c r="E1064" t="n">
         <v>535.7</v>
       </c>
-      <c r="F1064" t="inlineStr"/>
+      <c r="F1064" t="n">
+        <v>3672</v>
+      </c>
       <c r="G1064" t="n">
         <v>3.708849557522124</v>
       </c>
@@ -45226,7 +46154,9 @@
       <c r="E1065" t="n">
         <v>567.9</v>
       </c>
-      <c r="F1065" t="inlineStr"/>
+      <c r="F1065" t="n">
+        <v>4684</v>
+      </c>
       <c r="G1065" t="n">
         <v>4.321314644755921</v>
       </c>
@@ -45261,7 +46191,9 @@
       <c r="E1066" t="n">
         <v>514.4</v>
       </c>
-      <c r="F1066" t="inlineStr"/>
+      <c r="F1066" t="n">
+        <v>4134</v>
+      </c>
       <c r="G1066" t="n">
         <v>3.821399059695113</v>
       </c>
@@ -45296,7 +46228,9 @@
       <c r="E1067" t="n">
         <v>597.2</v>
       </c>
-      <c r="F1067" t="inlineStr"/>
+      <c r="F1067" t="n">
+        <v>3952</v>
+      </c>
       <c r="G1067" t="n">
         <v>3.683889575607747</v>
       </c>
@@ -45331,7 +46265,9 @@
       <c r="E1068" t="n">
         <v>569.4</v>
       </c>
-      <c r="F1068" t="inlineStr"/>
+      <c r="F1068" t="n">
+        <v>4760</v>
+      </c>
       <c r="G1068" t="n">
         <v>3.791687871077184</v>
       </c>
@@ -45366,7 +46302,9 @@
       <c r="E1069" t="n">
         <v>962.8</v>
       </c>
-      <c r="F1069" t="inlineStr"/>
+      <c r="F1069" t="n">
+        <v>7370</v>
+      </c>
       <c r="G1069" t="n">
         <v>3.946792230723955</v>
       </c>
@@ -45401,7 +46339,9 @@
       <c r="E1070" t="n">
         <v>1327.1</v>
       </c>
-      <c r="F1070" t="inlineStr"/>
+      <c r="F1070" t="n">
+        <v>21236</v>
+      </c>
       <c r="G1070" t="n">
         <v>3.868243438130949</v>
       </c>
@@ -45436,7 +46376,9 @@
       <c r="E1071" t="n">
         <v>703.7</v>
       </c>
-      <c r="F1071" t="inlineStr"/>
+      <c r="F1071" t="n">
+        <v>5186</v>
+      </c>
       <c r="G1071" t="n">
         <v>3.924272128749085</v>
       </c>
@@ -45471,7 +46413,9 @@
       <c r="E1072" t="n">
         <v>1431.7</v>
       </c>
-      <c r="F1072" t="inlineStr"/>
+      <c r="F1072" t="n">
+        <v>5433</v>
+      </c>
       <c r="G1072" t="n">
         <v>9.732365747460088</v>
       </c>
@@ -45506,7 +46450,9 @@
       <c r="E1073" t="n">
         <v>0</v>
       </c>
-      <c r="F1073" t="inlineStr"/>
+      <c r="F1073" t="n">
+        <v>822</v>
+      </c>
       <c r="G1073" t="n">
         <v>339.5240506329114</v>
       </c>
@@ -45539,7 +46485,9 @@
       <c r="E1074" t="n">
         <v>647.5</v>
       </c>
-      <c r="F1074" t="inlineStr"/>
+      <c r="F1074" t="n">
+        <v>2251</v>
+      </c>
       <c r="G1074" t="n">
         <v>9.220488140254384</v>
       </c>
@@ -45574,7 +46522,9 @@
       <c r="E1075" t="n">
         <v>1015.3</v>
       </c>
-      <c r="F1075" t="inlineStr"/>
+      <c r="F1075" t="n">
+        <v>6678</v>
+      </c>
       <c r="G1075" t="n">
         <v>3.571082412461723</v>
       </c>
@@ -45609,7 +46559,9 @@
       <c r="E1076" t="n">
         <v>937.7</v>
       </c>
-      <c r="F1076" t="inlineStr"/>
+      <c r="F1076" t="n">
+        <v>3426</v>
+      </c>
       <c r="G1076" t="n">
         <v>9.120163209792588</v>
       </c>
@@ -45644,7 +46596,9 @@
       <c r="E1077" t="n">
         <v>1618.9</v>
       </c>
-      <c r="F1077" t="inlineStr"/>
+      <c r="F1077" t="n">
+        <v>6193</v>
+      </c>
       <c r="G1077" t="n">
         <v>9.548736205055178</v>
       </c>
@@ -45679,7 +46633,9 @@
       <c r="E1078" t="n">
         <v>1152.6</v>
       </c>
-      <c r="F1078" t="inlineStr"/>
+      <c r="F1078" t="n">
+        <v>4035</v>
+      </c>
       <c r="G1078" t="n">
         <v>8.934843437708196</v>
       </c>
@@ -45714,7 +46670,9 @@
       <c r="E1079" t="n">
         <v>890.2</v>
       </c>
-      <c r="F1079" t="inlineStr"/>
+      <c r="F1079" t="n">
+        <v>3264</v>
+      </c>
       <c r="G1079" t="n">
         <v>9.579428571428572</v>
       </c>
@@ -45749,7 +46707,9 @@
       <c r="E1080" t="n">
         <v>851.7</v>
       </c>
-      <c r="F1080" t="inlineStr"/>
+      <c r="F1080" t="n">
+        <v>3071</v>
+      </c>
       <c r="G1080" t="n">
         <v>9.385024492652205</v>
       </c>
@@ -45784,7 +46744,9 @@
       <c r="E1081" t="n">
         <v>2332.7</v>
       </c>
-      <c r="F1081" t="inlineStr"/>
+      <c r="F1081" t="n">
+        <v>9539</v>
+      </c>
       <c r="G1081" t="n">
         <v>10.46523605150215</v>
       </c>
@@ -45819,7 +46781,9 @@
       <c r="E1082" t="n">
         <v>1142.7</v>
       </c>
-      <c r="F1082" t="inlineStr"/>
+      <c r="F1082" t="n">
+        <v>4094</v>
+      </c>
       <c r="G1082" t="n">
         <v>9.444507042253521</v>
       </c>
@@ -45854,7 +46818,9 @@
       <c r="E1083" t="n">
         <v>509.9</v>
       </c>
-      <c r="F1083" t="inlineStr"/>
+      <c r="F1083" t="n">
+        <v>1958</v>
+      </c>
       <c r="G1083" t="n">
         <v>9.538549075391181</v>
       </c>
@@ -45889,7 +46855,9 @@
       <c r="E1084" t="n">
         <v>953.7</v>
       </c>
-      <c r="F1084" t="inlineStr"/>
+      <c r="F1084" t="n">
+        <v>3569</v>
+      </c>
       <c r="G1084" t="n">
         <v>9.690173410404626</v>
       </c>
@@ -45924,7 +46892,9 @@
       <c r="E1085" t="n">
         <v>1315.5</v>
       </c>
-      <c r="F1085" t="inlineStr"/>
+      <c r="F1085" t="n">
+        <v>5248</v>
+      </c>
       <c r="G1085" t="n">
         <v>9.725308194343727</v>
       </c>
@@ -45959,7 +46929,9 @@
       <c r="E1086" t="n">
         <v>994.8</v>
       </c>
-      <c r="F1086" t="inlineStr"/>
+      <c r="F1086" t="n">
+        <v>3309</v>
+      </c>
       <c r="G1086" t="n">
         <v>8.702920181700195</v>
       </c>
@@ -45994,7 +46966,9 @@
       <c r="E1087" t="n">
         <v>381.7</v>
       </c>
-      <c r="F1087" t="inlineStr"/>
+      <c r="F1087" t="n">
+        <v>1543</v>
+      </c>
       <c r="G1087" t="n">
         <v>11.15276507276507</v>
       </c>
@@ -46029,7 +47003,9 @@
       <c r="E1088" t="n">
         <v>643.2</v>
       </c>
-      <c r="F1088" t="inlineStr"/>
+      <c r="F1088" t="n">
+        <v>2410</v>
+      </c>
       <c r="G1088" t="n">
         <v>9.648345323741006</v>
       </c>
@@ -46064,7 +47040,9 @@
       <c r="E1089" t="n">
         <v>623.3</v>
       </c>
-      <c r="F1089" t="inlineStr"/>
+      <c r="F1089" t="n">
+        <v>2431</v>
+      </c>
       <c r="G1089" t="n">
         <v>9.774927113702622</v>
       </c>
@@ -46099,7 +47077,9 @@
       <c r="E1090" t="n">
         <v>993.1</v>
       </c>
-      <c r="F1090" t="inlineStr"/>
+      <c r="F1090" t="n">
+        <v>3487</v>
+      </c>
       <c r="G1090" t="n">
         <v>8.887475149105368</v>
       </c>
@@ -46134,7 +47114,9 @@
       <c r="E1091" t="n">
         <v>867.6</v>
       </c>
-      <c r="F1091" t="inlineStr"/>
+      <c r="F1091" t="n">
+        <v>4024</v>
+      </c>
       <c r="G1091" t="n">
         <v>11.41378723404255</v>
       </c>
@@ -46169,7 +47151,9 @@
       <c r="E1092" t="n">
         <v>500.1</v>
       </c>
-      <c r="F1092" t="inlineStr"/>
+      <c r="F1092" t="n">
+        <v>1954</v>
+      </c>
       <c r="G1092" t="n">
         <v>9.63448275862069</v>
       </c>
@@ -46204,7 +47188,9 @@
       <c r="E1093" t="n">
         <v>687.9</v>
       </c>
-      <c r="F1093" t="inlineStr"/>
+      <c r="F1093" t="n">
+        <v>2462</v>
+      </c>
       <c r="G1093" t="n">
         <v>9.070815015218127</v>
       </c>
@@ -46239,7 +47225,9 @@
       <c r="E1094" t="n">
         <v>997.1</v>
       </c>
-      <c r="F1094" t="inlineStr"/>
+      <c r="F1094" t="n">
+        <v>3849</v>
+      </c>
       <c r="G1094" t="n">
         <v>10.58082840236686</v>
       </c>
@@ -46274,7 +47262,9 @@
       <c r="E1095" t="n">
         <v>609.7</v>
       </c>
-      <c r="F1095" t="inlineStr"/>
+      <c r="F1095" t="n">
+        <v>2120</v>
+      </c>
       <c r="G1095" t="n">
         <v>9.101594842212419</v>
       </c>
@@ -46309,7 +47299,9 @@
       <c r="E1096" t="n">
         <v>0</v>
       </c>
-      <c r="F1096" t="inlineStr"/>
+      <c r="F1096" t="n">
+        <v>9848</v>
+      </c>
       <c r="G1096" t="n">
         <v>21.03717647058824</v>
       </c>
@@ -46344,7 +47336,9 @@
       <c r="E1097" t="n">
         <v>722.6</v>
       </c>
-      <c r="F1097" t="inlineStr"/>
+      <c r="F1097" t="n">
+        <v>2616</v>
+      </c>
       <c r="G1097" t="n">
         <v>8.849356647970966</v>
       </c>
@@ -46379,7 +47373,9 @@
       <c r="E1098" t="n">
         <v>643.9</v>
       </c>
-      <c r="F1098" t="inlineStr"/>
+      <c r="F1098" t="n">
+        <v>2372</v>
+      </c>
       <c r="G1098" t="n">
         <v>9.558945117605132</v>
       </c>
@@ -46414,7 +47410,9 @@
       <c r="E1099" t="n">
         <v>1076.7</v>
       </c>
-      <c r="F1099" t="inlineStr"/>
+      <c r="F1099" t="n">
+        <v>4641</v>
+      </c>
       <c r="G1099" t="n">
         <v>9.617210469702401</v>
       </c>
@@ -46449,7 +47447,9 @@
       <c r="E1100" t="n">
         <v>632.8</v>
       </c>
-      <c r="F1100" t="inlineStr"/>
+      <c r="F1100" t="n">
+        <v>2411</v>
+      </c>
       <c r="G1100" t="n">
         <v>9.467843275679492</v>
       </c>
@@ -46484,7 +47484,9 @@
       <c r="E1101" t="n">
         <v>353.8</v>
       </c>
-      <c r="F1101" t="inlineStr"/>
+      <c r="F1101" t="n">
+        <v>1290</v>
+      </c>
       <c r="G1101" t="n">
         <v>9.582851018220794</v>
       </c>
@@ -46519,7 +47521,9 @@
       <c r="E1102" t="n">
         <v>620.8</v>
       </c>
-      <c r="F1102" t="inlineStr"/>
+      <c r="F1102" t="n">
+        <v>2302</v>
+      </c>
       <c r="G1102" t="n">
         <v>9.457827926657265</v>
       </c>
@@ -46554,7 +47558,9 @@
       <c r="E1103" t="n">
         <v>739</v>
       </c>
-      <c r="F1103" t="inlineStr"/>
+      <c r="F1103" t="n">
+        <v>2945</v>
+      </c>
       <c r="G1103" t="n">
         <v>9.872064777327935</v>
       </c>
@@ -46589,7 +47595,9 @@
       <c r="E1104" t="n">
         <v>612.2</v>
       </c>
-      <c r="F1104" t="inlineStr"/>
+      <c r="F1104" t="n">
+        <v>2179</v>
+      </c>
       <c r="G1104" t="n">
         <v>9.362094240837695</v>
       </c>
@@ -46624,7 +47632,9 @@
       <c r="E1105" t="n">
         <v>499.3</v>
       </c>
-      <c r="F1105" t="inlineStr"/>
+      <c r="F1105" t="n">
+        <v>3744</v>
+      </c>
       <c r="G1105" t="n">
         <v>4.010526315789473</v>
       </c>
@@ -46659,7 +47669,9 @@
       <c r="E1106" t="n">
         <v>612.4</v>
       </c>
-      <c r="F1106" t="inlineStr"/>
+      <c r="F1106" t="n">
+        <v>3420</v>
+      </c>
       <c r="G1106" t="n">
         <v>3.649802694244115</v>
       </c>
@@ -46694,7 +47706,9 @@
       <c r="E1107" t="n">
         <v>703.7</v>
       </c>
-      <c r="F1107" t="inlineStr"/>
+      <c r="F1107" t="n">
+        <v>2782</v>
+      </c>
       <c r="G1107" t="n">
         <v>9.778490703609187</v>
       </c>
@@ -46729,7 +47743,9 @@
       <c r="E1108" t="n">
         <v>321.4</v>
       </c>
-      <c r="F1108" t="inlineStr"/>
+      <c r="F1108" t="n">
+        <v>1357</v>
+      </c>
       <c r="G1108" t="n">
         <v>9.785625684056912</v>
       </c>
@@ -46764,7 +47780,9 @@
       <c r="E1109" t="n">
         <v>571.7</v>
       </c>
-      <c r="F1109" t="inlineStr"/>
+      <c r="F1109" t="n">
+        <v>2082</v>
+      </c>
       <c r="G1109" t="n">
         <v>9.236363636363636</v>
       </c>
@@ -46799,7 +47817,9 @@
       <c r="E1110" t="n">
         <v>370.1</v>
       </c>
-      <c r="F1110" t="inlineStr"/>
+      <c r="F1110" t="n">
+        <v>1683</v>
+      </c>
       <c r="G1110" t="n">
         <v>11.07905824039653</v>
       </c>
@@ -46834,7 +47854,9 @@
       <c r="E1111" t="n">
         <v>0</v>
       </c>
-      <c r="F1111" t="inlineStr"/>
+      <c r="F1111" t="n">
+        <v>10</v>
+      </c>
       <c r="G1111" t="inlineStr"/>
       <c r="H1111" t="inlineStr"/>
       <c r="I1111" t="inlineStr"/>
@@ -46865,7 +47887,9 @@
       <c r="E1112" t="n">
         <v>628.9</v>
       </c>
-      <c r="F1112" t="inlineStr"/>
+      <c r="F1112" t="n">
+        <v>2237</v>
+      </c>
       <c r="G1112" t="n">
         <v>9.388309415470772</v>
       </c>
@@ -46900,7 +47924,9 @@
       <c r="E1113" t="n">
         <v>110.7</v>
       </c>
-      <c r="F1113" t="inlineStr"/>
+      <c r="F1113" t="n">
+        <v>1991</v>
+      </c>
       <c r="G1113" t="n">
         <v>12.09851150202977</v>
       </c>
@@ -46933,7 +47959,9 @@
       <c r="E1114" t="n">
         <v>610.9</v>
       </c>
-      <c r="F1114" t="inlineStr"/>
+      <c r="F1114" t="n">
+        <v>3865</v>
+      </c>
       <c r="G1114" t="n">
         <v>3.980175100163229</v>
       </c>
@@ -46968,7 +47996,9 @@
       <c r="E1115" t="n">
         <v>1288.2</v>
       </c>
-      <c r="F1115" t="inlineStr"/>
+      <c r="F1115" t="n">
+        <v>9087</v>
+      </c>
       <c r="G1115" t="n">
         <v>3.746668529124179</v>
       </c>
@@ -47003,7 +48033,9 @@
       <c r="E1116" t="n">
         <v>713.4</v>
       </c>
-      <c r="F1116" t="inlineStr"/>
+      <c r="F1116" t="n">
+        <v>5305</v>
+      </c>
       <c r="G1116" t="n">
         <v>3.979584569732937</v>
       </c>
@@ -47038,7 +48070,9 @@
       <c r="E1117" t="n">
         <v>800.5</v>
       </c>
-      <c r="F1117" t="inlineStr"/>
+      <c r="F1117" t="n">
+        <v>3545</v>
+      </c>
       <c r="G1117" t="n">
         <v>9.799926927292656</v>
       </c>
@@ -47073,7 +48107,9 @@
       <c r="E1118" t="n">
         <v>677</v>
       </c>
-      <c r="F1118" t="inlineStr"/>
+      <c r="F1118" t="n">
+        <v>2424</v>
+      </c>
       <c r="G1118" t="n">
         <v>9.195200548508742</v>
       </c>
@@ -47108,7 +48144,9 @@
       <c r="E1119" t="n">
         <v>479.7</v>
       </c>
-      <c r="F1119" t="inlineStr"/>
+      <c r="F1119" t="n">
+        <v>1786</v>
+      </c>
       <c r="G1119" t="n">
         <v>9.662247838616715</v>
       </c>
@@ -47143,7 +48181,9 @@
       <c r="E1120" t="n">
         <v>1015.4</v>
       </c>
-      <c r="F1120" t="inlineStr"/>
+      <c r="F1120" t="n">
+        <v>3753</v>
+      </c>
       <c r="G1120" t="n">
         <v>9.447833744276155</v>
       </c>
@@ -47178,7 +48218,9 @@
       <c r="E1121" t="n">
         <v>725.9</v>
       </c>
-      <c r="F1121" t="inlineStr"/>
+      <c r="F1121" t="n">
+        <v>2451</v>
+      </c>
       <c r="G1121" t="n">
         <v>8.674773609314359</v>
       </c>
@@ -47213,7 +48255,9 @@
       <c r="E1122" t="n">
         <v>665</v>
       </c>
-      <c r="F1122" t="inlineStr"/>
+      <c r="F1122" t="n">
+        <v>2751</v>
+      </c>
       <c r="G1122" t="n">
         <v>10.48159437280188</v>
       </c>
@@ -47283,7 +48327,9 @@
       <c r="E1124" t="n">
         <v>1181.1</v>
       </c>
-      <c r="F1124" t="inlineStr"/>
+      <c r="F1124" t="n">
+        <v>4737</v>
+      </c>
       <c r="G1124" t="n">
         <v>10.00089485458613</v>
       </c>
@@ -47318,7 +48364,9 @@
       <c r="E1125" t="n">
         <v>707.3</v>
       </c>
-      <c r="F1125" t="inlineStr"/>
+      <c r="F1125" t="n">
+        <v>3154</v>
+      </c>
       <c r="G1125" t="n">
         <v>10.50622796709753</v>
       </c>
@@ -47353,7 +48401,9 @@
       <c r="E1126" t="n">
         <v>724.6</v>
       </c>
-      <c r="F1126" t="inlineStr"/>
+      <c r="F1126" t="n">
+        <v>2846</v>
+      </c>
       <c r="G1126" t="n">
         <v>9.767807720320466</v>
       </c>
@@ -47388,7 +48438,9 @@
       <c r="E1127" t="n">
         <v>345.9</v>
       </c>
-      <c r="F1127" t="inlineStr"/>
+      <c r="F1127" t="n">
+        <v>1447</v>
+      </c>
       <c r="G1127" t="n">
         <v>9.982285076293264</v>
       </c>
@@ -47423,7 +48475,9 @@
       <c r="E1128" t="n">
         <v>618.5</v>
       </c>
-      <c r="F1128" t="inlineStr"/>
+      <c r="F1128" t="n">
+        <v>2473</v>
+      </c>
       <c r="G1128" t="n">
         <v>10.18701101405241</v>
       </c>
@@ -47458,7 +48512,9 @@
       <c r="E1129" t="n">
         <v>664.3</v>
       </c>
-      <c r="F1129" t="inlineStr"/>
+      <c r="F1129" t="n">
+        <v>3372</v>
+      </c>
       <c r="G1129" t="n">
         <v>11.37024162780839</v>
       </c>
@@ -47493,7 +48549,9 @@
       <c r="E1130" t="n">
         <v>345.6</v>
       </c>
-      <c r="F1130" t="inlineStr"/>
+      <c r="F1130" t="n">
+        <v>1263</v>
+      </c>
       <c r="G1130" t="n">
         <v>9.329530434782608</v>
       </c>
@@ -47528,7 +48586,9 @@
       <c r="E1131" t="n">
         <v>513.3</v>
       </c>
-      <c r="F1131" t="inlineStr"/>
+      <c r="F1131" t="n">
+        <v>2513</v>
+      </c>
       <c r="G1131" t="n">
         <v>11.13887043189369</v>
       </c>
@@ -47563,7 +48623,9 @@
       <c r="E1132" t="n">
         <v>367.5</v>
       </c>
-      <c r="F1132" t="inlineStr"/>
+      <c r="F1132" t="n">
+        <v>1729</v>
+      </c>
       <c r="G1132" t="n">
         <v>10.77637605464042</v>
       </c>
@@ -47598,7 +48660,9 @@
       <c r="E1133" t="n">
         <v>708.1</v>
       </c>
-      <c r="F1133" t="inlineStr"/>
+      <c r="F1133" t="n">
+        <v>12864</v>
+      </c>
       <c r="G1133" t="n">
         <v>9.095422177009155</v>
       </c>
@@ -47633,7 +48697,9 @@
       <c r="E1134" t="n">
         <v>153.3</v>
       </c>
-      <c r="F1134" t="inlineStr"/>
+      <c r="F1134" t="n">
+        <v>800</v>
+      </c>
       <c r="G1134" t="n">
         <v>11.77971014492754</v>
       </c>
@@ -47666,7 +48732,9 @@
       <c r="E1135" t="n">
         <v>594.1</v>
       </c>
-      <c r="F1135" t="inlineStr"/>
+      <c r="F1135" t="n">
+        <v>2251</v>
+      </c>
       <c r="G1135" t="n">
         <v>9.394886164623468</v>
       </c>
@@ -47701,7 +48769,9 @@
       <c r="E1136" t="n">
         <v>504.3</v>
       </c>
-      <c r="F1136" t="inlineStr"/>
+      <c r="F1136" t="n">
+        <v>1817</v>
+      </c>
       <c r="G1136" t="n">
         <v>9.220488140254384</v>
       </c>
@@ -47736,7 +48806,9 @@
       <c r="E1137" t="n">
         <v>608.9</v>
       </c>
-      <c r="F1137" t="inlineStr"/>
+      <c r="F1137" t="n">
+        <v>3692</v>
+      </c>
       <c r="G1137" t="n">
         <v>9.78919708029197</v>
       </c>
@@ -47771,7 +48843,9 @@
       <c r="E1138" t="n">
         <v>596.5</v>
       </c>
-      <c r="F1138" t="inlineStr"/>
+      <c r="F1138" t="n">
+        <v>2222</v>
+      </c>
       <c r="G1138" t="n">
         <v>9.491295116772823</v>
       </c>
@@ -47806,7 +48880,9 @@
       <c r="E1139" t="n">
         <v>483.1</v>
       </c>
-      <c r="F1139" t="inlineStr"/>
+      <c r="F1139" t="n">
+        <v>2048</v>
+      </c>
       <c r="G1139" t="n">
         <v>9.518239886444286</v>
       </c>
@@ -47841,7 +48917,9 @@
       <c r="E1140" t="n">
         <v>307.4</v>
       </c>
-      <c r="F1140" t="inlineStr"/>
+      <c r="F1140" t="n">
+        <v>1240</v>
+      </c>
       <c r="G1140" t="n">
         <v>10.52684458398744</v>
       </c>
@@ -47876,7 +48954,9 @@
       <c r="E1141" t="n">
         <v>468.5</v>
       </c>
-      <c r="F1141" t="inlineStr"/>
+      <c r="F1141" t="n">
+        <v>2135</v>
+      </c>
       <c r="G1141" t="n">
         <v>10.53925343811395</v>
       </c>
@@ -47911,7 +48991,9 @@
       <c r="E1142" t="n">
         <v>307.2</v>
       </c>
-      <c r="F1142" t="inlineStr"/>
+      <c r="F1142" t="n">
+        <v>1254</v>
+      </c>
       <c r="G1142" t="n">
         <v>10.81984671238403</v>
       </c>
@@ -47946,7 +49028,9 @@
       <c r="E1143" t="n">
         <v>579.2</v>
       </c>
-      <c r="F1143" t="inlineStr"/>
+      <c r="F1143" t="n">
+        <v>1991</v>
+      </c>
       <c r="G1143" t="n">
         <v>9.031111111111111</v>
       </c>
@@ -47981,7 +49065,9 @@
       <c r="E1144" t="n">
         <v>599.2</v>
       </c>
-      <c r="F1144" t="inlineStr"/>
+      <c r="F1144" t="n">
+        <v>2302</v>
+      </c>
       <c r="G1144" t="n">
         <v>10.08360902255639</v>
       </c>
@@ -48016,7 +49102,9 @@
       <c r="E1145" t="n">
         <v>598</v>
       </c>
-      <c r="F1145" t="inlineStr"/>
+      <c r="F1145" t="n">
+        <v>2284</v>
+      </c>
       <c r="G1145" t="n">
         <v>10.05714285714286</v>
       </c>
@@ -48051,7 +49139,9 @@
       <c r="E1146" t="n">
         <v>613.5</v>
       </c>
-      <c r="F1146" t="inlineStr"/>
+      <c r="F1146" t="n">
+        <v>2453</v>
+      </c>
       <c r="G1146" t="n">
         <v>9.934222222222221</v>
       </c>
@@ -48086,7 +49176,9 @@
       <c r="E1147" t="n">
         <v>458.5</v>
       </c>
-      <c r="F1147" t="inlineStr"/>
+      <c r="F1147" t="n">
+        <v>2048</v>
+      </c>
       <c r="G1147" t="n">
         <v>11.5763487268019</v>
       </c>
@@ -48121,7 +49213,9 @@
       <c r="E1148" t="n">
         <v>966.6</v>
       </c>
-      <c r="F1148" t="inlineStr"/>
+      <c r="F1148" t="n">
+        <v>4039</v>
+      </c>
       <c r="G1148" t="n">
         <v>11.01535934291581</v>
       </c>
@@ -48156,7 +49250,9 @@
       <c r="E1149" t="n">
         <v>237.9</v>
       </c>
-      <c r="F1149" t="inlineStr"/>
+      <c r="F1149" t="n">
+        <v>828</v>
+      </c>
       <c r="G1149" t="n">
         <v>9.179466119096508</v>
       </c>
@@ -48191,7 +49287,9 @@
       <c r="E1150" t="n">
         <v>857.5</v>
       </c>
-      <c r="F1150" t="inlineStr"/>
+      <c r="F1150" t="n">
+        <v>3066</v>
+      </c>
       <c r="G1150" t="n">
         <v>9.576008568368438</v>
       </c>
@@ -48226,7 +49324,9 @@
       <c r="E1151" t="n">
         <v>573.7</v>
       </c>
-      <c r="F1151" t="inlineStr"/>
+      <c r="F1151" t="n">
+        <v>2301</v>
+      </c>
       <c r="G1151" t="n">
         <v>10.3282248748556</v>
       </c>
@@ -48261,7 +49361,9 @@
       <c r="E1152" t="n">
         <v>1009.6</v>
       </c>
-      <c r="F1152" t="inlineStr"/>
+      <c r="F1152" t="n">
+        <v>6404</v>
+      </c>
       <c r="G1152" t="n">
         <v>3.538108428967154</v>
       </c>
@@ -48296,7 +49398,9 @@
       <c r="E1153" t="n">
         <v>848.8</v>
       </c>
-      <c r="F1153" t="inlineStr"/>
+      <c r="F1153" t="n">
+        <v>3013</v>
+      </c>
       <c r="G1153" t="n">
         <v>9.457827926657265</v>
       </c>
@@ -48331,7 +49435,9 @@
       <c r="E1154" t="n">
         <v>849.5</v>
       </c>
-      <c r="F1154" t="inlineStr"/>
+      <c r="F1154" t="n">
+        <v>3134</v>
+      </c>
       <c r="G1154" t="n">
         <v>9.79277108433735</v>
       </c>
@@ -48366,7 +49472,9 @@
       <c r="E1155" t="n">
         <v>846.5</v>
       </c>
-      <c r="F1155" t="inlineStr"/>
+      <c r="F1155" t="n">
+        <v>3423</v>
+      </c>
       <c r="G1155" t="n">
         <v>10.22974828375286</v>
       </c>
@@ -48401,7 +49509,9 @@
       <c r="E1156" t="n">
         <v>852.4</v>
       </c>
-      <c r="F1156" t="inlineStr"/>
+      <c r="F1156" t="n">
+        <v>3161</v>
+      </c>
       <c r="G1156" t="n">
         <v>9.718260869565217</v>
       </c>
@@ -48436,7 +49546,9 @@
       <c r="E1157" t="n">
         <v>353.6</v>
       </c>
-      <c r="F1157" t="inlineStr"/>
+      <c r="F1157" t="n">
+        <v>2284</v>
+      </c>
       <c r="G1157" t="n">
         <v>3.610013458950202</v>
       </c>
@@ -48471,7 +49583,9 @@
       <c r="E1158" t="n">
         <v>1213.3</v>
       </c>
-      <c r="F1158" t="inlineStr"/>
+      <c r="F1158" t="n">
+        <v>7272</v>
+      </c>
       <c r="G1158" t="n">
         <v>9.313333333333334</v>
       </c>
@@ -48506,7 +49620,9 @@
       <c r="E1159" t="n">
         <v>1636.2</v>
       </c>
-      <c r="F1159" t="inlineStr"/>
+      <c r="F1159" t="n">
+        <v>18918</v>
+      </c>
       <c r="G1159" t="n">
         <v>3.824123182207015</v>
       </c>
@@ -48541,7 +49657,9 @@
       <c r="E1160" t="n">
         <v>1126.1</v>
       </c>
-      <c r="F1160" t="inlineStr"/>
+      <c r="F1160" t="n">
+        <v>4009</v>
+      </c>
       <c r="G1160" t="n">
         <v>9.538549075391181</v>
       </c>
@@ -48576,7 +49694,9 @@
       <c r="E1161" t="n">
         <v>578.8</v>
       </c>
-      <c r="F1161" t="inlineStr"/>
+      <c r="F1161" t="n">
+        <v>1873</v>
+      </c>
       <c r="G1161" t="n">
         <v>8.536728198599619</v>
       </c>
@@ -48611,7 +49731,9 @@
       <c r="E1162" t="n">
         <v>697.1</v>
       </c>
-      <c r="F1162" t="inlineStr"/>
+      <c r="F1162" t="n">
+        <v>2431</v>
+      </c>
       <c r="G1162" t="n">
         <v>9.284319833852544</v>
       </c>
@@ -48646,7 +49768,9 @@
       <c r="E1163" t="n">
         <v>327.2</v>
       </c>
-      <c r="F1163" t="inlineStr"/>
+      <c r="F1163" t="n">
+        <v>1033</v>
+      </c>
       <c r="G1163" t="n">
         <v>8.366313162819713</v>
       </c>
@@ -48681,7 +49805,9 @@
       <c r="E1164" t="n">
         <v>338.5</v>
       </c>
-      <c r="F1164" t="inlineStr"/>
+      <c r="F1164" t="n">
+        <v>1209</v>
+      </c>
       <c r="G1164" t="n">
         <v>9.417977528089889</v>
       </c>
@@ -48716,7 +49842,9 @@
       <c r="E1165" t="n">
         <v>340.5</v>
       </c>
-      <c r="F1165" t="inlineStr"/>
+      <c r="F1165" t="n">
+        <v>1207</v>
+      </c>
       <c r="G1165" t="n">
         <v>9.41136842105263</v>
       </c>
@@ -48751,7 +49879,9 @@
       <c r="E1166" t="n">
         <v>797.5</v>
       </c>
-      <c r="F1166" t="inlineStr"/>
+      <c r="F1166" t="n">
+        <v>3033</v>
+      </c>
       <c r="G1166" t="n">
         <v>9.176325692781388</v>
       </c>
@@ -48786,7 +49916,9 @@
       <c r="E1167" t="n">
         <v>983</v>
       </c>
-      <c r="F1167" t="inlineStr"/>
+      <c r="F1167" t="n">
+        <v>5118</v>
+      </c>
       <c r="G1167" t="n">
         <v>3.285045927740355</v>
       </c>
@@ -48821,7 +49953,9 @@
       <c r="E1168" t="n">
         <v>0</v>
       </c>
-      <c r="F1168" t="inlineStr"/>
+      <c r="F1168" t="n">
+        <v>628</v>
+      </c>
       <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr"/>
       <c r="I1168" t="inlineStr"/>
@@ -48852,7 +49986,9 @@
       <c r="E1169" t="n">
         <v>0</v>
       </c>
-      <c r="F1169" t="inlineStr"/>
+      <c r="F1169" t="n">
+        <v>0</v>
+      </c>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr"/>
       <c r="I1169" t="inlineStr"/>
@@ -48883,7 +50019,9 @@
       <c r="E1170" t="n">
         <v>0</v>
       </c>
-      <c r="F1170" t="inlineStr"/>
+      <c r="F1170" t="n">
+        <v>2246</v>
+      </c>
       <c r="G1170" t="inlineStr"/>
       <c r="H1170" t="inlineStr"/>
       <c r="I1170" t="inlineStr"/>
@@ -48914,7 +50052,9 @@
       <c r="E1171" t="n">
         <v>0</v>
       </c>
-      <c r="F1171" t="inlineStr"/>
+      <c r="F1171" t="n">
+        <v>149</v>
+      </c>
       <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr"/>
       <c r="I1171" t="inlineStr"/>
@@ -48945,7 +50085,9 @@
       <c r="E1172" t="n">
         <v>0</v>
       </c>
-      <c r="F1172" t="inlineStr"/>
+      <c r="F1172" t="n">
+        <v>2881</v>
+      </c>
       <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr"/>
       <c r="I1172" t="inlineStr"/>
@@ -48976,7 +50118,9 @@
       <c r="E1173" t="n">
         <v>543.5</v>
       </c>
-      <c r="F1173" t="inlineStr"/>
+      <c r="F1173" t="n">
+        <v>7048</v>
+      </c>
       <c r="G1173" t="n">
         <v>5.186078886310905</v>
       </c>
@@ -49011,7 +50155,9 @@
       <c r="E1174" t="n">
         <v>742.5</v>
       </c>
-      <c r="F1174" t="inlineStr"/>
+      <c r="F1174" t="n">
+        <v>4192</v>
+      </c>
       <c r="G1174" t="n">
         <v>3.381116853649313</v>
       </c>
@@ -49046,7 +50192,9 @@
       <c r="E1175" t="n">
         <v>201.7</v>
       </c>
-      <c r="F1175" t="inlineStr"/>
+      <c r="F1175" t="n">
+        <v>1318</v>
+      </c>
       <c r="G1175" t="n">
         <v>3.577751100440176</v>
       </c>
@@ -49081,7 +50229,9 @@
       <c r="E1176" t="n">
         <v>211.9</v>
       </c>
-      <c r="F1176" t="inlineStr"/>
+      <c r="F1176" t="n">
+        <v>1612</v>
+      </c>
       <c r="G1176" t="n">
         <v>4.001551544084738</v>
       </c>
@@ -49116,7 +50266,9 @@
       <c r="E1177" t="n">
         <v>660.7</v>
       </c>
-      <c r="F1177" t="inlineStr"/>
+      <c r="F1177" t="n">
+        <v>2134</v>
+      </c>
       <c r="G1177" t="n">
         <v>8.517751667195935</v>
       </c>
@@ -49151,7 +50303,9 @@
       <c r="E1178" t="n">
         <v>380.7</v>
       </c>
-      <c r="F1178" t="inlineStr"/>
+      <c r="F1178" t="n">
+        <v>1275</v>
+      </c>
       <c r="G1178" t="n">
         <v>8.561251196935844</v>
       </c>
@@ -49186,7 +50340,9 @@
       <c r="E1179" t="n">
         <v>766.2</v>
       </c>
-      <c r="F1179" t="inlineStr"/>
+      <c r="F1179" t="n">
+        <v>4884</v>
+      </c>
       <c r="G1179" t="n">
         <v>3.684395604395605</v>
       </c>
@@ -49221,7 +50377,9 @@
       <c r="E1180" t="n">
         <v>698.7</v>
       </c>
-      <c r="F1180" t="inlineStr"/>
+      <c r="F1180" t="n">
+        <v>7864</v>
+      </c>
       <c r="G1180" t="n">
         <v>12.15883952855848</v>
       </c>
@@ -49256,7 +50414,9 @@
       <c r="E1181" t="n">
         <v>319.3</v>
       </c>
-      <c r="F1181" t="inlineStr"/>
+      <c r="F1181" t="n">
+        <v>1097</v>
+      </c>
       <c r="G1181" t="n">
         <v>8.717062073448163</v>
       </c>
@@ -49291,7 +50451,9 @@
       <c r="E1182" t="n">
         <v>254.6</v>
       </c>
-      <c r="F1182" t="inlineStr"/>
+      <c r="F1182" t="n">
+        <v>886</v>
+      </c>
       <c r="G1182" t="n">
         <v>8.831873559433653</v>
       </c>
@@ -49326,7 +50488,9 @@
       <c r="E1183" t="n">
         <v>894.3</v>
       </c>
-      <c r="F1183" t="inlineStr"/>
+      <c r="F1183" t="n">
+        <v>5571</v>
+      </c>
       <c r="G1183" t="n">
         <v>3.589721627408994</v>
       </c>
@@ -49361,7 +50525,9 @@
       <c r="E1184" t="n">
         <v>649.1</v>
       </c>
-      <c r="F1184" t="inlineStr"/>
+      <c r="F1184" t="n">
+        <v>4209</v>
+      </c>
       <c r="G1184" t="n">
         <v>3.621712125303808</v>
       </c>
@@ -49396,7 +50562,9 @@
       <c r="E1185" t="n">
         <v>761.3</v>
       </c>
-      <c r="F1185" t="inlineStr"/>
+      <c r="F1185" t="n">
+        <v>4244</v>
+      </c>
       <c r="G1185" t="n">
         <v>3.642862963465978</v>
       </c>
@@ -49431,7 +50599,9 @@
       <c r="E1186" t="n">
         <v>591</v>
       </c>
-      <c r="F1186" t="inlineStr"/>
+      <c r="F1186" t="n">
+        <v>2004</v>
+      </c>
       <c r="G1186" t="n">
         <v>8.919986697705353</v>
       </c>
@@ -49466,7 +50636,9 @@
       <c r="E1187" t="n">
         <v>175.9</v>
       </c>
-      <c r="F1187" t="inlineStr"/>
+      <c r="F1187" t="n">
+        <v>558</v>
+      </c>
       <c r="G1187" t="n">
         <v>8.702920181700195</v>
       </c>
@@ -49501,7 +50673,9 @@
       <c r="E1188" t="n">
         <v>335</v>
       </c>
-      <c r="F1188" t="inlineStr"/>
+      <c r="F1188" t="n">
+        <v>995</v>
+      </c>
       <c r="G1188" t="n">
         <v>7.851990632318501</v>
       </c>
@@ -49536,7 +50710,9 @@
       <c r="E1189" t="n">
         <v>324.5</v>
       </c>
-      <c r="F1189" t="inlineStr"/>
+      <c r="F1189" t="n">
+        <v>1041</v>
+      </c>
       <c r="G1189" t="n">
         <v>8.53401209035953</v>
       </c>
@@ -49571,7 +50747,9 @@
       <c r="E1190" t="n">
         <v>0</v>
       </c>
-      <c r="F1190" t="inlineStr"/>
+      <c r="F1190" t="n">
+        <v>13168</v>
+      </c>
       <c r="G1190" t="n">
         <v>12.69398958826313</v>
       </c>
@@ -49606,7 +50784,9 @@
       <c r="E1191" t="n">
         <v>0</v>
       </c>
-      <c r="F1191" t="inlineStr"/>
+      <c r="F1191" t="n">
+        <v>3522</v>
+      </c>
       <c r="G1191" t="n">
         <v>12.192</v>
       </c>
@@ -49641,7 +50821,9 @@
       <c r="E1192" t="n">
         <v>853.9</v>
       </c>
-      <c r="F1192" t="inlineStr"/>
+      <c r="F1192" t="n">
+        <v>3022</v>
+      </c>
       <c r="G1192" t="n">
         <v>9.427908611599296</v>
       </c>
@@ -49676,7 +50858,9 @@
       <c r="E1193" t="n">
         <v>870.1</v>
       </c>
-      <c r="F1193" t="inlineStr"/>
+      <c r="F1193" t="n">
+        <v>3078</v>
+      </c>
       <c r="G1193" t="n">
         <v>9.25229389444636</v>
       </c>
@@ -49711,7 +50895,9 @@
       <c r="E1194" t="n">
         <v>0</v>
       </c>
-      <c r="F1194" t="inlineStr"/>
+      <c r="F1194" t="n">
+        <v>2948</v>
+      </c>
       <c r="G1194" t="n">
         <v>9.204667124227864</v>
       </c>
@@ -49746,7 +50932,9 @@
       <c r="E1195" t="n">
         <v>0</v>
       </c>
-      <c r="F1195" t="inlineStr"/>
+      <c r="F1195" t="n">
+        <v>816</v>
+      </c>
       <c r="G1195" t="n">
         <v>7.774608695652173</v>
       </c>
@@ -49781,7 +50969,9 @@
       <c r="E1196" t="n">
         <v>0</v>
       </c>
-      <c r="F1196" t="inlineStr"/>
+      <c r="F1196" t="n">
+        <v>3292</v>
+      </c>
       <c r="G1196" t="n">
         <v>14.39742351046699</v>
       </c>
@@ -49816,7 +51006,9 @@
       <c r="E1197" t="n">
         <v>885.8</v>
       </c>
-      <c r="F1197" t="inlineStr"/>
+      <c r="F1197" t="n">
+        <v>2985</v>
+      </c>
       <c r="G1197" t="n">
         <v>8.697276264591439</v>
       </c>
@@ -49851,7 +51043,9 @@
       <c r="E1198" t="n">
         <v>1638.5</v>
       </c>
-      <c r="F1198" t="inlineStr"/>
+      <c r="F1198" t="n">
+        <v>9162</v>
+      </c>
       <c r="G1198" t="n">
         <v>14.06523335081279</v>
       </c>
@@ -49886,7 +51080,9 @@
       <c r="E1199" t="n">
         <v>58.5</v>
       </c>
-      <c r="F1199" t="inlineStr"/>
+      <c r="F1199" t="n">
+        <v>620</v>
+      </c>
       <c r="G1199" t="n">
         <v>11.26518269634607</v>
       </c>

--- a/posts/RaceTraining/training_data.xlsx
+++ b/posts/RaceTraining/training_data.xlsx
@@ -65020,7 +65020,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>507.7212205718602</v>
+        <v>507.7212205718603</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
